--- a/Apple DCF Tiny.xlsx
+++ b/Apple DCF Tiny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shecky/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE88288E-EE36-1241-A433-C2B029B6C268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE1193-74F2-DB44-BA47-120F158429B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54500" yWindow="4200" windowWidth="31320" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60400" yWindow="4060" windowWidth="31320" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Appreciation</t>
   </si>
   <si>
-    <t>4.5 Year CAGR</t>
-  </si>
-  <si>
     <t>Terminal</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>2015-2020 Average</t>
+  </si>
+  <si>
+    <t>4.33 Year CAGR</t>
   </si>
 </sst>
 </file>
@@ -4286,7 +4286,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4301,7 +4301,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="151" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -4312,7 +4312,7 @@
       <c r="B2" s="152"/>
       <c r="C2" s="152"/>
       <c r="D2" s="152" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4402,11 +4402,11 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B11" s="150">
-        <f>(1+B10)^(1/4.5)-1</f>
-        <v>5.0106500846758273E-3</v>
+        <f>(1+B10)^(1/4.33)-1</f>
+        <v>5.2078844523024692E-3</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4455,7 +4455,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="155" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="155"/>
       <c r="C1" s="155"/>
@@ -4466,22 +4466,22 @@
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="83"/>
       <c r="B2" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="D2" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="E2" s="97" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="97" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="98">
         <v>1</v>
@@ -4496,7 +4496,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4509,10 +4509,10 @@
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="102" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>69</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="103"/>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="104">
         <v>0.228281549532486</v>
@@ -4530,26 +4530,26 @@
       <c r="D6" s="93"/>
       <c r="E6" s="93"/>
       <c r="F6" s="105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="106" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>71</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="93"/>
       <c r="E7" s="93"/>
       <c r="F7" s="105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="104">
         <v>0.14872712016695</v>
@@ -4558,7 +4558,7 @@
       <c r="D8" s="93"/>
       <c r="E8" s="93"/>
       <c r="F8" s="105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4571,13 +4571,13 @@
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="C10" s="107" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>75</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="103"/>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="94">
         <v>0.28999999999999998</v>
@@ -4596,12 +4596,12 @@
       <c r="D11" s="93"/>
       <c r="E11" s="93"/>
       <c r="F11" s="105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="94">
         <v>0.66</v>
@@ -4612,7 +4612,7 @@
       <c r="D12" s="93"/>
       <c r="E12" s="93"/>
       <c r="F12" s="105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4625,7 +4625,7 @@
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="108"/>
       <c r="C14" s="103"/>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="109">
         <v>0.02</v>
@@ -4644,7 +4644,7 @@
       <c r="D15" s="93"/>
       <c r="E15" s="93"/>
       <c r="F15" s="105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4659,12 +4659,12 @@
       <c r="D16" s="93"/>
       <c r="E16" s="93"/>
       <c r="F16" s="192" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="109">
         <v>6.9000000000000006E-2</v>
@@ -4673,12 +4673,12 @@
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
       <c r="F17" s="105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="109">
         <v>6.0999999999999999E-2</v>
@@ -4687,12 +4687,12 @@
       <c r="D18" s="93"/>
       <c r="E18" s="93"/>
       <c r="F18" s="105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="109">
         <v>0.17</v>
@@ -4701,12 +4701,12 @@
       <c r="D19" s="93"/>
       <c r="E19" s="93"/>
       <c r="F19" s="105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="109">
         <v>0.04</v>
@@ -4715,12 +4715,12 @@
       <c r="D20" s="93"/>
       <c r="E20" s="93"/>
       <c r="F20" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="109">
         <v>0.122</v>
@@ -4729,7 +4729,7 @@
       <c r="D21" s="93"/>
       <c r="E21" s="93"/>
       <c r="F21" s="105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4742,7 +4742,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="103"/>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="111"/>
       <c r="C24" s="93"/>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="111"/>
       <c r="C25" s="93"/>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="111"/>
       <c r="C26" s="93"/>
@@ -4924,12 +4924,12 @@
         <v>2025</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="3" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="16">
         <f>FCF!B10</f>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="4" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="5" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="6" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="7" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="8" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="9" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="11" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="16">
         <f>SUM(D5:I5)</f>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="12" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="21">
         <f>Financials!I37</f>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="28">
         <f>B11-B12</f>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="33">
         <f>Financials!C39*1000000</f>
@@ -5417,19 +5417,19 @@
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38"/>
       <c r="B1" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="42"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
       <c r="J1" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5462,7 +5462,7 @@
     </row>
     <row r="3" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="48">
         <v>265595</v>
@@ -5481,12 +5481,12 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="53">
         <f>B3*1000000</f>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="5" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="56">
         <v>163756</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="53">
         <f>B5*1000000</f>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="62">
         <f t="shared" ref="B8:I8" si="0">B4-B6</f>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="64">
         <f t="shared" ref="B9:I9" si="1">B8/B4</f>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="11" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="17">
         <v>16705</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="53">
         <f t="shared" ref="B12:I12" si="2">B11*1000000</f>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="13" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="66">
         <f t="shared" ref="B13:I13" si="3">B12/B4</f>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="53">
         <f t="shared" ref="B15:I15" si="4">B14*1000000</f>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="53">
         <f>B16*1000000</f>
@@ -5917,12 +5917,12 @@
         <v>11502000000</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="18">
         <f t="shared" ref="B18:I18" si="5">B17/B4</f>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="62">
         <f t="shared" ref="B20:I20" si="6">B8-B12-B15+B17</f>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="62">
         <f t="shared" ref="B22:I22" si="7">B20-B17</f>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="17">
         <v>2005</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="53">
         <f t="shared" ref="B25:I25" si="8">B24*1000000</f>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6154,7 +6154,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="62">
         <f t="shared" ref="B27:I27" si="9">B22+B25</f>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="53">
         <f t="shared" ref="B29:I29" si="10">B28*1000000</f>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="81">
         <f t="shared" ref="B30:I30" si="11">IF(B27&gt;0,B29/B27,0)</f>
@@ -6298,7 +6298,7 @@
         <v>0.17</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6327,7 +6327,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="62">
         <f t="shared" ref="B33:I33" si="12">B27-B29</f>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="16">
         <v>75265000000</v>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="36" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="77">
         <v>122617</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="16">
         <f>B36*1000000</f>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="79">
         <v>20000.400000000001</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="26">
         <f>B33/B39/1000000</f>
@@ -6615,7 +6615,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="86">
         <v>189264.19990917601</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="89">
         <v>39380.229492070903</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="89">
         <v>25740</v>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="89">
         <v>21280</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="89">
         <f>SUM(B3:B6)</f>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="89">
         <v>68466.207833031804</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="89">
         <f>SUM(B8:B9)</f>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="89">
         <f>B11*0.4</f>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="94">
         <f>B12/B11</f>
@@ -6911,12 +6911,12 @@
     <row r="1" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="113"/>
       <c r="B1" s="114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="115"/>
       <c r="D1" s="115"/>
       <c r="E1" s="116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="118"/>
@@ -6959,7 +6959,7 @@
         <v>2025</v>
       </c>
       <c r="J2" s="122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6976,7 +6976,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="126" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="127">
         <v>48995</v>
@@ -7008,12 +7008,12 @@
         <v>42127.572016460908</v>
       </c>
       <c r="J4" s="129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="127">
         <v>3956</v>
@@ -7045,12 +7045,12 @@
         <v>4048.890625</v>
       </c>
       <c r="J5" s="129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="127">
         <v>55888</v>
@@ -7082,12 +7082,12 @@
         <v>47169.4375</v>
       </c>
       <c r="J6" s="129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="130" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="127">
         <f t="shared" ref="B7:I7" si="1">SUM(B4:B5)-B6</f>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="9" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="135">
@@ -7200,11 +7200,11 @@
     <row r="1" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138"/>
       <c r="B1" s="114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="139"/>
       <c r="D1" s="116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="140"/>
       <c r="F1" s="139"/>
@@ -7243,7 +7243,7 @@
         <v>2025</v>
       </c>
       <c r="I2" s="143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7259,7 +7259,7 @@
     </row>
     <row r="4" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="135">
         <f>Financials!C33</f>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="5" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="135">
         <f>Financials!C17</f>
@@ -7324,12 +7324,12 @@
         <v>11502000000</v>
       </c>
       <c r="I5" s="129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="145" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="127">
         <v>6068</v>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="7" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="145" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="135">
         <f>'NonCash Working Cap'!C9</f>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="8" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="145" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="135">
         <v>11119000000</v>
@@ -7424,7 +7424,7 @@
         <v>9618812500</v>
       </c>
       <c r="I8" s="129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7440,7 +7440,7 @@
     </row>
     <row r="10" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="135">
         <f>B4+B5-B7-B8+B6*1000000</f>
@@ -7519,7 +7519,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="159" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="160"/>
       <c r="C1" s="161"/>
@@ -7555,59 +7555,59 @@
         <v>1</v>
       </c>
       <c r="C2" s="159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="159" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="159" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="G2" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="H2" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="I2" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="J2" s="159" t="s">
         <v>116</v>
-      </c>
-      <c r="J2" s="159" t="s">
-        <v>117</v>
       </c>
       <c r="K2" s="161"/>
       <c r="L2" s="159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="159" t="s">
+      <c r="O2" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="159" t="s">
+      <c r="P2" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="P2" s="159" t="s">
+      <c r="Q2" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="159" t="s">
+      <c r="R2" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="159" t="s">
+      <c r="S2" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="159" t="s">
+      <c r="T2" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="T2" s="159" t="s">
+      <c r="U2" s="159" t="s">
         <v>125</v>
-      </c>
-      <c r="U2" s="159" t="s">
-        <v>126</v>
       </c>
       <c r="V2" s="159" t="s">
         <v>6</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="41" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="188" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="189"/>
       <c r="C41" s="189"/>

--- a/Apple DCF Tiny.xlsx
+++ b/Apple DCF Tiny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shecky/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE1193-74F2-DB44-BA47-120F158429B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E307FE6-704A-4449-AE87-04B58006AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60400" yWindow="4060" windowWidth="31320" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="3360" windowWidth="31320" windowHeight="23600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>See note</t>
   </si>
   <si>
-    <t>Return to 2019 levels</t>
-  </si>
-  <si>
     <t>Margins</t>
   </si>
   <si>
@@ -395,15 +392,6 @@
     <t>Fill out the assumptions tab, but don't change the rest</t>
   </si>
   <si>
-    <t>Medium minus 2pp on years 2-4</t>
-  </si>
-  <si>
-    <t>Medium minus 4pp</t>
-  </si>
-  <si>
-    <t>Medium minus 3 pp</t>
-  </si>
-  <si>
     <t>Medium minus 2pp</t>
   </si>
   <si>
@@ -465,6 +453,18 @@
   </si>
   <si>
     <t>4.33 Year CAGR</t>
+  </si>
+  <si>
+    <t>Medium minus 5pp</t>
+  </si>
+  <si>
+    <t>2019 levels minus 10%</t>
+  </si>
+  <si>
+    <t>Medium minus 5 pp</t>
+  </si>
+  <si>
+    <t>Medium minus 3pp on years 2-3 and just above 2021 in 2024</t>
   </si>
 </sst>
 </file>
@@ -472,22 +472,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="14">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,###,,,&quot;B&quot;"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;0.00"/>
-    <numFmt numFmtId="167" formatCode="#,###,,&quot;M&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,###.0,&quot;B&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,###&quot;M&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="#,##0%"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0%"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,###,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;0.00"/>
+    <numFmt numFmtId="169" formatCode="#,###,,&quot;M&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,###.0,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,###&quot;M&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.0%"/>
+    <numFmt numFmtId="175" formatCode="#,##0%"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="#,##0.0#"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -636,12 +636,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -675,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -988,21 +982,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA5A5A5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA5A5A5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -1010,7 +989,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1018,9 +997,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1039,24 +1019,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1077,21 +1057,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,8 +1083,8 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1112,26 +1092,26 @@
     <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1139,19 +1119,19 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,8 +1156,8 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1186,8 +1166,8 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1202,30 +1182,21 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1237,7 +1208,7 @@
     <xf numFmtId="2" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1249,7 +1220,7 @@
     <xf numFmtId="178" fontId="22" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
@@ -1258,22 +1229,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="171" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="174" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
@@ -1288,31 +1259,25 @@
     <xf numFmtId="14" fontId="22" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="174" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
@@ -1321,11 +1286,28 @@
     <xf numFmtId="10" fontId="22" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{AE92281D-C3BB-7A4F-A848-5D7F310DA091}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{416BFC1A-1329-1C4B-8EA4-B78F4EF97840}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1508,19 +1490,19 @@
                 <c:formatCode>"$"0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>122.82581644535284</c:v>
+                  <c:v>127.70252587617085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117.07384695818526</c:v>
+                  <c:v>114.38495040840726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140.07753462710704</c:v>
+                  <c:v>135.43742531677944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.31825578325069</c:v>
+                  <c:v>163.78969920446704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.02295056749949</c:v>
+                  <c:v>177.07721504561141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,7 +1705,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2236,11 +2217,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$G$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$G$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2593,7 +2574,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80D5BD3-8C2F-B44D-8D5E-183440DB6438}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,70 +2593,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08829</cdr:x>
-      <cdr:y>0.7282</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.97477</cdr:x>
-      <cdr:y>0.73077</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA57DB4-100B-D54C-9501-928ABE4D9B63}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="622312" y="3606794"/>
-          <a:ext cx="6248354" cy="12729"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="none"/>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2827,11 +2744,11 @@
     <v>Powered by Refinitiv</v>
     <v>145.09</v>
     <v>83.144999999999996</v>
-    <v>1.2021999999999999</v>
-    <v>-1.02</v>
-    <v>-8.0230000000000006E-3</v>
-    <v>0.17</v>
-    <v>1.348E-3</v>
+    <v>1.2027000000000001</v>
+    <v>1.24</v>
+    <v>9.8329999999999997E-3</v>
+    <v>0.05</v>
+    <v>3.9260000000000006E-4</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players. The Company sells a range of related software, services, accessories, networking solutions, and third-party digital content and applications. The Company's segments include the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and the Asian countries not included in the Company's other operating segments. Its products and services include iPhone, iPad, Mac, iPod, Apple Watch, Apple TV, a portfolio of consumer and professional software applications, iPhone OS (iOS), OS X and watchOS operating systems, iCloud, Apple Pay and a range of accessory, service and support offerings.</v>
     <v>147000</v>
@@ -2839,26 +2756,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Apple Park Way, CUPERTINO, CA, 95014-0642 US</v>
-    <v>128.19</v>
+    <v>127.44</v>
     <v>3</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>44357.999995265622</v>
+    <v>44358.999905057812</v>
     <v>4</v>
-    <v>125.94</v>
-    <v>2104477019300</v>
+    <v>126.1</v>
+    <v>2125169680500</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>127.02</v>
-    <v>28.527200000000001</v>
-    <v>127.13</v>
+    <v>126.53</v>
+    <v>28.298300000000001</v>
     <v>126.11</v>
-    <v>126.28</v>
+    <v>127.35</v>
+    <v>127.4</v>
     <v>16687630000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>71186421</v>
-    <v>79195562</v>
+    <v>53522373</v>
+    <v>78682983</v>
     <v>1977</v>
   </rv>
   <rv s="4">
@@ -3127,7 +3044,7 @@
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <dxfs count="8">
     <x:dxf>
-      <x:numFmt numFmtId="176" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <x:numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -3139,7 +3056,7 @@
       <x:numFmt numFmtId="14" formatCode="0.00%"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="175" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+      <x:numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
@@ -4285,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4299,20 +4216,20 @@
     <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="151" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="153" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-    </row>
-    <row r="2" spans="1:4" s="151" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152" t="s">
+    <row r="1" spans="1:4" s="152" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="187" t="s">
         <v>104</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+    </row>
+    <row r="2" spans="1:4" s="152" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4339,9 +4256,9 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="158" cm="1">
+      <c r="B5" s="5" cm="1">
         <f t="array" ref="B5">_FV(B4,"Price")</f>
-        <v>126.11</v>
+        <v>127.35</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4350,12 +4267,12 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="147">
+      <c r="B6" s="148">
         <f>Assumptions!B15</f>
         <v>0.02</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4363,17 +4280,17 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="149">
         <f>Assumptions!B16</f>
         <v>6.7380327129735726E-2</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>128</v>
+      <c r="D7" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4382,9 +4299,9 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <f>'FV Calculation'!$B$13/'FV Calculation'!$I$20</f>
-        <v>128.97855696420876</v>
+      <c r="B9" s="8">
+        <f>'FV Calculation'!I10</f>
+        <v>177.07721504561141</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4393,26 +4310,26 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="149">
+      <c r="B10" s="150">
         <f>(B9-B5)/B5</f>
-        <v>2.2746467085946905E-2</v>
+        <v>0.3904767573271411</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="150">
+        <v>125</v>
+      </c>
+      <c r="B11" s="151">
         <f>(1+B10)^(1/4.33)-1</f>
-        <v>5.2078844523024692E-3</v>
+        <v>7.91037902493128E-2</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -4437,355 +4354,355 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" style="96" customWidth="1"/>
-    <col min="2" max="5" width="16.33203125" style="96" customWidth="1"/>
-    <col min="6" max="6" width="81.5" style="96" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="96" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.33203125" style="96"/>
+    <col min="1" max="1" width="45.33203125" style="97" customWidth="1"/>
+    <col min="2" max="5" width="16.33203125" style="97" customWidth="1"/>
+    <col min="6" max="6" width="81.5" style="97" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="97" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.33203125" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83"/>
-      <c r="B2" s="97" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="98">
+      <c r="B3" s="99">
         <v>1</v>
       </c>
-      <c r="C3" s="99">
-        <v>0.85</v>
-      </c>
-      <c r="D3" s="99">
-        <v>0.85</v>
-      </c>
-      <c r="E3" s="100">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>106</v>
+      <c r="C3" s="100">
+        <v>0.83</v>
+      </c>
+      <c r="D3" s="100">
+        <v>0.83</v>
+      </c>
+      <c r="E3" s="101">
+        <v>1.01</v>
+      </c>
+      <c r="F3" s="102" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="104">
-        <v>0.228281549532486</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="105" t="s">
-        <v>107</v>
+      <c r="B6" s="105">
+        <v>0.21828154953248599</v>
+      </c>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="106" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="105" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="105">
+        <v>0.11872712016695</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="89" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="104">
-        <v>0.14872712016695</v>
-      </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
+      <c r="B10" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="C10" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88" t="s">
+      <c r="B11" s="95">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C11" s="96">
+        <v>0.24</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="94">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C11" s="95">
-        <v>0.24</v>
-      </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="B12" s="95">
+        <v>0.66</v>
+      </c>
+      <c r="C12" s="96">
+        <v>0.66</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="94">
-        <v>0.66</v>
-      </c>
-      <c r="C12" s="95">
-        <v>0.66</v>
-      </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+    </row>
+    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="88" t="s">
+      <c r="B15" s="110">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="109">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="105" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="109">
+      <c r="B16" s="110">
         <f>WACC!V41</f>
         <v>6.7380327129735726E-2</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="192" t="s">
-        <v>127</v>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="186" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="110">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="106" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="109">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="105" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
+      <c r="B18" s="110">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="106" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="109">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="105" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+      <c r="B19" s="110">
+        <v>0.17</v>
+      </c>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="109">
-        <v>0.17</v>
-      </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="105" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="89" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="88" t="s">
+      <c r="B20" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="109">
-        <v>0.04</v>
-      </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="105" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="89" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="88" t="s">
+      <c r="B21" s="110">
+        <v>0.122</v>
+      </c>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="109">
-        <v>0.122</v>
-      </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="105" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="92"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-    </row>
-    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="88" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+    </row>
+    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="112"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-    </row>
-    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="88" t="s">
+      <c r="B25" s="112"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="96" t="b">
+      <c r="B26" s="112"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4880,508 +4797,508 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="8" customWidth="1"/>
-    <col min="4" max="9" width="9.1640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="22.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="9" customWidth="1"/>
+    <col min="4" max="9" width="9.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11">
         <f>FCF!B2</f>
         <v>2019</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="11">
         <f>FCF!C2</f>
         <v>2020</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="11">
         <f>FCF!D2</f>
         <v>2021</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="11">
         <f>FCF!E2</f>
         <v>2022</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="11">
         <f>FCF!F2</f>
         <v>2023</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="11">
         <f>FCF!G2</f>
         <v>2024</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="11">
         <f>FCF!H2</f>
         <v>2025</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="15">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="15">
         <f>F2+1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="15">
         <f>G2+1</f>
         <v>4</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="17">
         <f>FCF!B10</f>
         <v>69394000000</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="17">
         <f>FCF!C10</f>
         <v>61917000000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="17">
         <f>FCF!D10</f>
-        <v>88938452578.600311</v>
-      </c>
-      <c r="E3" s="16">
+        <v>92613704565.339417</v>
+      </c>
+      <c r="E3" s="17">
         <f>FCF!E10</f>
-        <v>77686156660.346069</v>
-      </c>
-      <c r="F3" s="16">
+        <v>75603199855.849335</v>
+      </c>
+      <c r="F3" s="17">
         <f>FCF!F10</f>
-        <v>87537174381.793701</v>
-      </c>
-      <c r="G3" s="16">
+        <v>84233360312.385895</v>
+      </c>
+      <c r="G3" s="17">
         <f>FCF!G10</f>
-        <v>91639534926.921204</v>
-      </c>
-      <c r="H3" s="16">
+        <v>96698847220.394135</v>
+      </c>
+      <c r="H3" s="17">
         <f>FCF!H10</f>
-        <v>70206987286.403091</v>
-      </c>
-      <c r="I3" s="16">
+        <v>97947424795.714539</v>
+      </c>
+      <c r="I3" s="17">
         <f>H3</f>
-        <v>70206987286.403091</v>
+        <v>97947424795.714539</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18">
         <f>((1+Dashboard!$B$7)^D2)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="18">
         <f>((1+Dashboard!$B$7)^E2)</f>
         <v>1.0673803271297357</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <f>((1+Dashboard!$B$7)^F2)</f>
         <v>1.1393007627435816</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="18">
         <f>((1+Dashboard!$B$7)^G2)</f>
         <v>1.2160672208364016</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="18">
         <f>((1+Dashboard!$B$7)^H2)</f>
         <v>1.2980062279881068</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="19">
         <f>(Dashboard!$B$7-Dashboard!$B$6)</f>
         <v>4.7380327129735722E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22">
         <f>D3/D4</f>
-        <v>88938452578.600311</v>
-      </c>
-      <c r="E5" s="21">
+        <v>92613704565.339417</v>
+      </c>
+      <c r="E5" s="22">
         <f>E3/E4</f>
-        <v>72782076534.284515</v>
-      </c>
-      <c r="F5" s="21">
+        <v>70830610171.682571</v>
+      </c>
+      <c r="F5" s="22">
         <f>F3/F4</f>
-        <v>76834122511.243668</v>
-      </c>
-      <c r="G5" s="21">
+        <v>73934261317.916809</v>
+      </c>
+      <c r="G5" s="22">
         <f>G3/G4</f>
-        <v>75357293870.557785</v>
-      </c>
-      <c r="H5" s="21">
+        <v>79517682545.447952</v>
+      </c>
+      <c r="H5" s="22">
         <f>H3/H4</f>
-        <v>54088328524.604256</v>
-      </c>
-      <c r="I5" s="21">
+        <v>75459903568.823242</v>
+      </c>
+      <c r="I5" s="22">
         <f>(I3*(1+Dashboard!B6))/I4</f>
-        <v>1511410565740.6545</v>
+        <v>2108604548425.0774</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25">
         <f>(D3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1914660094721.856</v>
-      </c>
-      <c r="E6" s="24">
+        <v>1993780633847.9185</v>
+      </c>
+      <c r="E6" s="25">
         <f>(E3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1672421542733.9744</v>
-      </c>
-      <c r="F6" s="24">
+        <v>1627579810536.3662</v>
+      </c>
+      <c r="F6" s="25">
         <f>(F3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1884493486609.8213</v>
-      </c>
-      <c r="G6" s="24">
+        <v>1813369234099.521</v>
+      </c>
+      <c r="G6" s="25">
         <f>(G3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1972808785585.5417</v>
-      </c>
-      <c r="H6" s="24">
+        <v>2081725267424.3445</v>
+      </c>
+      <c r="H6" s="25">
         <f>(H3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1511410565740.6545</v>
-      </c>
-      <c r="I6" s="24">
+        <v>2108604548425.0774</v>
+      </c>
+      <c r="I6" s="25">
         <f>I5</f>
-        <v>1511410565740.6545</v>
+        <v>2108604548425.0774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="17">
         <f>D5+D6</f>
-        <v>2003598547300.4563</v>
-      </c>
-      <c r="E7" s="16">
+        <v>2086394338413.2578</v>
+      </c>
+      <c r="E7" s="17">
         <f>SUM($D5:E5,E6)</f>
-        <v>1834142071846.8591</v>
-      </c>
-      <c r="F7" s="16">
+        <v>1791024125273.3882</v>
+      </c>
+      <c r="F7" s="17">
         <f>SUM($D5:F5,F6)</f>
-        <v>2123048138233.9497</v>
-      </c>
-      <c r="G7" s="16">
+        <v>2050747810154.4597</v>
+      </c>
+      <c r="G7" s="17">
         <f>SUM($D5:G5,G6)</f>
-        <v>2286720731080.228</v>
-      </c>
-      <c r="H7" s="16">
+        <v>2398621526024.7314</v>
+      </c>
+      <c r="H7" s="17">
         <f>SUM($D5:H5,H6)</f>
-        <v>1879410839759.9451</v>
-      </c>
-      <c r="I7" s="16">
+        <v>2500960710594.2871</v>
+      </c>
+      <c r="I7" s="17">
         <f>SUM($D5:I5)</f>
-        <v>1879410839759.9451</v>
+        <v>2500960710594.2871</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="17">
         <f>-Financials!E37</f>
-        <v>-63200309484.279938</v>
-      </c>
-      <c r="E8" s="16">
+        <v>-62465259086.932114</v>
+      </c>
+      <c r="E8" s="17">
         <f>-Financials!F37</f>
-        <v>-57067578152.210724</v>
-      </c>
-      <c r="F8" s="16">
+        <v>-56749119115.762253</v>
+      </c>
+      <c r="F8" s="17">
         <f>-Financials!G37</f>
-        <v>-49250393275.85199</v>
-      </c>
-      <c r="G8" s="16">
+        <v>-49592697053.28508</v>
+      </c>
+      <c r="G8" s="17">
         <f>-Financials!H37</f>
-        <v>-40469861290.467758</v>
-      </c>
-      <c r="H8" s="16">
+        <v>-39800302609.206253</v>
+      </c>
+      <c r="H8" s="17">
         <f>-Financials!I37</f>
-        <v>-36047276333.187149</v>
-      </c>
-      <c r="I8" s="16">
+        <v>-29829630150.063354</v>
+      </c>
+      <c r="I8" s="17">
         <f>H8</f>
-        <v>-36047276333.187149</v>
+        <v>-29829630150.063354</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="16">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="17">
         <f t="shared" ref="D9:I9" si="0">D7-D8</f>
-        <v>2066798856784.7363</v>
-      </c>
-      <c r="E9" s="16">
+        <v>2148859597500.1899</v>
+      </c>
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>1891209649999.0698</v>
-      </c>
-      <c r="F9" s="16">
+        <v>1847773244389.1504</v>
+      </c>
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>2172298531509.8018</v>
-      </c>
-      <c r="G9" s="16">
+        <v>2100340507207.7449</v>
+      </c>
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>2327190592370.6958</v>
-      </c>
-      <c r="H9" s="16">
+        <v>2438421828633.9375</v>
+      </c>
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>1915458116093.1323</v>
-      </c>
-      <c r="I9" s="16">
+        <v>2530790340744.3506</v>
+      </c>
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
-        <v>1915458116093.1323</v>
+        <v>2530790340744.3506</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="26">
+      <c r="A10" s="26"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="27">
         <f t="shared" ref="D10:I10" si="1">D9/D20</f>
-        <v>122.82581644535284</v>
-      </c>
-      <c r="E10" s="26">
+        <v>127.70252587617085</v>
+      </c>
+      <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>117.07384695818526</v>
-      </c>
-      <c r="F10" s="26">
+        <v>114.38495040840726</v>
+      </c>
+      <c r="F10" s="27">
         <f t="shared" si="1"/>
-        <v>140.07753462710704</v>
-      </c>
-      <c r="G10" s="26">
+        <v>135.43742531677944</v>
+      </c>
+      <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>156.31825578325069</v>
-      </c>
-      <c r="H10" s="26">
+        <v>163.78969920446704</v>
+      </c>
+      <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>134.02295056749949</v>
-      </c>
-      <c r="I10" s="26">
+        <v>177.07721504561141</v>
+      </c>
+      <c r="I10" s="27">
         <f t="shared" si="1"/>
-        <v>134.02295056749949</v>
+        <v>177.07721504561141</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <f>SUM(D5:I5)</f>
-        <v>1879410839759.9451</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+        <v>2500960710594.2871</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21">
-        <f>Financials!I37</f>
-        <v>36047276333.187149</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="B12" s="22">
+        <f>H8</f>
+        <v>-29829630150.063354</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="29">
         <f>B11-B12</f>
-        <v>1843363563426.7578</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+        <v>2530790340744.3506</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="31">
         <f>Assumptions!B16</f>
         <v>6.7380327129735726E-2</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="34">
         <f>Financials!C39*1000000</f>
         <v>18595700000</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="34">
         <f>Financials!D39*1000000</f>
         <v>17528200000</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="34">
         <f>Financials!E39</f>
         <v>16827072000</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="34">
         <f>Financials!F39</f>
         <v>16153989120</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="34">
         <f>Financials!G39</f>
         <v>15507829555.199999</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="34">
         <f>Financials!H39</f>
         <v>14887516372.991999</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="34">
         <f>Financials!I39</f>
         <v>14292015718.072319</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="34">
         <f>H20</f>
         <v>14292015718.072319</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5404,1183 +5321,1183 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="37" customWidth="1"/>
-    <col min="3" max="6" width="9.1640625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="10" style="37" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="33.83203125" style="37" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="37" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="37"/>
+    <col min="1" max="1" width="40.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="38" customWidth="1"/>
+    <col min="3" max="6" width="9.1640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10" style="38" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="33.83203125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="38" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="39" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="44">
+      <c r="A2" s="39"/>
+      <c r="B2" s="45">
         <v>2018</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="45">
         <v>2019</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="45">
         <v>2020</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="46">
         <v>2021</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="46">
         <v>2022</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="46">
         <v>2023</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="46">
         <v>2024</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="46">
         <v>2025</v>
       </c>
-      <c r="J2" s="46"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="49">
         <v>265595</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="50">
         <v>260174</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="50">
         <v>274515</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="51">
         <v>358624.99791904603</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="54">
         <f>B3*1000000</f>
         <v>265595000000</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="54">
         <f>C3*1000000</f>
         <v>260174000000</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="54">
         <f>D3*1000000</f>
         <v>274515000000</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="55">
         <f>'Revenue Model'!B11*1000000</f>
-        <v>344130637234.27875</v>
-      </c>
-      <c r="F4" s="54">
+        <v>360144807111.13776</v>
+      </c>
+      <c r="F4" s="55">
         <f>'Revenue Model'!C11*1000000</f>
-        <v>334913568977.05585</v>
-      </c>
-      <c r="G4" s="54">
+        <v>323978496448.96063</v>
+      </c>
+      <c r="G4" s="55">
         <f>'Revenue Model'!D11*1000000</f>
-        <v>357652787401.2677</v>
-      </c>
-      <c r="H4" s="54">
+        <v>343544721441.88635</v>
+      </c>
+      <c r="H4" s="55">
         <f>'Revenue Model'!E11*1000000</f>
-        <v>404130000312.0672</v>
-      </c>
-      <c r="I4" s="54">
+        <v>400544109886.39453</v>
+      </c>
+      <c r="I4" s="55">
         <f>'Revenue Model'!F11*1000000</f>
-        <v>341207508413.66852</v>
-      </c>
-      <c r="J4" s="13"/>
+        <v>394972048477.99615</v>
+      </c>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="57">
         <v>163756</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="57">
         <v>161782</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="57">
         <v>169559</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="13"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="54">
         <f>B5*1000000</f>
         <v>163756000000</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="54">
         <f>C5*1000000</f>
         <v>161782000000</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="54">
         <f>D5*1000000</f>
         <v>169559000000</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="55">
         <f>('Revenue Model'!B11-'Revenue Model'!B12)*1000000</f>
-        <v>206478382340.56723</v>
-      </c>
-      <c r="F6" s="54">
+        <v>216086884266.68268</v>
+      </c>
+      <c r="F6" s="55">
         <f>('Revenue Model'!C11-'Revenue Model'!C12)*1000000</f>
-        <v>208688507765.17719</v>
-      </c>
-      <c r="G6" s="54">
+        <v>201684581177.17621</v>
+      </c>
+      <c r="G6" s="55">
         <f>('Revenue Model'!D11-'Revenue Model'!D12)*1000000</f>
-        <v>220505374878.87775</v>
-      </c>
-      <c r="H6" s="54">
+        <v>212211856373.02054</v>
+      </c>
+      <c r="H6" s="55">
         <f>('Revenue Model'!E11-'Revenue Model'!E12)*1000000</f>
-        <v>258132472839.49554</v>
-      </c>
-      <c r="I6" s="54">
+        <v>248917191189.07245</v>
+      </c>
+      <c r="I6" s="55">
         <f>('Revenue Model'!F11-'Revenue Model'!F12)*1000000</f>
-        <v>227396944316.39087</v>
-      </c>
-      <c r="J6" s="13"/>
+        <v>240749880305.71561</v>
+      </c>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="13"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="63">
         <f t="shared" ref="B8:I8" si="0">B4-B6</f>
         <v>101839000000</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="63">
         <f t="shared" si="0"/>
         <v>98392000000</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="63">
         <f t="shared" si="0"/>
         <v>104956000000</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="64">
         <f t="shared" si="0"/>
-        <v>137652254893.71152</v>
-      </c>
-      <c r="F8" s="63">
+        <v>144057922844.45508</v>
+      </c>
+      <c r="F8" s="64">
         <f t="shared" si="0"/>
-        <v>126225061211.87866</v>
-      </c>
-      <c r="G8" s="63">
+        <v>122293915271.78442</v>
+      </c>
+      <c r="G8" s="64">
         <f t="shared" si="0"/>
-        <v>137147412522.38995</v>
-      </c>
-      <c r="H8" s="63">
+        <v>131332865068.86581</v>
+      </c>
+      <c r="H8" s="64">
         <f t="shared" si="0"/>
-        <v>145997527472.57166</v>
-      </c>
-      <c r="I8" s="63">
+        <v>151626918697.32208</v>
+      </c>
+      <c r="I8" s="64">
         <f t="shared" si="0"/>
-        <v>113810564097.27765</v>
-      </c>
-      <c r="J8" s="13"/>
+        <v>154222168172.28055</v>
+      </c>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="65">
         <f t="shared" ref="B9:I9" si="1">B8/B4</f>
         <v>0.38343718820007905</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="66">
         <f t="shared" si="1"/>
         <v>0.37817768109034722</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="66">
         <f t="shared" si="1"/>
         <v>0.38233247727810865</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="62">
         <f t="shared" si="1"/>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="F9" s="61">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F9" s="62">
         <f t="shared" si="1"/>
-        <v>0.37688846587319386</v>
-      </c>
-      <c r="G9" s="61">
+        <v>0.37747540843671556</v>
+      </c>
+      <c r="G9" s="62">
         <f t="shared" si="1"/>
-        <v>0.38346524157944767</v>
-      </c>
-      <c r="H9" s="61">
+        <v>0.38228753600885101</v>
+      </c>
+      <c r="H9" s="62">
         <f t="shared" si="1"/>
-        <v>0.36126376997459503</v>
-      </c>
-      <c r="I9" s="61">
+        <v>0.37855236153722921</v>
+      </c>
+      <c r="I9" s="62">
         <f t="shared" si="1"/>
-        <v>0.33355234363511588</v>
-      </c>
-      <c r="J9" s="13"/>
+        <v>0.39046349929461466</v>
+      </c>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="13"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="18">
         <v>16705</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="18">
         <v>18245</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="18">
         <v>19916</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="18">
         <f>'Revenue Model'!B11*Assumptions!$B$17</f>
-        <v>23745.013969165233</v>
-      </c>
-      <c r="F11" s="17">
+        <v>24849.99169066851</v>
+      </c>
+      <c r="F11" s="18">
         <f>'Revenue Model'!C11*Assumptions!$B$17</f>
-        <v>23109.036259416855</v>
-      </c>
-      <c r="G11" s="17">
+        <v>22354.516254978284</v>
+      </c>
+      <c r="G11" s="18">
         <f>'Revenue Model'!D11*Assumptions!$B$17</f>
-        <v>24678.042330687473</v>
-      </c>
-      <c r="H11" s="17">
+        <v>23704.58577949016</v>
+      </c>
+      <c r="H11" s="18">
         <f>'Revenue Model'!E11*Assumptions!$B$17</f>
-        <v>27884.970021532641</v>
-      </c>
-      <c r="I11" s="17">
+        <v>27637.543582161223</v>
+      </c>
+      <c r="I11" s="18">
         <f>'Revenue Model'!F11*Assumptions!$B$17</f>
-        <v>23543.318080543129</v>
-      </c>
-      <c r="J11" s="13"/>
+        <v>27253.071344981738</v>
+      </c>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="54">
         <f t="shared" ref="B12:I12" si="2">B11*1000000</f>
         <v>16705000000</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="54">
         <f t="shared" si="2"/>
         <v>18245000000</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="54">
         <f t="shared" si="2"/>
         <v>19916000000</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="55">
         <f t="shared" si="2"/>
-        <v>23745013969.165234</v>
-      </c>
-      <c r="F12" s="54">
+        <v>24849991690.66851</v>
+      </c>
+      <c r="F12" s="55">
         <f t="shared" si="2"/>
-        <v>23109036259.416855</v>
-      </c>
-      <c r="G12" s="54">
+        <v>22354516254.978283</v>
+      </c>
+      <c r="G12" s="55">
         <f t="shared" si="2"/>
-        <v>24678042330.687473</v>
-      </c>
-      <c r="H12" s="54">
+        <v>23704585779.490162</v>
+      </c>
+      <c r="H12" s="55">
         <f t="shared" si="2"/>
-        <v>27884970021.532642</v>
-      </c>
-      <c r="I12" s="54">
+        <v>27637543582.161224</v>
+      </c>
+      <c r="I12" s="55">
         <f t="shared" si="2"/>
-        <v>23543318080.543129</v>
-      </c>
-      <c r="J12" s="13"/>
+        <v>27253071344.981739</v>
+      </c>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="67">
         <f t="shared" ref="B13:I13" si="3">B12/B4</f>
         <v>6.2896515371147807E-2</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="67">
         <f t="shared" si="3"/>
         <v>7.0126146348213125E-2</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="67">
         <f t="shared" si="3"/>
         <v>7.2549769593646979E-2</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="67">
+        <f t="shared" si="3"/>
+        <v>6.900000000000002E-2</v>
+      </c>
+      <c r="F13" s="68">
+        <f t="shared" si="3"/>
+        <v>6.8999999999999992E-2</v>
+      </c>
+      <c r="G13" s="68">
         <f t="shared" si="3"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="F13" s="67">
+      <c r="H13" s="68">
         <f t="shared" si="3"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G13" s="67">
+      <c r="I13" s="68">
         <f t="shared" si="3"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H13" s="67">
-        <f t="shared" si="3"/>
-        <v>6.900000000000002E-2</v>
-      </c>
-      <c r="I13" s="67">
-        <f t="shared" si="3"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="68">
+      <c r="A14" s="60"/>
+      <c r="B14" s="69">
         <v>14236</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="69">
         <v>16217</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="69">
         <v>18752</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="69">
         <f>'Revenue Model'!B11*Assumptions!$B$18</f>
-        <v>20991.968871291003</v>
-      </c>
-      <c r="F14" s="68">
+        <v>21968.833233779405</v>
+      </c>
+      <c r="F14" s="69">
         <f>'Revenue Model'!C11*Assumptions!$B$18</f>
-        <v>20429.727707600407</v>
-      </c>
-      <c r="G14" s="68">
+        <v>19762.688283386597</v>
+      </c>
+      <c r="G14" s="69">
         <f>'Revenue Model'!D11*Assumptions!$B$18</f>
-        <v>21816.820031477328</v>
-      </c>
-      <c r="H14" s="68">
+        <v>20956.228007955066</v>
+      </c>
+      <c r="H14" s="69">
         <f>'Revenue Model'!E11*Assumptions!$B$18</f>
-        <v>24651.930019036099</v>
-      </c>
-      <c r="I14" s="68">
+        <v>24433.190703070064</v>
+      </c>
+      <c r="I14" s="69">
         <f>'Revenue Model'!F11*Assumptions!$B$18</f>
-        <v>20813.658013233777</v>
-      </c>
-      <c r="J14" s="13"/>
+        <v>24093.294957157763</v>
+      </c>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="54">
         <f t="shared" ref="B15:I15" si="4">B14*1000000</f>
         <v>14236000000</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="54">
         <f t="shared" si="4"/>
         <v>16217000000</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="54">
         <f t="shared" si="4"/>
         <v>18752000000</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="55">
         <f t="shared" si="4"/>
-        <v>20991968871.291004</v>
-      </c>
-      <c r="F15" s="54">
+        <v>21968833233.779404</v>
+      </c>
+      <c r="F15" s="55">
         <f t="shared" si="4"/>
-        <v>20429727707.600407</v>
-      </c>
-      <c r="G15" s="54">
+        <v>19762688283.386597</v>
+      </c>
+      <c r="G15" s="55">
         <f t="shared" si="4"/>
-        <v>21816820031.477329</v>
-      </c>
-      <c r="H15" s="54">
+        <v>20956228007.955067</v>
+      </c>
+      <c r="H15" s="55">
         <f t="shared" si="4"/>
-        <v>24651930019.036098</v>
-      </c>
-      <c r="I15" s="54">
+        <v>24433190703.070065</v>
+      </c>
+      <c r="I15" s="55">
         <f t="shared" si="4"/>
-        <v>20813658013.233776</v>
-      </c>
-      <c r="J15" s="13"/>
+        <v>24093294957.157764</v>
+      </c>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="68">
+      <c r="A16" s="60"/>
+      <c r="B16" s="69">
         <v>10903</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="69">
         <v>12547</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="69">
         <v>11056</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="13"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="54">
         <f>B16*1000000</f>
         <v>10903000000</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="54">
         <f>C16*1000000</f>
         <v>12547000000</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="54">
         <f>D16*1000000</f>
         <v>11056000000</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="55">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="55">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="55">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="55">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="55">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="70" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <f t="shared" ref="B18:I18" si="5">B17/B4</f>
         <v>4.1051224608897006E-2</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="19">
         <f t="shared" si="5"/>
         <v>4.8225418373857493E-2</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <f t="shared" si="5"/>
         <v>4.0274666229532081E-2</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="61">
         <f t="shared" si="5"/>
-        <v>3.3423353678822904E-2</v>
-      </c>
-      <c r="F18" s="60">
+        <v>3.1937153536273473E-2</v>
+      </c>
+      <c r="F18" s="61">
         <f t="shared" si="5"/>
-        <v>3.4343189005841608E-2</v>
-      </c>
-      <c r="G18" s="60">
+        <v>3.5502356255338749E-2</v>
+      </c>
+      <c r="G18" s="61">
         <f t="shared" si="5"/>
-        <v>3.2159682253770215E-2</v>
-      </c>
-      <c r="H18" s="60">
+        <v>3.3480357234787747E-2</v>
+      </c>
+      <c r="H18" s="61">
         <f t="shared" si="5"/>
-        <v>2.8461138720506304E-2</v>
-      </c>
-      <c r="I18" s="60">
+        <v>2.8715938435001049E-2</v>
+      </c>
+      <c r="I18" s="61">
         <f t="shared" si="5"/>
-        <v>3.3709691951020498E-2</v>
-      </c>
-      <c r="J18" s="13"/>
+        <v>2.9121048044595428E-2</v>
+      </c>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="63">
         <f t="shared" ref="B20:I20" si="6">B8-B12-B15+B17</f>
         <v>81801000000</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="63">
         <f t="shared" si="6"/>
         <v>76477000000</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="63">
         <f t="shared" si="6"/>
         <v>77344000000</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="64">
         <f t="shared" si="6"/>
-        <v>104417272053.25528</v>
-      </c>
-      <c r="F20" s="63">
+        <v>108741097920.00716</v>
+      </c>
+      <c r="F20" s="64">
         <f t="shared" si="6"/>
-        <v>94188297244.861404</v>
-      </c>
-      <c r="G20" s="63">
+        <v>91678710733.41954</v>
+      </c>
+      <c r="G20" s="64">
         <f t="shared" si="6"/>
-        <v>102154550160.22516</v>
-      </c>
-      <c r="H20" s="63">
+        <v>98174051281.420593</v>
+      </c>
+      <c r="H20" s="64">
         <f t="shared" si="6"/>
-        <v>104962627432.00291</v>
-      </c>
-      <c r="I20" s="63">
+        <v>111058184412.09079</v>
+      </c>
+      <c r="I20" s="64">
         <f t="shared" si="6"/>
-        <v>80955588003.500748</v>
-      </c>
-      <c r="J20" s="13"/>
+        <v>114377801870.14105</v>
+      </c>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="13"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="63">
         <f t="shared" ref="B22:I22" si="7">B20-B17</f>
         <v>70898000000</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="63">
         <f t="shared" si="7"/>
         <v>63930000000</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="63">
         <f t="shared" si="7"/>
         <v>66288000000</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="64">
         <f t="shared" si="7"/>
-        <v>92915272053.25528</v>
-      </c>
-      <c r="F22" s="63">
+        <v>97239097920.007156</v>
+      </c>
+      <c r="F22" s="64">
         <f t="shared" si="7"/>
-        <v>82686297244.861404</v>
-      </c>
-      <c r="G22" s="63">
+        <v>80176710733.41954</v>
+      </c>
+      <c r="G22" s="64">
         <f t="shared" si="7"/>
-        <v>90652550160.225159</v>
-      </c>
-      <c r="H22" s="63">
+        <v>86672051281.420593</v>
+      </c>
+      <c r="H22" s="64">
         <f t="shared" si="7"/>
-        <v>93460627432.002914</v>
-      </c>
-      <c r="I22" s="63">
+        <v>99556184412.09079</v>
+      </c>
+      <c r="I22" s="64">
         <f t="shared" si="7"/>
-        <v>69453588003.500748</v>
-      </c>
-      <c r="J22" s="13"/>
+        <v>102875801870.14105</v>
+      </c>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="13"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="18">
         <v>2005</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="18">
         <v>1838</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="18">
         <v>721</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="73">
         <v>0</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="73">
         <v>0</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="73">
         <v>0</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="73">
         <v>0</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="73">
         <v>0</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="54">
         <f t="shared" ref="B25:I25" si="8">B24*1000000</f>
         <v>2005000000</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="54">
         <f t="shared" si="8"/>
         <v>1838000000</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="54">
         <f t="shared" si="8"/>
         <v>721000000</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J25" s="69" t="s">
+      <c r="J25" s="70" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="13"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="63">
         <f t="shared" ref="B27:I27" si="9">B22+B25</f>
         <v>72903000000</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="63">
         <f t="shared" si="9"/>
         <v>65768000000</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="63">
         <f t="shared" si="9"/>
         <v>67009000000</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="64">
         <f t="shared" si="9"/>
-        <v>92915272053.25528</v>
-      </c>
-      <c r="F27" s="63">
+        <v>97239097920.007156</v>
+      </c>
+      <c r="F27" s="64">
         <f t="shared" si="9"/>
-        <v>82686297244.861404</v>
-      </c>
-      <c r="G27" s="63">
+        <v>80176710733.41954</v>
+      </c>
+      <c r="G27" s="64">
         <f t="shared" si="9"/>
-        <v>90652550160.225159</v>
-      </c>
-      <c r="H27" s="63">
+        <v>86672051281.420593</v>
+      </c>
+      <c r="H27" s="64">
         <f t="shared" si="9"/>
-        <v>93460627432.002914</v>
-      </c>
-      <c r="I27" s="63">
+        <v>99556184412.09079</v>
+      </c>
+      <c r="I27" s="64">
         <f t="shared" si="9"/>
-        <v>69453588003.500748</v>
-      </c>
-      <c r="J27" s="13"/>
+        <v>102875801870.14105</v>
+      </c>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="73">
+      <c r="A28" s="60"/>
+      <c r="B28" s="74">
         <v>13372</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="74">
         <v>10481</v>
       </c>
-      <c r="D28" s="73">
+      <c r="D28" s="74">
         <v>9680</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="75">
         <f>E27*0.15/1000000</f>
-        <v>13937.290807988291</v>
-      </c>
-      <c r="F28" s="75">
+        <v>14585.864688001075</v>
+      </c>
+      <c r="F28" s="76">
         <f>F27*Assumptions!$B$19/1000000</f>
-        <v>14056.67053162644</v>
-      </c>
-      <c r="G28" s="75">
+        <v>13630.040824681322</v>
+      </c>
+      <c r="G28" s="76">
         <f>G27*Assumptions!$B$19/1000000</f>
-        <v>15410.933527238278</v>
-      </c>
-      <c r="H28" s="75">
+        <v>14734.248717841501</v>
+      </c>
+      <c r="H28" s="76">
         <f>H27*Assumptions!$B$19/1000000</f>
-        <v>15888.306663440497</v>
-      </c>
-      <c r="I28" s="75">
+        <v>16924.551350055433</v>
+      </c>
+      <c r="I28" s="76">
         <f>I27*Assumptions!$B$19/1000000</f>
-        <v>11807.109960595128</v>
-      </c>
-      <c r="J28" s="13"/>
+        <v>17488.886317923982</v>
+      </c>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="54">
         <f t="shared" ref="B29:I29" si="10">B28*1000000</f>
         <v>13372000000</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="54">
         <f t="shared" si="10"/>
         <v>10481000000</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="54">
         <f t="shared" si="10"/>
         <v>9680000000</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="55">
         <f t="shared" si="10"/>
-        <v>13937290807.988291</v>
-      </c>
-      <c r="F29" s="54">
+        <v>14585864688.001074</v>
+      </c>
+      <c r="F29" s="55">
         <f t="shared" si="10"/>
-        <v>14056670531.62644</v>
-      </c>
-      <c r="G29" s="54">
+        <v>13630040824.681322</v>
+      </c>
+      <c r="G29" s="55">
         <f t="shared" si="10"/>
-        <v>15410933527.238277</v>
-      </c>
-      <c r="H29" s="54">
+        <v>14734248717.841501</v>
+      </c>
+      <c r="H29" s="55">
         <f t="shared" si="10"/>
-        <v>15888306663.440496</v>
-      </c>
-      <c r="I29" s="54">
+        <v>16924551350.055433</v>
+      </c>
+      <c r="I29" s="55">
         <f t="shared" si="10"/>
-        <v>11807109960.595127</v>
-      </c>
-      <c r="J29" s="13"/>
+        <v>17488886317.923981</v>
+      </c>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="82">
         <f t="shared" ref="B30:I30" si="11">IF(B27&gt;0,B29/B27,0)</f>
         <v>0.18342180705869443</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="82">
         <f t="shared" si="11"/>
         <v>0.1593632161537526</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="82">
         <f t="shared" si="11"/>
         <v>0.14445820710650809</v>
       </c>
-      <c r="E30" s="157">
+      <c r="E30" s="154">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="F30" s="157">
+      <c r="F30" s="154">
         <f t="shared" si="11"/>
         <v>0.17</v>
       </c>
-      <c r="G30" s="157">
+      <c r="G30" s="154">
         <f t="shared" si="11"/>
         <v>0.17</v>
       </c>
-      <c r="H30" s="157">
+      <c r="H30" s="154">
+        <f t="shared" si="11"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="I30" s="154">
         <f t="shared" si="11"/>
         <v>0.17</v>
       </c>
-      <c r="I30" s="157">
-        <f t="shared" si="11"/>
-        <v>0.17</v>
-      </c>
-      <c r="J30" s="69" t="s">
+      <c r="J30" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="13"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="13"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="63">
         <f t="shared" ref="B33:I33" si="12">B27-B29</f>
         <v>59531000000</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="63">
         <f t="shared" si="12"/>
         <v>55287000000</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="63">
         <f t="shared" si="12"/>
         <v>57329000000</v>
       </c>
-      <c r="E33" s="63">
+      <c r="E33" s="64">
         <f t="shared" si="12"/>
-        <v>78977981245.266983</v>
-      </c>
-      <c r="F33" s="63">
+        <v>82653233232.006088</v>
+      </c>
+      <c r="F33" s="64">
         <f t="shared" si="12"/>
-        <v>68629626713.234962</v>
-      </c>
-      <c r="G33" s="63">
+        <v>66546669908.73822</v>
+      </c>
+      <c r="G33" s="64">
         <f t="shared" si="12"/>
-        <v>75241616632.986877</v>
-      </c>
-      <c r="H33" s="63">
+        <v>71937802563.579086</v>
+      </c>
+      <c r="H33" s="64">
         <f t="shared" si="12"/>
-        <v>77572320768.562424</v>
-      </c>
-      <c r="I33" s="63">
+        <v>82631633062.035355</v>
+      </c>
+      <c r="I33" s="64">
         <f t="shared" si="12"/>
-        <v>57646478042.905624</v>
-      </c>
-      <c r="J33" s="13"/>
+        <v>85386915552.217072</v>
+      </c>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="17">
         <v>75265000000</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="17">
         <v>69714000000</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="17">
         <v>75992000000</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="72">
         <f>FCF!D10*1.2</f>
-        <v>106726143094.32037</v>
-      </c>
-      <c r="F34" s="71">
+        <v>111136445478.4073</v>
+      </c>
+      <c r="F34" s="72">
         <f>FCF!E10*1.2</f>
-        <v>93223387992.415283</v>
-      </c>
-      <c r="G34" s="71">
+        <v>90723839827.019196</v>
+      </c>
+      <c r="G34" s="72">
         <f>FCF!F10*1.2</f>
-        <v>105044609258.15244</v>
-      </c>
-      <c r="H34" s="71">
+        <v>101080032374.86307</v>
+      </c>
+      <c r="H34" s="72">
         <f>FCF!G10*1.2</f>
-        <v>109967441912.30544</v>
-      </c>
-      <c r="I34" s="71">
+        <v>116038616664.47296</v>
+      </c>
+      <c r="I34" s="72">
         <f>FCF!H10*1.2</f>
-        <v>84248384743.683701</v>
-      </c>
-      <c r="J34" s="76"/>
+        <v>117536909754.85744</v>
+      </c>
+      <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="71">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="72">
         <f>FCF!D10+FCF!D8-E34</f>
-        <v>-7811690515.7200623</v>
-      </c>
-      <c r="F35" s="71">
+        <v>-8546740913.0678864</v>
+      </c>
+      <c r="F35" s="72">
         <f>FCF!E10+FCF!E8-F34</f>
-        <v>-6132731332.0692139</v>
-      </c>
-      <c r="G35" s="71">
+        <v>-5716139971.1698608</v>
+      </c>
+      <c r="G35" s="72">
         <f>FCF!F10+FCF!F8-G34</f>
-        <v>-7817184876.3587341</v>
-      </c>
-      <c r="H35" s="71">
+        <v>-7156422062.4771729</v>
+      </c>
+      <c r="H35" s="72">
         <f>FCF!G10+FCF!G8-H34</f>
-        <v>-8780531985.3842316</v>
-      </c>
-      <c r="I35" s="71">
+        <v>-9792394444.0788269</v>
+      </c>
+      <c r="I35" s="72">
         <f>FCF!H10+FCF!H8-I34</f>
-        <v>-4422584957.2806091</v>
-      </c>
-      <c r="J35" s="76"/>
+        <v>-9970672459.1428986</v>
+      </c>
+      <c r="J35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="77">
+      <c r="B36" s="78">
         <v>122617</v>
       </c>
-      <c r="C36" s="77">
+      <c r="C36" s="78">
         <v>97851</v>
       </c>
-      <c r="D36" s="77">
+      <c r="D36" s="78">
         <v>71012</v>
       </c>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="76"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="17">
         <f>B36*1000000</f>
         <v>122617000000</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="17">
         <f>C36*1000000</f>
         <v>97851000000</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="17">
         <f>D36*1000000</f>
         <v>71012000000</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="72">
         <f>D37+E35</f>
-        <v>63200309484.279938</v>
-      </c>
-      <c r="F37" s="71">
+        <v>62465259086.932114</v>
+      </c>
+      <c r="F37" s="72">
         <f>E37+F35</f>
-        <v>57067578152.210724</v>
-      </c>
-      <c r="G37" s="71">
+        <v>56749119115.762253</v>
+      </c>
+      <c r="G37" s="72">
         <f>F37+G35</f>
-        <v>49250393275.85199</v>
-      </c>
-      <c r="H37" s="71">
+        <v>49592697053.28508</v>
+      </c>
+      <c r="H37" s="72">
         <f>G37+H35</f>
-        <v>40469861290.467758</v>
-      </c>
-      <c r="I37" s="71">
+        <v>39800302609.206253</v>
+      </c>
+      <c r="I37" s="72">
         <f>H37+I35</f>
-        <v>36047276333.187149</v>
-      </c>
-      <c r="J37" s="76"/>
+        <v>29829630150.063354</v>
+      </c>
+      <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="13"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="79">
+      <c r="B39" s="80">
         <v>20000.400000000001</v>
       </c>
-      <c r="C39" s="79">
+      <c r="C39" s="80">
         <v>18595.7</v>
       </c>
-      <c r="D39" s="79">
+      <c r="D39" s="80">
         <v>17528.2</v>
       </c>
-      <c r="E39" s="80">
+      <c r="E39" s="81">
         <f>D39*(1-Assumptions!$B$20)*1000000</f>
         <v>16827072000</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="81">
         <f>E39*(1-Assumptions!$B$20)</f>
         <v>16153989120</v>
       </c>
-      <c r="G39" s="80">
+      <c r="G39" s="81">
         <f>F39*(1-Assumptions!$B$20)</f>
         <v>15507829555.199999</v>
       </c>
-      <c r="H39" s="80">
+      <c r="H39" s="81">
         <f>G39*(1-Assumptions!$B$20)</f>
         <v>14887516372.991999</v>
       </c>
-      <c r="I39" s="80">
+      <c r="I39" s="81">
         <f>H39*(1-Assumptions!$B$20)</f>
         <v>14292015718.072319</v>
       </c>
-      <c r="J39" s="13"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="13"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="27">
         <f>B33/B39/1000000</f>
         <v>2.9764904701905959</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="27">
         <f>C33/C39/1000000</f>
         <v>2.9731066859542796</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="27">
         <f>D33/D39/1000000</f>
         <v>3.2706724021861913</v>
       </c>
-      <c r="E41" s="75">
+      <c r="E41" s="76">
         <f>E33/E39</f>
-        <v>4.6935070608402327</v>
-      </c>
-      <c r="F41" s="75">
+        <v>4.9119201030343298</v>
+      </c>
+      <c r="F41" s="76">
         <f>F33/F39</f>
-        <v>4.2484631011832059</v>
-      </c>
-      <c r="G41" s="75">
+        <v>4.1195192973324364</v>
+      </c>
+      <c r="G41" s="76">
         <f>G33/G39</f>
-        <v>4.8518470212201477</v>
-      </c>
-      <c r="H41" s="75">
+        <v>4.6388053407162513</v>
+      </c>
+      <c r="H41" s="76">
         <f>H33/H39</f>
-        <v>5.2105615755552943</v>
-      </c>
-      <c r="I41" s="75">
+        <v>5.5503974599779786</v>
+      </c>
+      <c r="I41" s="76">
         <f>I33/I39</f>
-        <v>4.0334742964221197</v>
-      </c>
-      <c r="J41" s="13"/>
+        <v>5.9744487577245611</v>
+      </c>
+      <c r="J41" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6604,271 +6521,277 @@
       <selection activeCell="E37" sqref="E37"/>
       <selection pane="topRight" activeCell="E37" sqref="E37"/>
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="16.33203125" style="82" customWidth="1"/>
-    <col min="8" max="16384" width="16.33203125" style="82"/>
+    <col min="1" max="7" width="16.33203125" style="83" customWidth="1"/>
+    <col min="8" max="16384" width="16.33203125" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85">
         <v>2021</v>
       </c>
-      <c r="C2" s="84">
+      <c r="C2" s="85">
         <v>2022</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="85">
         <v>2023</v>
       </c>
-      <c r="E2" s="84">
+      <c r="E2" s="85">
         <v>2024</v>
       </c>
-      <c r="F2" s="84">
+      <c r="F2" s="85">
         <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="87">
         <v>189264.19990917601</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="88">
         <f>$B3*Assumptions!C3</f>
-        <v>160874.56992279959</v>
-      </c>
-      <c r="D3" s="87">
+        <v>157089.28592461607</v>
+      </c>
+      <c r="D3" s="88">
         <f>$B3*Assumptions!D3</f>
-        <v>160874.56992279959</v>
-      </c>
-      <c r="E3" s="87">
+        <v>157089.28592461607</v>
+      </c>
+      <c r="E3" s="88">
         <f>$B3*Assumptions!E3</f>
-        <v>206297.97790100187</v>
-      </c>
-      <c r="F3" s="87">
+        <v>191156.84190826776</v>
+      </c>
+      <c r="F3" s="88">
         <f>IF(Assumptions!G24=FALSE,E3*Assumptions!C3,(E3*Assumptions!C3)*0.85)</f>
-        <v>149050.28903347385</v>
+        <v>158660.17878386224</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="89">
+      <c r="B4" s="90">
         <v>39380.229492070903</v>
       </c>
-      <c r="C4" s="90">
+      <c r="C4" s="91">
         <f>B4*(1+Assumptions!$B$6)</f>
-        <v>48370.009301465747</v>
-      </c>
-      <c r="D4" s="90">
+        <v>47976.207006545039</v>
+      </c>
+      <c r="D4" s="91">
         <f>C4*(1+Assumptions!$B$6)</f>
-        <v>59411.989975705103</v>
-      </c>
-      <c r="E4" s="90">
+        <v>58448.527812624998</v>
+      </c>
+      <c r="E4" s="91">
         <f>D4*(1+Assumptions!$B$6)</f>
-        <v>72974.651108167585</v>
-      </c>
-      <c r="F4" s="90">
+        <v>71206.763031457376</v>
+      </c>
+      <c r="F4" s="91">
         <f>IF(Assumptions!G26=FALSE,IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6),0.85*E4*(1+Assumptions!$B$6)),IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6+0.015),0.85*E4*(1+Assumptions!$B$6+0.015)))</f>
-        <v>76188.404908772733</v>
+        <v>86749.885603156421</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="89">
-        <v>25740</v>
-      </c>
-      <c r="C5" s="90">
-        <v>25740</v>
-      </c>
-      <c r="D5" s="90">
-        <v>25740</v>
-      </c>
-      <c r="E5" s="90">
-        <v>25740</v>
-      </c>
-      <c r="F5" s="90">
-        <f>IF(Assumptions!G24=FALSE,E5,E5*0.85)</f>
-        <v>21879</v>
+      <c r="B5" s="193">
+        <v>33601.389420749198</v>
+      </c>
+      <c r="C5" s="91">
+        <f>25740*0.9</f>
+        <v>23166</v>
+      </c>
+      <c r="D5" s="91">
+        <f t="shared" ref="D5:F5" si="0">25740*0.9</f>
+        <v>23166</v>
+      </c>
+      <c r="E5" s="91">
+        <f t="shared" si="0"/>
+        <v>23166</v>
+      </c>
+      <c r="F5" s="91">
+        <f t="shared" si="0"/>
+        <v>23166</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="89">
-        <v>21280</v>
-      </c>
-      <c r="C6" s="90">
-        <v>21280</v>
-      </c>
-      <c r="D6" s="90">
-        <v>21280</v>
-      </c>
-      <c r="E6" s="90">
-        <v>21280</v>
-      </c>
-      <c r="F6" s="90">
-        <f>IF(Assumptions!G24=FALSE,E6,E6*0.85)</f>
-        <v>18088</v>
+      <c r="B6" s="193">
+        <v>29432.7804561099</v>
+      </c>
+      <c r="C6" s="91">
+        <f>21280*0.9</f>
+        <v>19152</v>
+      </c>
+      <c r="D6" s="91">
+        <f t="shared" ref="D6:F6" si="1">21280*0.9</f>
+        <v>19152</v>
+      </c>
+      <c r="E6" s="91">
+        <f t="shared" si="1"/>
+        <v>19152</v>
+      </c>
+      <c r="F6" s="91">
+        <f t="shared" si="1"/>
+        <v>19152</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="89">
+      <c r="B8" s="90">
         <f>SUM(B3:B6)</f>
-        <v>275664.42940124695</v>
-      </c>
-      <c r="C8" s="90">
+        <v>291678.599278106</v>
+      </c>
+      <c r="C8" s="91">
         <f>SUM(C3:C6)</f>
-        <v>256264.57922426536</v>
-      </c>
-      <c r="D8" s="90">
+        <v>247383.4929311611</v>
+      </c>
+      <c r="D8" s="91">
         <f>SUM(D3:D6)</f>
-        <v>267306.5598985047</v>
-      </c>
-      <c r="E8" s="90">
+        <v>257855.81373724106</v>
+      </c>
+      <c r="E8" s="91">
         <f>SUM(E3:E6)</f>
-        <v>326292.62900916947</v>
-      </c>
-      <c r="F8" s="90">
+        <v>304681.60493972513</v>
+      </c>
+      <c r="F8" s="91">
         <f>SUM(F3:F6)</f>
-        <v>265205.69394224661</v>
+        <v>287728.06438701868</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="89">
+      <c r="B9" s="90">
         <v>68466.207833031804</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="91">
         <f>B9*(1+Assumptions!$B$8)</f>
-        <v>78648.989752790498</v>
-      </c>
-      <c r="D9" s="90">
+        <v>76595.003517799545</v>
+      </c>
+      <c r="D9" s="91">
         <f>C9*(1+Assumptions!$B$8)</f>
-        <v>90346.227502762995</v>
-      </c>
-      <c r="E9" s="90">
+        <v>85688.907704645288</v>
+      </c>
+      <c r="E9" s="91">
         <f>IF(Assumptions!G25=FALSE,D9*(1+Assumptions!$B$8),0.75*D9*(1+Assumptions!$B$8))</f>
-        <v>77837.37130289778</v>
-      </c>
-      <c r="F9" s="90">
+        <v>95862.504946669389</v>
+      </c>
+      <c r="F9" s="91">
         <f>IF(Assumptions!G24=FALSE,E9*(1+Assumptions!$B$8),0.85*E9*(1+Assumptions!$B$8))</f>
-        <v>76001.814471421851</v>
+        <v>107243.98409097744</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="90">
         <f>SUM(B8:B9)</f>
-        <v>344130.63723427872</v>
-      </c>
-      <c r="C11" s="90">
+        <v>360144.80711113778</v>
+      </c>
+      <c r="C11" s="91">
         <f>SUM(C8:C9)</f>
-        <v>334913.56897705584</v>
-      </c>
-      <c r="D11" s="90">
+        <v>323978.49644896062</v>
+      </c>
+      <c r="D11" s="91">
         <f>SUM(D8:D9)</f>
-        <v>357652.78740126768</v>
-      </c>
-      <c r="E11" s="90">
+        <v>343544.72144188633</v>
+      </c>
+      <c r="E11" s="91">
         <f>SUM(E8:E9)</f>
-        <v>404130.00031206722</v>
-      </c>
-      <c r="F11" s="90">
+        <v>400544.10988639452</v>
+      </c>
+      <c r="F11" s="91">
         <f>SUM(F8:F9)</f>
-        <v>341207.50841366849</v>
+        <v>394972.04847799614</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="90">
         <f>B11*0.4</f>
-        <v>137652.25489371151</v>
-      </c>
-      <c r="C12" s="90">
+        <v>144057.92284445511</v>
+      </c>
+      <c r="C12" s="91">
         <f>C8*Assumptions!$B$11+C9*Assumptions!$B$12</f>
-        <v>126225.06121187868</v>
-      </c>
-      <c r="D12" s="90">
+        <v>122293.91527178441</v>
+      </c>
+      <c r="D12" s="91">
         <f>D8*Assumptions!$B$11+D9*Assumptions!$B$12</f>
-        <v>137147.41252238993</v>
-      </c>
-      <c r="E12" s="90">
+        <v>131332.86506886579</v>
+      </c>
+      <c r="E12" s="91">
         <f>E8*Assumptions!$B$11+E9*Assumptions!$B$12</f>
-        <v>145997.52747257167</v>
-      </c>
-      <c r="F12" s="90">
+        <v>151626.91869732208</v>
+      </c>
+      <c r="F12" s="91">
         <f>IF(Assumptions!G24=FALSE,F8*Assumptions!$B$11+F9*Assumptions!$B$12,F8*Assumptions!$C$11+F9*Assumptions!$C$12)</f>
-        <v>113810.56409727762</v>
+        <v>154222.16817228054</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="95">
         <f>B12/B11</f>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="C13" s="95">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="96">
         <f>C12/C11</f>
-        <v>0.37688846587319391</v>
-      </c>
-      <c r="D13" s="95">
+        <v>0.37747540843671556</v>
+      </c>
+      <c r="D13" s="96">
         <f>D12/D11</f>
-        <v>0.38346524157944761</v>
-      </c>
-      <c r="E13" s="95">
+        <v>0.38228753600885096</v>
+      </c>
+      <c r="E13" s="96">
         <f>E12/E11</f>
-        <v>0.36126376997459503</v>
-      </c>
-      <c r="F13" s="95">
+        <v>0.37855236153722921</v>
+      </c>
+      <c r="F13" s="96">
         <f>F12/F11</f>
-        <v>0.33355234363511582</v>
+        <v>0.3904634992946146</v>
       </c>
     </row>
   </sheetData>
@@ -6897,278 +6820,278 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="112" customWidth="1"/>
-    <col min="2" max="2" width="10" style="112" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="112" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="112" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="112" customWidth="1"/>
-    <col min="7" max="9" width="9.1640625" style="112" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="112" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="112" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="112"/>
+    <col min="1" max="1" width="38.33203125" style="113" customWidth="1"/>
+    <col min="2" max="2" width="10" style="113" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="113" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="113" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="113" customWidth="1"/>
+    <col min="7" max="9" width="9.1640625" style="113" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="113" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="113" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="113"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113"/>
-      <c r="B1" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="116" t="s">
+      <c r="A1" s="114"/>
+      <c r="B1" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="115"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120">
+      <c r="A2" s="120"/>
+      <c r="B2" s="121">
         <f>Financials!B2</f>
         <v>2018</v>
       </c>
-      <c r="C2" s="120">
+      <c r="C2" s="121">
         <f>Financials!C2</f>
         <v>2019</v>
       </c>
-      <c r="D2" s="120">
+      <c r="D2" s="121">
         <f>Financials!D2</f>
         <v>2020</v>
       </c>
-      <c r="E2" s="121">
+      <c r="E2" s="122">
         <f>Financials!E2</f>
         <v>2021</v>
       </c>
-      <c r="F2" s="121">
+      <c r="F2" s="122">
         <f>Financials!F2</f>
         <v>2022</v>
       </c>
-      <c r="G2" s="121">
+      <c r="G2" s="122">
         <f>Financials!G2</f>
         <v>2023</v>
       </c>
-      <c r="H2" s="121">
+      <c r="H2" s="122">
         <f>Financials!H2</f>
         <v>2024</v>
       </c>
-      <c r="I2" s="121">
+      <c r="I2" s="122">
         <f>Financials!I2</f>
         <v>2025</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="123" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="124"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="125"/>
     </row>
     <row r="4" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="126" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="127">
+      <c r="A4" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="128">
         <v>48995</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="128">
         <v>45804</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="128">
         <v>37445</v>
       </c>
-      <c r="E4" s="128">
+      <c r="E4" s="129">
         <f>AVERAGE(B4:D4)</f>
         <v>44081.333333333336</v>
       </c>
-      <c r="F4" s="128">
+      <c r="F4" s="129">
         <f>AVERAGE(C4:E4)</f>
         <v>42443.444444444445</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G4" s="129">
         <f>AVERAGE(D4:F4)</f>
         <v>41323.259259259263</v>
       </c>
-      <c r="H4" s="128">
+      <c r="H4" s="129">
         <f>AVERAGE(E4:G4)</f>
         <v>42616.012345679017</v>
       </c>
-      <c r="I4" s="128">
+      <c r="I4" s="129">
         <f>AVERAGE(F4:H4)</f>
         <v>42127.572016460908</v>
       </c>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="130" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="127" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="127">
+      <c r="B5" s="128">
         <v>3956</v>
       </c>
-      <c r="C5" s="127">
+      <c r="C5" s="128">
         <v>4106</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D5" s="128">
         <v>4061</v>
       </c>
-      <c r="E5" s="128">
+      <c r="E5" s="129">
         <f t="shared" ref="E5:I6" si="0">AVERAGE(A5:D5)</f>
         <v>4041</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="129">
         <f t="shared" si="0"/>
         <v>4041</v>
       </c>
-      <c r="G5" s="128">
+      <c r="G5" s="129">
         <f t="shared" si="0"/>
         <v>4062.25</v>
       </c>
-      <c r="H5" s="128">
+      <c r="H5" s="129">
         <f t="shared" si="0"/>
         <v>4051.3125</v>
       </c>
-      <c r="I5" s="128">
+      <c r="I5" s="129">
         <f t="shared" si="0"/>
         <v>4048.890625</v>
       </c>
-      <c r="J5" s="129" t="s">
-        <v>94</v>
+      <c r="J5" s="130" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="127">
+      <c r="A6" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="128">
         <v>55888</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="128">
         <v>46236</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D6" s="128">
         <v>42296</v>
       </c>
-      <c r="E6" s="128">
+      <c r="E6" s="129">
         <f t="shared" si="0"/>
         <v>48140</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="129">
         <f t="shared" si="0"/>
         <v>48140</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="129">
         <f t="shared" si="0"/>
         <v>46203</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="129">
         <f t="shared" si="0"/>
         <v>46194.75</v>
       </c>
-      <c r="I6" s="128">
+      <c r="I6" s="129">
         <f t="shared" si="0"/>
         <v>47169.4375</v>
       </c>
-      <c r="J6" s="129" t="s">
-        <v>94</v>
+      <c r="J6" s="130" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="127">
+      <c r="A7" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="128">
         <f t="shared" ref="B7:I7" si="1">SUM(B4:B5)-B6</f>
         <v>-2937</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="128">
         <f t="shared" si="1"/>
         <v>3674</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="128">
         <f t="shared" si="1"/>
         <v>-790</v>
       </c>
-      <c r="E7" s="128">
+      <c r="E7" s="129">
         <f t="shared" si="1"/>
         <v>-17.666666666664241</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="129">
         <f t="shared" si="1"/>
         <v>-1655.5555555555547</v>
       </c>
-      <c r="G7" s="128">
+      <c r="G7" s="129">
         <f t="shared" si="1"/>
         <v>-817.49074074073724</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="129">
         <f t="shared" si="1"/>
         <v>472.57484567901702</v>
       </c>
-      <c r="I7" s="128">
+      <c r="I7" s="129">
         <f t="shared" si="1"/>
         <v>-992.97485853909166</v>
       </c>
-      <c r="J7" s="131"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="131"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="130" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="135">
+      <c r="A9" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="134"/>
+      <c r="C9" s="136">
         <f t="shared" ref="C9:I9" si="2">(B$7-C$7)*1000000</f>
         <v>-6611000000</v>
       </c>
-      <c r="D9" s="135">
+      <c r="D9" s="136">
         <f t="shared" si="2"/>
         <v>4464000000</v>
       </c>
-      <c r="E9" s="136">
+      <c r="E9" s="137">
         <f t="shared" si="2"/>
         <v>-772333333.33333576</v>
       </c>
-      <c r="F9" s="136">
+      <c r="F9" s="137">
         <f t="shared" si="2"/>
         <v>1637888888.8888905</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="137">
         <f t="shared" si="2"/>
         <v>-838064814.81481755</v>
       </c>
-      <c r="H9" s="136">
+      <c r="H9" s="137">
         <f t="shared" si="2"/>
         <v>-1290065586.4197543</v>
       </c>
-      <c r="I9" s="136">
+      <c r="I9" s="137">
         <f t="shared" si="2"/>
         <v>1465549704.2181087</v>
       </c>
-      <c r="J9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7190,298 +7113,298 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="137" customWidth="1"/>
-    <col min="2" max="8" width="9.1640625" style="137" customWidth="1"/>
-    <col min="9" max="9" width="35.5" style="137" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="137" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="137"/>
+    <col min="1" max="1" width="36.33203125" style="138" customWidth="1"/>
+    <col min="2" max="8" width="9.1640625" style="138" customWidth="1"/>
+    <col min="9" max="9" width="35.5" style="138" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="138" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="138"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138"/>
-      <c r="B1" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="116" t="s">
+      <c r="A1" s="139"/>
+      <c r="B1" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="140"/>
+      <c r="D1" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="141">
+      <c r="A2" s="120"/>
+      <c r="B2" s="142">
         <f>Financials!C2</f>
         <v>2019</v>
       </c>
-      <c r="C2" s="141">
+      <c r="C2" s="142">
         <f>Financials!D2</f>
         <v>2020</v>
       </c>
-      <c r="D2" s="142">
+      <c r="D2" s="143">
         <f>Financials!E2</f>
         <v>2021</v>
       </c>
-      <c r="E2" s="142">
+      <c r="E2" s="143">
         <f>Financials!F2</f>
         <v>2022</v>
       </c>
-      <c r="F2" s="142">
+      <c r="F2" s="143">
         <f>Financials!G2</f>
         <v>2023</v>
       </c>
-      <c r="G2" s="142">
+      <c r="G2" s="143">
         <f>Financials!H2</f>
         <v>2024</v>
       </c>
-      <c r="H2" s="142">
+      <c r="H2" s="143">
         <f>Financials!I2</f>
         <v>2025</v>
       </c>
-      <c r="I2" s="143" t="s">
+      <c r="I2" s="144" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="124"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="125"/>
     </row>
     <row r="4" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="145" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="135">
+      <c r="A4" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="136">
         <f>Financials!C33</f>
         <v>55287000000</v>
       </c>
-      <c r="C4" s="135">
+      <c r="C4" s="136">
         <f>Financials!D33</f>
         <v>57329000000</v>
       </c>
-      <c r="D4" s="136">
+      <c r="D4" s="137">
         <f>Financials!E33</f>
-        <v>78977981245.266983</v>
-      </c>
-      <c r="E4" s="136">
+        <v>82653233232.006088</v>
+      </c>
+      <c r="E4" s="137">
         <f>Financials!F33</f>
-        <v>68629626713.234962</v>
-      </c>
-      <c r="F4" s="136">
+        <v>66546669908.73822</v>
+      </c>
+      <c r="F4" s="137">
         <f>Financials!G33</f>
-        <v>75241616632.986877</v>
-      </c>
-      <c r="G4" s="136">
+        <v>71937802563.579086</v>
+      </c>
+      <c r="G4" s="137">
         <f>Financials!H33</f>
-        <v>77572320768.562424</v>
-      </c>
-      <c r="H4" s="136">
+        <v>82631633062.035355</v>
+      </c>
+      <c r="H4" s="137">
         <f>Financials!I33</f>
-        <v>57646478042.905624</v>
-      </c>
-      <c r="I4" s="131"/>
+        <v>85386915552.217072</v>
+      </c>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="135">
+      <c r="B5" s="136">
         <f>Financials!C17</f>
         <v>12547000000</v>
       </c>
-      <c r="C5" s="135">
+      <c r="C5" s="136">
         <f>Financials!D17</f>
         <v>11056000000</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="137">
         <f>Financials!E17</f>
         <v>11502000000</v>
       </c>
-      <c r="E5" s="136">
+      <c r="E5" s="137">
         <f>Financials!F17</f>
         <v>11502000000</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="137">
         <f>Financials!G17</f>
         <v>11502000000</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="137">
         <f>Financials!H17</f>
         <v>11502000000</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="137">
         <f>Financials!I17</f>
         <v>11502000000</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="130" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="127">
+      <c r="A6" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="128">
         <v>6068</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="128">
         <v>6829</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="137">
         <f>C6*(1+Assumptions!$B$21)*1000000</f>
         <v>7662137999.999999</v>
       </c>
-      <c r="E6" s="136">
+      <c r="E6" s="137">
         <f>D6*(1+Assumptions!$B$21)</f>
         <v>8596918835.9999981</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F6" s="137">
         <f>E6*(1+Assumptions!$B$21)</f>
         <v>9645742933.9919968</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="137">
         <f>F6*(1+Assumptions!$B$21)</f>
         <v>10822523571.93902</v>
       </c>
-      <c r="H6" s="136">
+      <c r="H6" s="137">
         <f>G6*(1+Assumptions!$B$21)</f>
         <v>12142871447.71558</v>
       </c>
-      <c r="I6" s="131"/>
+      <c r="I6" s="132"/>
     </row>
     <row r="7" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="145" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="135">
+      <c r="A7" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="136">
         <f>'NonCash Working Cap'!C9</f>
         <v>-6611000000</v>
       </c>
-      <c r="C7" s="135">
+      <c r="C7" s="136">
         <f>'NonCash Working Cap'!D9</f>
         <v>4464000000</v>
       </c>
-      <c r="D7" s="136">
+      <c r="D7" s="137">
         <f>'NonCash Working Cap'!E9</f>
         <v>-772333333.33333576</v>
       </c>
-      <c r="E7" s="136">
+      <c r="E7" s="137">
         <f>'NonCash Working Cap'!F9</f>
         <v>1637888888.8888905</v>
       </c>
-      <c r="F7" s="136">
+      <c r="F7" s="137">
         <f>'NonCash Working Cap'!G9</f>
         <v>-838064814.81481755</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="137">
         <f>'NonCash Working Cap'!H9</f>
         <v>-1290065586.4197543</v>
       </c>
-      <c r="H7" s="136">
+      <c r="H7" s="137">
         <f>'NonCash Working Cap'!I9</f>
         <v>1465549704.2181087</v>
       </c>
-      <c r="I7" s="131"/>
+      <c r="I7" s="132"/>
     </row>
     <row r="8" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="145" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="135">
+      <c r="A8" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="136">
         <v>11119000000</v>
       </c>
-      <c r="C8" s="135">
+      <c r="C8" s="136">
         <v>8833000000</v>
       </c>
-      <c r="D8" s="136">
+      <c r="D8" s="137">
         <f>AVERAGE(B8:C8)</f>
         <v>9976000000</v>
       </c>
-      <c r="E8" s="136">
+      <c r="E8" s="137">
         <f>AVERAGE(C8:D8)</f>
         <v>9404500000</v>
       </c>
-      <c r="F8" s="136">
+      <c r="F8" s="137">
         <f>AVERAGE(D8:E8)</f>
         <v>9690250000</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="137">
         <f>AVERAGE(E8:F8)</f>
         <v>9547375000</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="137">
         <f>AVERAGE(F8:G8)</f>
         <v>9618812500</v>
       </c>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="130" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="132"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="131"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="132"/>
     </row>
     <row r="10" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="135">
+      <c r="B10" s="136">
         <f>B4+B5-B7-B8+B6*1000000</f>
         <v>69394000000</v>
       </c>
-      <c r="C10" s="135">
+      <c r="C10" s="136">
         <f>C4+C5-C7-C8+C6*1000000</f>
         <v>61917000000</v>
       </c>
-      <c r="D10" s="136">
+      <c r="D10" s="137">
         <f>D4+D5+D6-D7-D8</f>
-        <v>88938452578.600311</v>
-      </c>
-      <c r="E10" s="136">
+        <v>92613704565.339417</v>
+      </c>
+      <c r="E10" s="137">
         <f>E4+E5+E6-E7-E8</f>
-        <v>77686156660.346069</v>
-      </c>
-      <c r="F10" s="136">
+        <v>75603199855.849335</v>
+      </c>
+      <c r="F10" s="137">
         <f>F4+F5+F6-F7-F8</f>
-        <v>87537174381.793701</v>
-      </c>
-      <c r="G10" s="136">
+        <v>84233360312.385895</v>
+      </c>
+      <c r="G10" s="137">
         <f>G4+G5+G6-G7-G8</f>
-        <v>91639534926.921204</v>
-      </c>
-      <c r="H10" s="136">
+        <v>96698847220.394135</v>
+      </c>
+      <c r="H10" s="137">
         <f>H4+H5+H6-H7-H8</f>
-        <v>70206987286.403091</v>
-      </c>
-      <c r="I10" s="131"/>
+        <v>97947424795.714539</v>
+      </c>
+      <c r="I10" s="132"/>
     </row>
     <row r="11" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="132"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="131"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="132"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7494,7 +7417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCCD107-D8CC-9F40-AD83-230D9DBD00F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F472BBA-87D1-8147-8FCB-F2D9661B31A3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7509,2629 +7432,2629 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="16.33203125" style="166" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="166" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="16.33203125" style="166" customWidth="1"/>
-    <col min="14" max="16" width="16.33203125" style="166" hidden="1" customWidth="1"/>
-    <col min="17" max="23" width="16.33203125" style="166" customWidth="1"/>
-    <col min="24" max="16384" width="16.33203125" style="166"/>
+    <col min="1" max="10" width="16.33203125" style="162" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="162" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" style="162" customWidth="1"/>
+    <col min="14" max="16" width="16.33203125" style="162" hidden="1" customWidth="1"/>
+    <col min="17" max="23" width="16.33203125" style="162" customWidth="1"/>
+    <col min="24" max="16384" width="16.33203125" style="162"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="162">
+      <c r="A1" s="155" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="158">
         <f>AVERAGE(F15:F40)</f>
         <v>0.97276993505983878</v>
       </c>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="165">
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="161">
         <f>AVERAGE(V15:V40)</f>
         <v>6.7380327129735726E-2</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161"/>
-      <c r="B2" s="159" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="155" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="155" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="155" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="155" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="155" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="159" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="159" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="159" t="s">
+      <c r="J2" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="K2" s="157"/>
+      <c r="L2" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="N2" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="O2" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="159" t="s">
+      <c r="P2" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="161"/>
-      <c r="L2" s="159" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="159" t="s">
+      <c r="Q2" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="N2" s="159" t="s">
+      <c r="R2" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="O2" s="159" t="s">
+      <c r="S2" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="P2" s="159" t="s">
+      <c r="T2" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" s="159" t="s">
+      <c r="U2" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="159" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="159" t="s">
-        <v>123</v>
-      </c>
-      <c r="T2" s="159" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" s="159" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" s="159" t="s">
+      <c r="V2" s="155" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="167">
+      <c r="A3" s="163">
         <v>40909</v>
       </c>
-      <c r="B3" s="168">
+      <c r="B3" s="164">
         <v>16.302855999999998</v>
       </c>
-      <c r="C3" s="169">
+      <c r="C3" s="165">
         <v>1312.41</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
     </row>
     <row r="4" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="167">
+      <c r="A4" s="163">
         <v>41000</v>
       </c>
-      <c r="B4" s="168">
+      <c r="B4" s="164">
         <v>20.856428000000001</v>
       </c>
-      <c r="C4" s="169">
+      <c r="C4" s="165">
         <v>1397.91</v>
       </c>
-      <c r="D4" s="174">
+      <c r="D4" s="170">
         <f t="shared" ref="D4:E40" si="0">B4/B3-1</f>
         <v>0.27931130594541242</v>
       </c>
-      <c r="E4" s="174">
+      <c r="E4" s="170">
         <f t="shared" si="0"/>
         <v>6.5147324387958117E-2</v>
       </c>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="172"/>
-      <c r="S4" s="172"/>
-      <c r="T4" s="172"/>
-      <c r="U4" s="172"/>
-      <c r="V4" s="172"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
     </row>
     <row r="5" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="167">
+      <c r="A5" s="163">
         <v>41091</v>
       </c>
-      <c r="B5" s="168">
+      <c r="B5" s="164">
         <v>21.812857000000001</v>
       </c>
-      <c r="C5" s="169">
+      <c r="C5" s="165">
         <v>1379.32</v>
       </c>
-      <c r="D5" s="174">
+      <c r="D5" s="170">
         <f t="shared" si="0"/>
         <v>4.5857756659002158E-2</v>
       </c>
-      <c r="E5" s="174">
+      <c r="E5" s="170">
         <f t="shared" si="0"/>
         <v>-1.3298424075942061E-2</v>
       </c>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
     </row>
     <row r="6" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="167">
+      <c r="A6" s="163">
         <v>41183</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="164">
         <v>21.261429</v>
       </c>
-      <c r="C6" s="169">
+      <c r="C6" s="165">
         <v>1412.16</v>
       </c>
-      <c r="D6" s="174">
+      <c r="D6" s="170">
         <f t="shared" si="0"/>
         <v>-2.5279953011198897E-2</v>
       </c>
-      <c r="E6" s="174">
+      <c r="E6" s="170">
         <f t="shared" si="0"/>
         <v>2.3808833338166746E-2</v>
       </c>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
-      <c r="V6" s="172"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
     </row>
     <row r="7" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167">
+      <c r="A7" s="163">
         <v>41275</v>
       </c>
-      <c r="B7" s="168">
+      <c r="B7" s="164">
         <v>16.267499999999998</v>
       </c>
-      <c r="C7" s="169">
+      <c r="C7" s="165">
         <v>1498.11</v>
       </c>
-      <c r="D7" s="174">
+      <c r="D7" s="170">
         <f t="shared" si="0"/>
         <v>-0.23488209564841578</v>
       </c>
-      <c r="E7" s="174">
+      <c r="E7" s="170">
         <f t="shared" si="0"/>
         <v>6.0864208021753852E-2</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="172"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="168"/>
     </row>
     <row r="8" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="167">
+      <c r="A8" s="163">
         <v>41365</v>
       </c>
-      <c r="B8" s="168">
+      <c r="B8" s="164">
         <v>15.813571</v>
       </c>
-      <c r="C8" s="169">
+      <c r="C8" s="165">
         <v>1597.57</v>
       </c>
-      <c r="D8" s="174">
+      <c r="D8" s="170">
         <f t="shared" si="0"/>
         <v>-2.7904041801137147E-2</v>
       </c>
-      <c r="E8" s="174">
+      <c r="E8" s="170">
         <f t="shared" si="0"/>
         <v>6.6390318467936194E-2</v>
       </c>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="168"/>
     </row>
     <row r="9" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="167">
+      <c r="A9" s="163">
         <v>41456</v>
       </c>
-      <c r="B9" s="168">
+      <c r="B9" s="164">
         <v>16.161784999999998</v>
       </c>
-      <c r="C9" s="169">
+      <c r="C9" s="165">
         <v>1685.73</v>
       </c>
-      <c r="D9" s="174">
+      <c r="D9" s="170">
         <f t="shared" si="0"/>
         <v>2.2019947297166276E-2</v>
       </c>
-      <c r="E9" s="174">
+      <c r="E9" s="170">
         <f t="shared" si="0"/>
         <v>5.5183810412063439E-2</v>
       </c>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="172"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="168"/>
     </row>
     <row r="10" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167">
+      <c r="A10" s="163">
         <v>41548</v>
       </c>
-      <c r="B10" s="168">
+      <c r="B10" s="164">
         <v>18.667856</v>
       </c>
-      <c r="C10" s="169">
+      <c r="C10" s="165">
         <v>1756.54</v>
       </c>
-      <c r="D10" s="174">
+      <c r="D10" s="170">
         <f t="shared" si="0"/>
         <v>0.1550615232166499</v>
       </c>
-      <c r="E10" s="174">
+      <c r="E10" s="170">
         <f t="shared" si="0"/>
         <v>4.2005540626316229E-2</v>
       </c>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
     </row>
     <row r="11" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167">
+      <c r="A11" s="163">
         <v>41640</v>
       </c>
-      <c r="B11" s="168">
+      <c r="B11" s="164">
         <v>17.878571000000001</v>
       </c>
-      <c r="C11" s="169">
+      <c r="C11" s="165">
         <v>1782.59</v>
       </c>
-      <c r="D11" s="174">
+      <c r="D11" s="170">
         <f t="shared" si="0"/>
         <v>-4.228043113253066E-2</v>
       </c>
-      <c r="E11" s="174">
+      <c r="E11" s="170">
         <f t="shared" si="0"/>
         <v>1.4830291368258086E-2</v>
       </c>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="172">
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168">
         <v>84</v>
       </c>
-      <c r="S11" s="172"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="172"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
     </row>
     <row r="12" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="167">
+      <c r="A12" s="163">
         <v>41730</v>
       </c>
-      <c r="B12" s="168">
+      <c r="B12" s="164">
         <v>21.074642000000001</v>
       </c>
-      <c r="C12" s="169">
+      <c r="C12" s="165">
         <v>1883.95</v>
       </c>
-      <c r="D12" s="174">
+      <c r="D12" s="170">
         <f t="shared" si="0"/>
         <v>0.17876546173628749</v>
       </c>
-      <c r="E12" s="174">
+      <c r="E12" s="170">
         <f t="shared" si="0"/>
         <v>5.6861084152833863E-2</v>
       </c>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="172">
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168">
         <v>85</v>
       </c>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
     </row>
     <row r="13" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="167">
+      <c r="A13" s="163">
         <v>41821</v>
       </c>
-      <c r="B13" s="168">
+      <c r="B13" s="164">
         <v>23.9</v>
       </c>
-      <c r="C13" s="169">
+      <c r="C13" s="165">
         <v>1930.67</v>
       </c>
-      <c r="D13" s="174">
+      <c r="D13" s="170">
         <f t="shared" si="0"/>
         <v>0.13406434140138646</v>
       </c>
-      <c r="E13" s="174">
+      <c r="E13" s="170">
         <f t="shared" si="0"/>
         <v>2.4798959632686746E-2</v>
       </c>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="172">
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168">
         <v>100</v>
       </c>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="172"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
     </row>
     <row r="14" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="167">
+      <c r="A14" s="163">
         <v>41913</v>
       </c>
-      <c r="B14" s="168">
+      <c r="B14" s="164">
         <v>27</v>
       </c>
-      <c r="C14" s="169">
+      <c r="C14" s="165">
         <v>2018.05</v>
       </c>
-      <c r="D14" s="174">
+      <c r="D14" s="170">
         <f t="shared" si="0"/>
         <v>0.12970711297071147</v>
       </c>
-      <c r="E14" s="174">
+      <c r="E14" s="170">
         <f t="shared" si="0"/>
         <v>4.5258899760186821E-2</v>
       </c>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172">
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168">
         <v>28987</v>
       </c>
-      <c r="O14" s="172">
+      <c r="O14" s="168">
         <v>0</v>
       </c>
-      <c r="P14" s="172">
+      <c r="P14" s="168">
         <v>6308</v>
       </c>
-      <c r="Q14" s="172"/>
-      <c r="R14" s="172">
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168">
         <v>115</v>
       </c>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="170"/>
-      <c r="V14" s="170"/>
+      <c r="S14" s="166"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="166"/>
     </row>
     <row r="15" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="175">
+      <c r="A15" s="171">
         <v>42005</v>
       </c>
-      <c r="B15" s="168">
+      <c r="B15" s="164">
         <v>29.290001</v>
       </c>
-      <c r="C15" s="169">
+      <c r="C15" s="165">
         <v>1994.99</v>
       </c>
-      <c r="D15" s="174">
+      <c r="D15" s="170">
         <f t="shared" si="0"/>
         <v>8.4814851851851891E-2</v>
       </c>
-      <c r="E15" s="174">
+      <c r="E15" s="170">
         <f t="shared" si="0"/>
         <v>-1.1426872475904903E-2</v>
       </c>
-      <c r="F15" s="172">
+      <c r="F15" s="168">
         <f>_xlfn.COVARIANCE.P(D4:D15,E4:E15)/VARP(E4:E15)</f>
         <v>0.14304398217391678</v>
       </c>
-      <c r="G15" s="174">
+      <c r="G15" s="170">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="H15" s="174">
+      <c r="H15" s="170">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="I15" s="174">
+      <c r="I15" s="170">
         <v>2.27596774193548E-2</v>
       </c>
-      <c r="J15" s="174">
+      <c r="J15" s="170">
         <f t="shared" ref="J15:J40" si="1">I15+F15*G15</f>
         <v>3.102761958900719E-2</v>
       </c>
-      <c r="K15" s="172">
+      <c r="K15" s="168">
         <v>5824748000</v>
       </c>
-      <c r="L15" s="173">
+      <c r="L15" s="169">
         <f t="shared" ref="L15:L37" si="2">K15*4</f>
         <v>23298992000</v>
       </c>
-      <c r="M15" s="176">
+      <c r="M15" s="172">
         <f t="shared" ref="M15:M40" si="3">L15*B15</f>
         <v>682427498978.99194</v>
       </c>
-      <c r="N15" s="172">
+      <c r="N15" s="168">
         <v>32504</v>
       </c>
-      <c r="O15" s="172">
+      <c r="O15" s="168">
         <v>0</v>
       </c>
-      <c r="P15" s="172">
+      <c r="P15" s="168">
         <v>3899</v>
       </c>
-      <c r="Q15" s="176">
+      <c r="Q15" s="172">
         <f t="shared" ref="Q15:Q40" si="4">SUM(N15:P15)*1000000</f>
         <v>36403000000</v>
       </c>
-      <c r="R15" s="172">
+      <c r="R15" s="168">
         <v>131</v>
       </c>
-      <c r="S15" s="177">
+      <c r="S15" s="173">
         <f t="shared" ref="S15:S40" si="5">SUM(R12:R15)/SUM(N15:P15)</f>
         <v>1.1839683542565173E-2</v>
       </c>
-      <c r="T15" s="177">
+      <c r="T15" s="173">
         <f t="shared" ref="T15:T40" si="6">M15/(M15+Q15)</f>
         <v>0.94935801965594691</v>
       </c>
-      <c r="U15" s="177">
+      <c r="U15" s="173">
         <f t="shared" ref="U15:U40" si="7">1-T15</f>
         <v>5.0641980344053095E-2</v>
       </c>
-      <c r="V15" s="177">
+      <c r="V15" s="173">
         <f t="shared" ref="V15:V40" si="8">(T15*J15)+(U15*S15)</f>
         <v>3.0055904508900323E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="175">
+      <c r="A16" s="171">
         <v>42095</v>
       </c>
-      <c r="B16" s="168">
+      <c r="B16" s="164">
         <v>31.287500000000001</v>
       </c>
-      <c r="C16" s="169">
+      <c r="C16" s="165">
         <v>2085.5100000000002</v>
       </c>
-      <c r="D16" s="174">
+      <c r="D16" s="170">
         <f t="shared" si="0"/>
         <v>6.8197300505384195E-2</v>
       </c>
-      <c r="E16" s="174">
+      <c r="E16" s="170">
         <f t="shared" si="0"/>
         <v>4.537366102085727E-2</v>
       </c>
-      <c r="F16" s="172">
+      <c r="F16" s="168">
         <f t="shared" ref="F16:F40" si="9">_xlfn.COVARIANCE.P(D5:D16,E5:E16)/VARP(E5:E16)</f>
         <v>-0.69181960234540973</v>
       </c>
-      <c r="G16" s="174">
+      <c r="G16" s="170">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="H16" s="174">
+      <c r="H16" s="170">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I16" s="174">
+      <c r="I16" s="170">
         <v>1.9688524590163899E-2</v>
       </c>
-      <c r="J16" s="174">
+      <c r="J16" s="170">
         <f t="shared" si="1"/>
         <v>-2.0852104107277111E-2</v>
       </c>
-      <c r="K16" s="172">
+      <c r="K16" s="168">
         <v>5761030000</v>
       </c>
-      <c r="L16" s="173">
+      <c r="L16" s="169">
         <f t="shared" si="2"/>
         <v>23044120000</v>
       </c>
-      <c r="M16" s="176">
+      <c r="M16" s="172">
         <f t="shared" si="3"/>
         <v>720992904500</v>
       </c>
-      <c r="N16" s="172">
+      <c r="N16" s="168">
         <v>40072</v>
       </c>
-      <c r="O16" s="172">
+      <c r="O16" s="168">
         <v>0</v>
       </c>
-      <c r="P16" s="172">
+      <c r="P16" s="168">
         <v>3799</v>
       </c>
-      <c r="Q16" s="176">
+      <c r="Q16" s="172">
         <f t="shared" si="4"/>
         <v>43871000000</v>
       </c>
-      <c r="R16" s="172">
+      <c r="R16" s="168">
         <v>163</v>
       </c>
-      <c r="S16" s="177">
+      <c r="S16" s="173">
         <f t="shared" si="5"/>
         <v>1.1602197351325477E-2</v>
       </c>
-      <c r="T16" s="177">
+      <c r="T16" s="173">
         <f t="shared" si="6"/>
         <v>0.94264208345839129</v>
       </c>
-      <c r="U16" s="177">
+      <c r="U16" s="173">
         <f t="shared" si="7"/>
         <v>5.7357916541608711E-2</v>
       </c>
-      <c r="V16" s="177">
+      <c r="V16" s="173">
         <f t="shared" si="8"/>
         <v>-1.8990592992798375E-2</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="175">
+      <c r="A17" s="171">
         <v>42186</v>
       </c>
-      <c r="B17" s="168">
+      <c r="B17" s="164">
         <v>30.325001</v>
       </c>
-      <c r="C17" s="169">
+      <c r="C17" s="165">
         <v>2103.84</v>
       </c>
-      <c r="D17" s="174">
+      <c r="D17" s="170">
         <f t="shared" si="0"/>
         <v>-3.0763052337195451E-2</v>
       </c>
-      <c r="E17" s="174">
+      <c r="E17" s="170">
         <f t="shared" si="0"/>
         <v>8.789217026051066E-3</v>
       </c>
-      <c r="F17" s="172">
+      <c r="F17" s="168">
         <f t="shared" si="9"/>
         <v>-0.52248409260401285</v>
       </c>
-      <c r="G17" s="174">
+      <c r="G17" s="170">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="H17" s="174">
+      <c r="H17" s="170">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="I17" s="174">
+      <c r="I17" s="170">
         <v>2.164375E-2</v>
       </c>
-      <c r="J17" s="174">
+      <c r="J17" s="170">
         <f t="shared" si="1"/>
         <v>-8.7125757802931462E-3</v>
       </c>
-      <c r="K17" s="172">
+      <c r="K17" s="168">
         <v>5702722000</v>
       </c>
-      <c r="L17" s="173">
+      <c r="L17" s="169">
         <f t="shared" si="2"/>
         <v>22810888000</v>
       </c>
-      <c r="M17" s="176">
+      <c r="M17" s="172">
         <f t="shared" si="3"/>
         <v>691740201410.88806</v>
       </c>
-      <c r="N17" s="172">
+      <c r="N17" s="168">
         <v>47419</v>
       </c>
-      <c r="O17" s="172">
+      <c r="O17" s="168">
         <v>2500</v>
       </c>
-      <c r="P17" s="172">
+      <c r="P17" s="168">
         <v>4499</v>
       </c>
-      <c r="Q17" s="176">
+      <c r="Q17" s="172">
         <f t="shared" si="4"/>
         <v>54418000000</v>
       </c>
-      <c r="R17" s="172">
+      <c r="R17" s="168">
         <v>201</v>
       </c>
-      <c r="S17" s="177">
+      <c r="S17" s="173">
         <f t="shared" si="5"/>
         <v>1.1209526259693485E-2</v>
       </c>
-      <c r="T17" s="177">
+      <c r="T17" s="173">
         <f t="shared" si="6"/>
         <v>0.92706908548736366</v>
       </c>
-      <c r="U17" s="177">
+      <c r="U17" s="173">
         <f t="shared" si="7"/>
         <v>7.2930914512636336E-2</v>
       </c>
-      <c r="V17" s="177">
+      <c r="V17" s="173">
         <f t="shared" si="8"/>
         <v>-7.2596386595028635E-3</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="175">
+      <c r="A18" s="171">
         <v>42278</v>
       </c>
-      <c r="B18" s="168">
+      <c r="B18" s="164">
         <v>29.875</v>
       </c>
-      <c r="C18" s="169">
+      <c r="C18" s="165">
         <v>2079.36</v>
       </c>
-      <c r="D18" s="174">
+      <c r="D18" s="170">
         <f t="shared" si="0"/>
         <v>-1.4839274036627437E-2</v>
       </c>
-      <c r="E18" s="174">
+      <c r="E18" s="170">
         <f t="shared" si="0"/>
         <v>-1.1635865845311399E-2</v>
       </c>
-      <c r="F18" s="172">
+      <c r="F18" s="168">
         <f t="shared" si="9"/>
         <v>-0.19667283185881096</v>
       </c>
-      <c r="G18" s="174">
+      <c r="G18" s="170">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="H18" s="174">
+      <c r="H18" s="170">
         <v>6.25E-2</v>
       </c>
-      <c r="I18" s="174">
+      <c r="I18" s="170">
         <v>2.2231250000000001E-2</v>
       </c>
-      <c r="J18" s="174">
+      <c r="J18" s="170">
         <f t="shared" si="1"/>
         <v>9.1918412477608354E-3</v>
       </c>
-      <c r="K18" s="172">
+      <c r="K18" s="168">
         <v>5575331000</v>
       </c>
-      <c r="L18" s="173">
+      <c r="L18" s="169">
         <f t="shared" si="2"/>
         <v>22301324000</v>
       </c>
-      <c r="M18" s="176">
+      <c r="M18" s="172">
         <f t="shared" si="3"/>
         <v>666252054500</v>
       </c>
-      <c r="N18" s="172">
+      <c r="N18" s="168">
         <v>53463</v>
       </c>
-      <c r="O18" s="172">
+      <c r="O18" s="168">
         <v>2500</v>
       </c>
-      <c r="P18" s="172">
+      <c r="P18" s="168">
         <v>8499</v>
       </c>
-      <c r="Q18" s="176">
+      <c r="Q18" s="172">
         <f t="shared" si="4"/>
         <v>64462000000</v>
       </c>
-      <c r="R18" s="172">
+      <c r="R18" s="168">
         <v>238</v>
       </c>
-      <c r="S18" s="177">
+      <c r="S18" s="173">
         <f t="shared" si="5"/>
         <v>1.1371040302814061E-2</v>
       </c>
-      <c r="T18" s="177">
+      <c r="T18" s="173">
         <f t="shared" si="6"/>
         <v>0.91178218127457678</v>
       </c>
-      <c r="U18" s="177">
+      <c r="U18" s="173">
         <f t="shared" si="7"/>
         <v>8.8217818725423225E-2</v>
       </c>
-      <c r="V18" s="177">
+      <c r="V18" s="173">
         <f t="shared" si="8"/>
         <v>9.3840854349661346E-3</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="175">
+      <c r="A19" s="171">
         <v>42370</v>
       </c>
-      <c r="B19" s="168">
+      <c r="B19" s="164">
         <v>24.334999</v>
       </c>
-      <c r="C19" s="169">
+      <c r="C19" s="165">
         <v>1940.24</v>
       </c>
-      <c r="D19" s="174">
+      <c r="D19" s="170">
         <f t="shared" si="0"/>
         <v>-0.18543936401673644</v>
       </c>
-      <c r="E19" s="174">
+      <c r="E19" s="170">
         <f t="shared" si="0"/>
         <v>-6.6905201600492514E-2</v>
       </c>
-      <c r="F19" s="172">
+      <c r="F19" s="168">
         <f t="shared" si="9"/>
         <v>1.7610033475811113</v>
       </c>
-      <c r="G19" s="174">
+      <c r="G19" s="170">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="H19" s="174">
+      <c r="H19" s="170">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="I19" s="174">
+      <c r="I19" s="170">
         <v>2.19048387096774E-2</v>
       </c>
-      <c r="J19" s="174">
+      <c r="J19" s="170">
         <f t="shared" si="1"/>
         <v>0.1296782435816414</v>
       </c>
-      <c r="K19" s="172">
+      <c r="K19" s="168">
         <v>5544583000</v>
       </c>
-      <c r="L19" s="173">
+      <c r="L19" s="169">
         <f t="shared" si="2"/>
         <v>22178332000</v>
       </c>
-      <c r="M19" s="176">
+      <c r="M19" s="172">
         <f t="shared" si="3"/>
         <v>539709687041.66797</v>
       </c>
-      <c r="N19" s="172">
+      <c r="N19" s="168">
         <v>53204</v>
       </c>
-      <c r="O19" s="172">
+      <c r="O19" s="168">
         <v>2500</v>
       </c>
-      <c r="P19" s="172">
+      <c r="P19" s="168">
         <v>7259</v>
       </c>
-      <c r="Q19" s="176">
+      <c r="Q19" s="172">
         <f t="shared" si="4"/>
         <v>62963000000</v>
       </c>
-      <c r="R19" s="172">
+      <c r="R19" s="168">
         <v>276</v>
       </c>
-      <c r="S19" s="177">
+      <c r="S19" s="173">
         <f t="shared" si="5"/>
         <v>1.3944697679589601E-2</v>
       </c>
-      <c r="T19" s="177">
+      <c r="T19" s="173">
         <f t="shared" si="6"/>
         <v>0.89552703921416166</v>
       </c>
-      <c r="U19" s="177">
+      <c r="U19" s="173">
         <f t="shared" si="7"/>
         <v>0.10447296078583834</v>
       </c>
-      <c r="V19" s="177">
+      <c r="V19" s="173">
         <f t="shared" si="8"/>
         <v>0.11758721737901032</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="175">
+      <c r="A20" s="171">
         <v>42461</v>
       </c>
-      <c r="B20" s="168">
+      <c r="B20" s="164">
         <v>23.434999000000001</v>
       </c>
-      <c r="C20" s="178">
+      <c r="C20" s="174">
         <v>2065.3000000000002</v>
       </c>
-      <c r="D20" s="174">
+      <c r="D20" s="170">
         <f t="shared" si="0"/>
         <v>-3.6983769754829199E-2</v>
       </c>
-      <c r="E20" s="174">
+      <c r="E20" s="170">
         <f t="shared" si="0"/>
         <v>6.4455943594607046E-2</v>
       </c>
-      <c r="F20" s="172">
+      <c r="F20" s="168">
         <f t="shared" si="9"/>
         <v>1.7635323202262723</v>
       </c>
-      <c r="G20" s="174">
+      <c r="G20" s="170">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="H20" s="174">
+      <c r="H20" s="170">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="I20" s="174">
+      <c r="I20" s="170">
         <v>1.9142622950819699E-2</v>
       </c>
-      <c r="J20" s="174">
+      <c r="J20" s="170">
         <f t="shared" si="1"/>
         <v>0.1291870397329391</v>
       </c>
-      <c r="K20" s="172">
+      <c r="K20" s="168">
         <v>5477425000</v>
       </c>
-      <c r="L20" s="173">
+      <c r="L20" s="169">
         <f t="shared" si="2"/>
         <v>21909700000</v>
       </c>
-      <c r="M20" s="176">
+      <c r="M20" s="172">
         <f t="shared" si="3"/>
         <v>513453797590.30005</v>
       </c>
-      <c r="N20" s="172">
+      <c r="N20" s="168">
         <v>69374</v>
       </c>
-      <c r="O20" s="172">
+      <c r="O20" s="168">
         <v>2500</v>
       </c>
-      <c r="P20" s="172">
+      <c r="P20" s="168">
         <v>7998</v>
       </c>
-      <c r="Q20" s="176">
+      <c r="Q20" s="172">
         <f t="shared" si="4"/>
         <v>79872000000</v>
       </c>
-      <c r="R20" s="172">
+      <c r="R20" s="168">
         <v>321</v>
       </c>
-      <c r="S20" s="177">
+      <c r="S20" s="173">
         <f t="shared" si="5"/>
         <v>1.2970753205128206E-2</v>
       </c>
-      <c r="T20" s="177">
+      <c r="T20" s="173">
         <f t="shared" si="6"/>
         <v>0.86538255992847835</v>
       </c>
-      <c r="U20" s="177">
+      <c r="U20" s="173">
         <f t="shared" si="7"/>
         <v>0.13461744007152165</v>
       </c>
-      <c r="V20" s="177">
+      <c r="V20" s="173">
         <f t="shared" si="8"/>
         <v>0.11354230074594673</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="175">
+      <c r="A21" s="171">
         <v>42552</v>
       </c>
-      <c r="B21" s="168">
+      <c r="B21" s="164">
         <v>26.052499999999998</v>
       </c>
-      <c r="C21" s="178">
+      <c r="C21" s="174">
         <v>2173.6</v>
       </c>
-      <c r="D21" s="174">
+      <c r="D21" s="170">
         <f t="shared" si="0"/>
         <v>0.11169196124138936</v>
       </c>
-      <c r="E21" s="174">
+      <c r="E21" s="170">
         <f t="shared" si="0"/>
         <v>5.2437902483900567E-2</v>
       </c>
-      <c r="F21" s="172">
+      <c r="F21" s="168">
         <f t="shared" si="9"/>
         <v>1.9579108946583634</v>
       </c>
-      <c r="G21" s="174">
+      <c r="G21" s="170">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="H21" s="174">
+      <c r="H21" s="170">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="I21" s="174">
+      <c r="I21" s="170">
         <v>1.7501562500000001E-2</v>
       </c>
-      <c r="J21" s="174">
+      <c r="J21" s="170">
         <f t="shared" si="1"/>
         <v>0.1402625755950794</v>
       </c>
-      <c r="K21" s="172">
+      <c r="K21" s="168">
         <v>5388443000</v>
       </c>
-      <c r="L21" s="173">
+      <c r="L21" s="169">
         <f t="shared" si="2"/>
         <v>21553772000</v>
       </c>
-      <c r="M21" s="176">
+      <c r="M21" s="172">
         <f t="shared" si="3"/>
         <v>561529645030</v>
       </c>
-      <c r="N21" s="172">
+      <c r="N21" s="168">
         <v>68939</v>
       </c>
-      <c r="O21" s="172">
+      <c r="O21" s="168">
         <v>3500</v>
       </c>
-      <c r="P21" s="172">
+      <c r="P21" s="168">
         <v>12496</v>
       </c>
-      <c r="Q21" s="176">
+      <c r="Q21" s="172">
         <f t="shared" si="4"/>
         <v>84935000000</v>
       </c>
-      <c r="R21" s="172">
+      <c r="R21" s="168">
         <v>409</v>
       </c>
-      <c r="S21" s="177">
+      <c r="S21" s="173">
         <f t="shared" si="5"/>
         <v>1.4646494378053806E-2</v>
       </c>
-      <c r="T21" s="177">
+      <c r="T21" s="173">
         <f t="shared" si="6"/>
         <v>0.86861617158343052</v>
       </c>
-      <c r="U21" s="177">
+      <c r="U21" s="173">
         <f t="shared" si="7"/>
         <v>0.13138382841656948</v>
       </c>
-      <c r="V21" s="177">
+      <c r="V21" s="173">
         <f t="shared" si="8"/>
         <v>0.12375865393409985</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="175">
+      <c r="A22" s="171">
         <v>42644</v>
       </c>
-      <c r="B22" s="168">
+      <c r="B22" s="164">
         <v>28.385000000000002</v>
       </c>
-      <c r="C22" s="169">
+      <c r="C22" s="165">
         <v>2126.15</v>
       </c>
-      <c r="D22" s="174">
+      <c r="D22" s="170">
         <f t="shared" si="0"/>
         <v>8.9530755205834422E-2</v>
       </c>
-      <c r="E22" s="174">
+      <c r="E22" s="170">
         <f t="shared" si="0"/>
         <v>-2.1830143540669811E-2</v>
       </c>
-      <c r="F22" s="172">
+      <c r="F22" s="168">
         <f t="shared" si="9"/>
         <v>1.5602175386937238</v>
       </c>
-      <c r="G22" s="174">
+      <c r="G22" s="170">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="H22" s="174">
+      <c r="H22" s="170">
         <v>5.21E-2</v>
       </c>
-      <c r="I22" s="174">
+      <c r="I22" s="170">
         <v>1.5643750000000001E-2</v>
       </c>
-      <c r="J22" s="174">
+      <c r="J22" s="170">
         <f t="shared" si="1"/>
         <v>0.11175315038353338</v>
       </c>
-      <c r="K22" s="172">
+      <c r="K22" s="168">
         <v>5332313000</v>
       </c>
-      <c r="L22" s="173">
+      <c r="L22" s="169">
         <f t="shared" si="2"/>
         <v>21329252000</v>
       </c>
-      <c r="M22" s="176">
+      <c r="M22" s="172">
         <f t="shared" si="3"/>
         <v>605430818020</v>
       </c>
-      <c r="N22" s="172">
+      <c r="N22" s="168">
         <v>75427</v>
       </c>
-      <c r="O22" s="172">
+      <c r="O22" s="168">
         <v>3500</v>
       </c>
-      <c r="P22" s="172">
+      <c r="P22" s="168">
         <v>8105</v>
       </c>
-      <c r="Q22" s="176">
+      <c r="Q22" s="172">
         <f t="shared" si="4"/>
         <v>87032000000</v>
       </c>
-      <c r="R22" s="172">
+      <c r="R22" s="168">
         <v>450</v>
       </c>
-      <c r="S22" s="177">
+      <c r="S22" s="173">
         <f t="shared" si="5"/>
         <v>1.6729478812390845E-2</v>
       </c>
-      <c r="T22" s="177">
+      <c r="T22" s="173">
         <f t="shared" si="6"/>
         <v>0.87431527334730297</v>
       </c>
-      <c r="U22" s="177">
+      <c r="U22" s="173">
         <f t="shared" si="7"/>
         <v>0.12568472665269703</v>
       </c>
-      <c r="V22" s="177">
+      <c r="V22" s="173">
         <f t="shared" si="8"/>
         <v>9.9810126196578683E-2</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="175">
+      <c r="A23" s="171">
         <v>42736</v>
       </c>
-      <c r="B23" s="168">
+      <c r="B23" s="164">
         <v>30.337499999999999</v>
       </c>
-      <c r="C23" s="169">
+      <c r="C23" s="165">
         <v>2278.87</v>
       </c>
-      <c r="D23" s="174">
+      <c r="D23" s="170">
         <f t="shared" si="0"/>
         <v>6.8786330808525475E-2</v>
       </c>
-      <c r="E23" s="174">
+      <c r="E23" s="170">
         <f t="shared" si="0"/>
         <v>7.1829362933000906E-2</v>
       </c>
-      <c r="F23" s="172">
+      <c r="F23" s="168">
         <f t="shared" si="9"/>
         <v>1.3864114460700145</v>
       </c>
-      <c r="G23" s="174">
+      <c r="G23" s="170">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H23" s="174">
+      <c r="H23" s="170">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="I23" s="174">
+      <c r="I23" s="170">
         <v>2.1386885245901599E-2</v>
       </c>
-      <c r="J23" s="174">
+      <c r="J23" s="170">
         <f t="shared" si="1"/>
         <v>0.10027369652728542</v>
       </c>
-      <c r="K23" s="172">
+      <c r="K23" s="168">
         <v>5246540000</v>
       </c>
-      <c r="L23" s="173">
+      <c r="L23" s="169">
         <f t="shared" si="2"/>
         <v>20986160000</v>
       </c>
-      <c r="M23" s="176">
+      <c r="M23" s="172">
         <f t="shared" si="3"/>
         <v>636667629000</v>
       </c>
-      <c r="N23" s="172">
+      <c r="N23" s="168">
         <v>73557</v>
       </c>
-      <c r="O23" s="172">
+      <c r="O23" s="168">
         <v>3499</v>
       </c>
-      <c r="P23" s="172">
+      <c r="P23" s="168">
         <v>10493</v>
       </c>
-      <c r="Q23" s="176">
+      <c r="Q23" s="172">
         <f t="shared" si="4"/>
         <v>87549000000</v>
       </c>
-      <c r="R23" s="172">
+      <c r="R23" s="168">
         <v>525</v>
       </c>
-      <c r="S23" s="177">
+      <c r="S23" s="173">
         <f t="shared" si="5"/>
         <v>1.9474808393014197E-2</v>
       </c>
-      <c r="T23" s="177">
+      <c r="T23" s="173">
         <f t="shared" si="6"/>
         <v>0.87911213786835041</v>
       </c>
-      <c r="U23" s="177">
+      <c r="U23" s="173">
         <f t="shared" si="7"/>
         <v>0.12088786213164959</v>
       </c>
-      <c r="V23" s="177">
+      <c r="V23" s="173">
         <f t="shared" si="8"/>
         <v>9.0506091678119072E-2</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="175">
+      <c r="A24" s="171">
         <v>42826</v>
       </c>
-      <c r="B24" s="168">
+      <c r="B24" s="164">
         <v>35.912497999999999</v>
       </c>
-      <c r="C24" s="178">
+      <c r="C24" s="174">
         <v>2384.1999999999998</v>
       </c>
-      <c r="D24" s="174">
+      <c r="D24" s="170">
         <f t="shared" si="0"/>
         <v>0.18376590028842199</v>
       </c>
-      <c r="E24" s="174">
+      <c r="E24" s="170">
         <f t="shared" si="0"/>
         <v>4.6220275838463776E-2</v>
       </c>
-      <c r="F24" s="172">
+      <c r="F24" s="168">
         <f t="shared" si="9"/>
         <v>1.3683721117351479</v>
       </c>
-      <c r="G24" s="174">
+      <c r="G24" s="170">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="H24" s="174">
+      <c r="H24" s="170">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="I24" s="174">
+      <c r="I24" s="170">
         <v>2.4466129032258099E-2</v>
       </c>
-      <c r="J24" s="174">
+      <c r="J24" s="170">
         <f t="shared" si="1"/>
         <v>9.8084548643609062E-2</v>
       </c>
-      <c r="K24" s="172">
+      <c r="K24" s="168">
         <v>5213840000</v>
       </c>
-      <c r="L24" s="173">
+      <c r="L24" s="169">
         <f t="shared" si="2"/>
         <v>20855360000</v>
       </c>
-      <c r="M24" s="176">
+      <c r="M24" s="172">
         <f t="shared" si="3"/>
         <v>748968074289.28003</v>
       </c>
-      <c r="N24" s="172">
+      <c r="N24" s="168">
         <v>84531</v>
       </c>
-      <c r="O24" s="172">
+      <c r="O24" s="168">
         <v>3999</v>
       </c>
-      <c r="P24" s="172">
+      <c r="P24" s="168">
         <v>9992</v>
       </c>
-      <c r="Q24" s="176">
+      <c r="Q24" s="172">
         <f t="shared" si="4"/>
         <v>98522000000</v>
       </c>
-      <c r="R24" s="172">
+      <c r="R24" s="168">
         <v>530</v>
       </c>
-      <c r="S24" s="177">
+      <c r="S24" s="173">
         <f t="shared" si="5"/>
         <v>1.9427133026126146E-2</v>
       </c>
-      <c r="T24" s="177">
+      <c r="T24" s="173">
         <f t="shared" si="6"/>
         <v>0.88374849099840813</v>
       </c>
-      <c r="U24" s="177">
+      <c r="U24" s="173">
         <f t="shared" si="7"/>
         <v>0.11625150900159187</v>
       </c>
-      <c r="V24" s="177">
+      <c r="V24" s="173">
         <f t="shared" si="8"/>
         <v>8.8940505383911295E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="175">
+      <c r="A25" s="171">
         <v>42917</v>
       </c>
-      <c r="B25" s="168">
+      <c r="B25" s="164">
         <v>37.182499</v>
       </c>
-      <c r="C25" s="178">
+      <c r="C25" s="174">
         <v>2470.3000000000002</v>
       </c>
-      <c r="D25" s="174">
+      <c r="D25" s="170">
         <f t="shared" si="0"/>
         <v>3.5363761106230962E-2</v>
       </c>
-      <c r="E25" s="174">
+      <c r="E25" s="170">
         <f t="shared" si="0"/>
         <v>3.6112742219612581E-2</v>
       </c>
-      <c r="F25" s="172">
+      <c r="F25" s="168">
         <f t="shared" si="9"/>
         <v>1.3281190628928796</v>
       </c>
-      <c r="G25" s="174">
+      <c r="G25" s="170">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="H25" s="174">
+      <c r="H25" s="170">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="I25" s="174">
+      <c r="I25" s="170">
         <v>2.2609523809523802E-2</v>
       </c>
-      <c r="J25" s="174">
+      <c r="J25" s="170">
         <f t="shared" si="1"/>
         <v>9.0742031735928527E-2</v>
       </c>
-      <c r="K25" s="172">
+      <c r="K25" s="168">
         <v>5165228000</v>
       </c>
-      <c r="L25" s="173">
+      <c r="L25" s="169">
         <f t="shared" si="2"/>
         <v>20660912000</v>
       </c>
-      <c r="M25" s="176">
+      <c r="M25" s="172">
         <f t="shared" si="3"/>
         <v>768224339779.08801</v>
       </c>
-      <c r="N25" s="172">
+      <c r="N25" s="168">
         <v>89864</v>
       </c>
-      <c r="O25" s="172">
+      <c r="O25" s="168">
         <v>6495</v>
       </c>
-      <c r="P25" s="172">
+      <c r="P25" s="168">
         <v>11980</v>
       </c>
-      <c r="Q25" s="176">
+      <c r="Q25" s="172">
         <f t="shared" si="4"/>
         <v>108339000000</v>
       </c>
-      <c r="R25" s="172">
+      <c r="R25" s="168">
         <v>602</v>
       </c>
-      <c r="S25" s="177">
+      <c r="S25" s="173">
         <f t="shared" si="5"/>
         <v>1.9448213478064226E-2</v>
       </c>
-      <c r="T25" s="177">
+      <c r="T25" s="173">
         <f t="shared" si="6"/>
         <v>0.87640482429107325</v>
       </c>
-      <c r="U25" s="177">
+      <c r="U25" s="173">
         <f t="shared" si="7"/>
         <v>0.12359517570892675</v>
       </c>
-      <c r="V25" s="177">
+      <c r="V25" s="173">
         <f t="shared" si="8"/>
         <v>8.1930459741387504E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="175">
+      <c r="A26" s="171">
         <v>43009</v>
       </c>
-      <c r="B26" s="168">
+      <c r="B26" s="164">
         <v>42.259998000000003</v>
       </c>
-      <c r="C26" s="169">
+      <c r="C26" s="165">
         <v>2575.2600000000002</v>
       </c>
-      <c r="D26" s="174">
+      <c r="D26" s="170">
         <f t="shared" si="0"/>
         <v>0.1365561523984713</v>
       </c>
-      <c r="E26" s="174">
+      <c r="E26" s="170">
         <f t="shared" si="0"/>
         <v>4.2488766546573409E-2</v>
       </c>
-      <c r="F26" s="172">
+      <c r="F26" s="168">
         <f t="shared" si="9"/>
         <v>1.3316078611431306</v>
       </c>
-      <c r="G26" s="174">
+      <c r="G26" s="170">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="H26" s="174">
+      <c r="H26" s="170">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I26" s="174">
+      <c r="I26" s="170">
         <v>2.2414285714285699E-2</v>
       </c>
-      <c r="J26" s="174">
+      <c r="J26" s="170">
         <f t="shared" si="1"/>
         <v>8.7929392482527735E-2</v>
       </c>
-      <c r="K26" s="172">
+      <c r="K26" s="168">
         <v>5134312000</v>
       </c>
-      <c r="L26" s="173">
+      <c r="L26" s="169">
         <f t="shared" si="2"/>
         <v>20537248000</v>
       </c>
-      <c r="M26" s="176">
+      <c r="M26" s="172">
         <f t="shared" si="3"/>
         <v>867904059405.50403</v>
       </c>
-      <c r="N26" s="172">
+      <c r="N26" s="168">
         <v>97207</v>
       </c>
-      <c r="O26" s="172">
+      <c r="O26" s="168">
         <v>6496</v>
       </c>
-      <c r="P26" s="172">
+      <c r="P26" s="168">
         <v>11977</v>
       </c>
-      <c r="Q26" s="176">
+      <c r="Q26" s="172">
         <f t="shared" si="4"/>
         <v>115680000000</v>
       </c>
-      <c r="R26" s="172">
+      <c r="R26" s="168">
         <v>666</v>
       </c>
-      <c r="S26" s="177">
+      <c r="S26" s="173">
         <f t="shared" si="5"/>
         <v>2.0081258644536654E-2</v>
       </c>
-      <c r="T26" s="177">
+      <c r="T26" s="173">
         <f t="shared" si="6"/>
         <v>0.88238930989800801</v>
       </c>
-      <c r="U26" s="177">
+      <c r="U26" s="173">
         <f t="shared" si="7"/>
         <v>0.11761069010199199</v>
       </c>
-      <c r="V26" s="177">
+      <c r="V26" s="173">
         <f t="shared" si="8"/>
         <v>7.9949726639709284E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="175">
+      <c r="A27" s="171">
         <v>43101</v>
       </c>
-      <c r="B27" s="168">
+      <c r="B27" s="164">
         <v>41.857498</v>
       </c>
-      <c r="C27" s="169">
+      <c r="C27" s="165">
         <v>2823.81</v>
       </c>
-      <c r="D27" s="174">
+      <c r="D27" s="170">
         <f t="shared" si="0"/>
         <v>-9.5243733802354846E-3</v>
       </c>
-      <c r="E27" s="174">
+      <c r="E27" s="170">
         <f t="shared" si="0"/>
         <v>9.6514526688567193E-2</v>
       </c>
-      <c r="F27" s="172">
+      <c r="F27" s="168">
         <f t="shared" si="9"/>
         <v>1.0471688625326183</v>
       </c>
-      <c r="G27" s="174">
+      <c r="G27" s="170">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="H27" s="174">
+      <c r="H27" s="170">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="I27" s="174">
+      <c r="I27" s="170">
         <v>2.37145161290323E-2</v>
       </c>
-      <c r="J27" s="174">
+      <c r="J27" s="170">
         <f t="shared" si="1"/>
         <v>7.6910694345689312E-2</v>
       </c>
-      <c r="K27" s="172">
+      <c r="K27" s="168">
         <v>5074013000</v>
       </c>
-      <c r="L27" s="173">
+      <c r="L27" s="169">
         <f t="shared" si="2"/>
         <v>20296052000</v>
       </c>
-      <c r="M27" s="176">
+      <c r="M27" s="172">
         <f t="shared" si="3"/>
         <v>849541955997.896</v>
       </c>
-      <c r="N27" s="172">
+      <c r="N27" s="168">
         <v>103922</v>
       </c>
-      <c r="O27" s="172">
+      <c r="O27" s="168">
         <v>6498</v>
       </c>
-      <c r="P27" s="172">
+      <c r="P27" s="168">
         <v>11980</v>
       </c>
-      <c r="Q27" s="176">
+      <c r="Q27" s="172">
         <f t="shared" si="4"/>
         <v>122400000000</v>
       </c>
-      <c r="R27" s="172">
+      <c r="R27" s="168">
         <v>734</v>
       </c>
-      <c r="S27" s="177">
+      <c r="S27" s="173">
         <f t="shared" si="5"/>
         <v>2.0686274509803922E-2</v>
       </c>
-      <c r="T27" s="177">
+      <c r="T27" s="173">
         <f t="shared" si="6"/>
         <v>0.87406655382591081</v>
       </c>
-      <c r="U27" s="177">
+      <c r="U27" s="173">
         <f t="shared" si="7"/>
         <v>0.12593344617408919</v>
       </c>
-      <c r="V27" s="177">
+      <c r="V27" s="173">
         <f t="shared" si="8"/>
         <v>6.983015939661745E-2</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="175">
+      <c r="A28" s="171">
         <v>43191</v>
       </c>
-      <c r="B28" s="168">
+      <c r="B28" s="164">
         <v>41.314999</v>
       </c>
-      <c r="C28" s="169">
+      <c r="C28" s="165">
         <v>2648.05</v>
       </c>
-      <c r="D28" s="174">
+      <c r="D28" s="170">
         <f t="shared" si="0"/>
         <v>-1.2960616996266716E-2</v>
       </c>
-      <c r="E28" s="174">
+      <c r="E28" s="170">
         <f t="shared" si="0"/>
         <v>-6.2242148019873822E-2</v>
       </c>
-      <c r="F28" s="172">
+      <c r="F28" s="168">
         <f t="shared" si="9"/>
         <v>0.89663199979520269</v>
       </c>
-      <c r="G28" s="174">
+      <c r="G28" s="170">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="H28" s="174">
+      <c r="H28" s="170">
         <v>7.17E-2</v>
       </c>
-      <c r="I28" s="174">
+      <c r="I28" s="170">
         <v>2.7585245901639299E-2</v>
       </c>
-      <c r="J28" s="174">
+      <c r="J28" s="170">
         <f t="shared" si="1"/>
         <v>7.4120446691010311E-2</v>
       </c>
-      <c r="K28" s="172">
+      <c r="K28" s="168">
         <v>4915138000</v>
       </c>
-      <c r="L28" s="173">
+      <c r="L28" s="169">
         <f t="shared" si="2"/>
         <v>19660552000</v>
       </c>
-      <c r="M28" s="176">
+      <c r="M28" s="172">
         <f t="shared" si="3"/>
         <v>812275686219.448</v>
       </c>
-      <c r="N28" s="172">
+      <c r="N28" s="168">
         <v>101362</v>
       </c>
-      <c r="O28" s="172">
+      <c r="O28" s="168">
         <v>8498</v>
       </c>
-      <c r="P28" s="172">
+      <c r="P28" s="168">
         <v>11980</v>
       </c>
-      <c r="Q28" s="176">
+      <c r="Q28" s="172">
         <f t="shared" si="4"/>
         <v>121840000000</v>
       </c>
-      <c r="R28" s="172">
+      <c r="R28" s="168">
         <v>792</v>
       </c>
-      <c r="S28" s="177">
+      <c r="S28" s="173">
         <f t="shared" si="5"/>
         <v>2.29317137229153E-2</v>
       </c>
-      <c r="T28" s="177">
+      <c r="T28" s="173">
         <f t="shared" si="6"/>
         <v>0.86956647683210342</v>
       </c>
-      <c r="U28" s="177">
+      <c r="U28" s="173">
         <f t="shared" si="7"/>
         <v>0.13043352316789658</v>
       </c>
-      <c r="V28" s="177">
+      <c r="V28" s="173">
         <f t="shared" si="8"/>
         <v>6.7443719903481025E-2</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="175">
+      <c r="A29" s="171">
         <v>43282</v>
       </c>
-      <c r="B29" s="168">
+      <c r="B29" s="164">
         <v>47.572498000000003</v>
       </c>
-      <c r="C29" s="169">
+      <c r="C29" s="165">
         <v>2816.29</v>
       </c>
-      <c r="D29" s="174">
+      <c r="D29" s="170">
         <f t="shared" si="0"/>
         <v>0.1514582875821926</v>
       </c>
-      <c r="E29" s="174">
+      <c r="E29" s="170">
         <f t="shared" si="0"/>
         <v>6.3533543550914784E-2</v>
       </c>
-      <c r="F29" s="172">
+      <c r="F29" s="168">
         <f t="shared" si="9"/>
         <v>0.9730426226273915</v>
       </c>
-      <c r="G29" s="174">
+      <c r="G29" s="170">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="H29" s="174">
+      <c r="H29" s="170">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="I29" s="174">
+      <c r="I29" s="170">
         <v>2.920625E-2</v>
       </c>
-      <c r="J29" s="174">
+      <c r="J29" s="170">
         <f t="shared" si="1"/>
         <v>8.1458638835090927E-2</v>
       </c>
-      <c r="K29" s="172">
+      <c r="K29" s="168">
         <v>4829926000</v>
       </c>
-      <c r="L29" s="173">
+      <c r="L29" s="169">
         <f t="shared" si="2"/>
         <v>19319704000</v>
       </c>
-      <c r="M29" s="176">
+      <c r="M29" s="172">
         <f t="shared" si="3"/>
         <v>919086579900.59204</v>
       </c>
-      <c r="N29" s="172">
+      <c r="N29" s="168">
         <v>97128</v>
       </c>
-      <c r="O29" s="172">
+      <c r="O29" s="168">
         <v>5498</v>
       </c>
-      <c r="P29" s="172">
+      <c r="P29" s="168">
         <v>11974</v>
       </c>
-      <c r="Q29" s="176">
+      <c r="Q29" s="172">
         <f t="shared" si="4"/>
         <v>114600000000</v>
       </c>
-      <c r="R29" s="172">
+      <c r="R29" s="168">
         <v>846</v>
       </c>
-      <c r="S29" s="177">
+      <c r="S29" s="173">
         <f t="shared" si="5"/>
         <v>2.6509598603839443E-2</v>
       </c>
-      <c r="T29" s="177">
+      <c r="T29" s="173">
         <f t="shared" si="6"/>
         <v>0.88913467367350274</v>
       </c>
-      <c r="U29" s="177">
+      <c r="U29" s="173">
         <f t="shared" si="7"/>
         <v>0.11086532632649726</v>
       </c>
-      <c r="V29" s="177">
+      <c r="V29" s="173">
         <f t="shared" si="8"/>
         <v>7.5366695558525418E-2</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175">
+      <c r="A30" s="171">
         <v>43374</v>
       </c>
-      <c r="B30" s="168">
+      <c r="B30" s="164">
         <v>54.715000000000003</v>
       </c>
-      <c r="C30" s="169">
+      <c r="C30" s="165">
         <v>2711.74</v>
       </c>
-      <c r="D30" s="174">
+      <c r="D30" s="170">
         <f t="shared" si="0"/>
         <v>0.15013930948086851</v>
       </c>
-      <c r="E30" s="174">
+      <c r="E30" s="170">
         <f t="shared" si="0"/>
         <v>-3.7123307613917689E-2</v>
       </c>
-      <c r="F30" s="172">
+      <c r="F30" s="168">
         <f t="shared" si="9"/>
         <v>0.64979404186815926</v>
       </c>
-      <c r="G30" s="174">
+      <c r="G30" s="170">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="H30" s="174">
+      <c r="H30" s="170">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="I30" s="174">
+      <c r="I30" s="170">
         <v>2.9238095238095198E-2</v>
       </c>
-      <c r="J30" s="174">
+      <c r="J30" s="170">
         <f t="shared" si="1"/>
         <v>6.4197014690602169E-2</v>
       </c>
-      <c r="K30" s="172">
+      <c r="K30" s="168">
         <v>4745398000</v>
       </c>
-      <c r="L30" s="173">
+      <c r="L30" s="169">
         <f t="shared" si="2"/>
         <v>18981592000</v>
       </c>
-      <c r="M30" s="176">
+      <c r="M30" s="172">
         <f t="shared" si="3"/>
         <v>1038577806280.0001</v>
       </c>
-      <c r="N30" s="172">
+      <c r="N30" s="168">
         <v>93735</v>
       </c>
-      <c r="O30" s="172">
+      <c r="O30" s="168">
         <v>8784</v>
       </c>
-      <c r="P30" s="172">
+      <c r="P30" s="168">
         <v>11964</v>
       </c>
-      <c r="Q30" s="176">
+      <c r="Q30" s="172">
         <f t="shared" si="4"/>
         <v>114483000000</v>
       </c>
-      <c r="R30" s="172">
+      <c r="R30" s="168">
         <v>868</v>
       </c>
-      <c r="S30" s="177">
+      <c r="S30" s="173">
         <f t="shared" si="5"/>
         <v>2.8301145148187941E-2</v>
       </c>
-      <c r="T30" s="177">
+      <c r="T30" s="173">
         <f t="shared" si="6"/>
         <v>0.90071382239645759</v>
       </c>
-      <c r="U30" s="177">
+      <c r="U30" s="173">
         <f t="shared" si="7"/>
         <v>9.9286177603542414E-2</v>
       </c>
-      <c r="V30" s="177">
+      <c r="V30" s="173">
         <f t="shared" si="8"/>
         <v>6.0633051011980438E-2</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="175">
+      <c r="A31" s="171">
         <v>43466</v>
       </c>
-      <c r="B31" s="168">
+      <c r="B31" s="164">
         <v>41.610000999999997</v>
       </c>
-      <c r="C31" s="178">
+      <c r="C31" s="174">
         <v>2704.1</v>
       </c>
-      <c r="D31" s="174">
+      <c r="D31" s="170">
         <f t="shared" si="0"/>
         <v>-0.23951382619025874</v>
       </c>
-      <c r="E31" s="174">
+      <c r="E31" s="170">
         <f t="shared" si="0"/>
         <v>-2.8173792472728776E-3</v>
       </c>
-      <c r="F31" s="172">
+      <c r="F31" s="168">
         <f t="shared" si="9"/>
         <v>0.31814865601587111</v>
       </c>
-      <c r="G31" s="174">
+      <c r="G31" s="170">
         <v>5.96E-2</v>
       </c>
-      <c r="H31" s="174">
+      <c r="H31" s="170">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="I31" s="174">
+      <c r="I31" s="170">
         <v>3.0411475409836099E-2</v>
       </c>
-      <c r="J31" s="174">
+      <c r="J31" s="170">
         <f t="shared" si="1"/>
         <v>4.9373135308382013E-2</v>
       </c>
-      <c r="K31" s="172">
+      <c r="K31" s="168">
         <v>4715280000</v>
       </c>
-      <c r="L31" s="173">
+      <c r="L31" s="169">
         <f t="shared" si="2"/>
         <v>18861120000</v>
       </c>
-      <c r="M31" s="176">
+      <c r="M31" s="172">
         <f t="shared" si="3"/>
         <v>784811222061.12</v>
       </c>
-      <c r="N31" s="172">
+      <c r="N31" s="168">
         <v>92989</v>
       </c>
-      <c r="O31" s="172">
+      <c r="O31" s="168">
         <v>9772</v>
       </c>
-      <c r="P31" s="172">
+      <c r="P31" s="168">
         <v>11969</v>
       </c>
-      <c r="Q31" s="176">
+      <c r="Q31" s="172">
         <f t="shared" si="4"/>
         <v>114730000000</v>
       </c>
-      <c r="R31" s="172">
+      <c r="R31" s="168">
         <v>890</v>
       </c>
-      <c r="S31" s="177">
+      <c r="S31" s="173">
         <f t="shared" si="5"/>
         <v>2.9599930271071211E-2</v>
       </c>
-      <c r="T31" s="177">
+      <c r="T31" s="173">
         <f t="shared" si="6"/>
         <v>0.87245720686694161</v>
       </c>
-      <c r="U31" s="177">
+      <c r="U31" s="173">
         <f t="shared" si="7"/>
         <v>0.12754279313305839</v>
       </c>
-      <c r="V31" s="177">
+      <c r="V31" s="173">
         <f t="shared" si="8"/>
         <v>4.6851205508730731E-2</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="175">
+      <c r="A32" s="171">
         <v>43556</v>
       </c>
-      <c r="B32" s="168">
+      <c r="B32" s="164">
         <v>50.167499999999997</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="165">
         <v>2945.83</v>
       </c>
-      <c r="D32" s="174">
+      <c r="D32" s="170">
         <f t="shared" si="0"/>
         <v>0.20565966821293746</v>
       </c>
-      <c r="E32" s="174">
+      <c r="E32" s="170">
         <f t="shared" si="0"/>
         <v>8.9393883362301807E-2</v>
       </c>
-      <c r="F32" s="172">
+      <c r="F32" s="168">
         <f t="shared" si="9"/>
         <v>0.70868048367508629</v>
       </c>
-      <c r="G32" s="174">
+      <c r="G32" s="170">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="H32" s="174">
+      <c r="H32" s="170">
         <v>4.07E-2</v>
       </c>
-      <c r="I32" s="174">
+      <c r="I32" s="170">
         <v>2.6529508196721299E-2</v>
       </c>
-      <c r="J32" s="174">
+      <c r="J32" s="170">
         <f t="shared" si="1"/>
         <v>6.7278636008038767E-2</v>
       </c>
-      <c r="K32" s="172">
+      <c r="K32" s="168">
         <v>4601075000</v>
       </c>
-      <c r="L32" s="173">
+      <c r="L32" s="169">
         <f t="shared" si="2"/>
         <v>18404300000</v>
       </c>
-      <c r="M32" s="176">
+      <c r="M32" s="172">
         <f t="shared" si="3"/>
         <v>923297720250</v>
       </c>
-      <c r="N32" s="172">
+      <c r="N32" s="168">
         <v>90201</v>
       </c>
-      <c r="O32" s="172">
+      <c r="O32" s="168">
         <v>10505</v>
       </c>
-      <c r="P32" s="172">
+      <c r="P32" s="168">
         <v>11924</v>
       </c>
-      <c r="Q32" s="176">
+      <c r="Q32" s="172">
         <f t="shared" si="4"/>
         <v>112630000000</v>
       </c>
-      <c r="R32" s="172">
+      <c r="R32" s="168">
         <v>1010</v>
       </c>
-      <c r="S32" s="177">
+      <c r="S32" s="173">
         <f t="shared" si="5"/>
         <v>3.2087365710734263E-2</v>
       </c>
-      <c r="T32" s="177">
+      <c r="T32" s="173">
         <f t="shared" si="6"/>
         <v>0.89127619833088445</v>
       </c>
-      <c r="U32" s="177">
+      <c r="U32" s="173">
         <f t="shared" si="7"/>
         <v>0.10872380166911555</v>
       </c>
-      <c r="V32" s="177">
+      <c r="V32" s="173">
         <f t="shared" si="8"/>
         <v>6.3452507315750403E-2</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="175">
+      <c r="A33" s="171">
         <v>43647</v>
       </c>
-      <c r="B33" s="168">
+      <c r="B33" s="164">
         <v>53.259998000000003</v>
       </c>
-      <c r="C33" s="169">
+      <c r="C33" s="165">
         <v>2980.38</v>
       </c>
-      <c r="D33" s="174">
+      <c r="D33" s="170">
         <f t="shared" si="0"/>
         <v>6.1643454427667388E-2</v>
       </c>
-      <c r="E33" s="174">
+      <c r="E33" s="170">
         <f t="shared" si="0"/>
         <v>1.172844325707878E-2</v>
       </c>
-      <c r="F33" s="172">
+      <c r="F33" s="168">
         <f t="shared" si="9"/>
         <v>0.6861386894003062</v>
       </c>
-      <c r="G33" s="174">
+      <c r="G33" s="170">
         <v>5.67E-2</v>
       </c>
-      <c r="H33" s="174">
+      <c r="H33" s="170">
         <v>3.44E-2</v>
       </c>
-      <c r="I33" s="174">
+      <c r="I33" s="170">
         <v>2.33888888888889E-2</v>
       </c>
-      <c r="J33" s="174">
+      <c r="J33" s="170">
         <f t="shared" si="1"/>
         <v>6.2292952577886265E-2</v>
       </c>
-      <c r="K33" s="172">
+      <c r="K33" s="168">
         <v>4519180000</v>
       </c>
-      <c r="L33" s="173">
+      <c r="L33" s="169">
         <f t="shared" si="2"/>
         <v>18076720000</v>
       </c>
-      <c r="M33" s="176">
+      <c r="M33" s="172">
         <f t="shared" si="3"/>
         <v>962766071046.56006</v>
       </c>
-      <c r="N33" s="172">
+      <c r="N33" s="168">
         <v>84936</v>
       </c>
-      <c r="O33" s="172">
+      <c r="O33" s="168">
         <v>13529</v>
       </c>
-      <c r="P33" s="172">
+      <c r="P33" s="168">
         <v>9953</v>
       </c>
-      <c r="Q33" s="176">
+      <c r="Q33" s="172">
         <f t="shared" si="4"/>
         <v>108418000000</v>
       </c>
-      <c r="R33" s="172">
+      <c r="R33" s="168">
         <v>866</v>
       </c>
-      <c r="S33" s="177">
+      <c r="S33" s="173">
         <f t="shared" si="5"/>
         <v>3.3518419450644724E-2</v>
       </c>
-      <c r="T33" s="177">
+      <c r="T33" s="173">
         <f t="shared" si="6"/>
         <v>0.89878676977144156</v>
       </c>
-      <c r="U33" s="177">
+      <c r="U33" s="173">
         <f t="shared" si="7"/>
         <v>0.10121323022855844</v>
       </c>
-      <c r="V33" s="177">
+      <c r="V33" s="173">
         <f t="shared" si="8"/>
         <v>5.938058913175949E-2</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="175">
+      <c r="A34" s="171">
         <v>43739</v>
       </c>
-      <c r="B34" s="168">
+      <c r="B34" s="164">
         <v>62.189999</v>
       </c>
-      <c r="C34" s="169">
+      <c r="C34" s="165">
         <v>3037.56</v>
       </c>
-      <c r="D34" s="174">
+      <c r="D34" s="170">
         <f t="shared" si="0"/>
         <v>0.16766806863192141</v>
       </c>
-      <c r="E34" s="174">
+      <c r="E34" s="170">
         <f t="shared" si="0"/>
         <v>1.9185472993376695E-2</v>
       </c>
-      <c r="F34" s="172">
+      <c r="F34" s="168">
         <f t="shared" si="9"/>
         <v>0.75050730932405396</v>
       </c>
-      <c r="G34" s="174">
+      <c r="G34" s="170">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="H34" s="174">
+      <c r="H34" s="170">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="I34" s="174">
+      <c r="I34" s="170">
         <v>1.7979687500000001E-2</v>
       </c>
-      <c r="J34" s="174">
+      <c r="J34" s="170">
         <f t="shared" si="1"/>
         <v>5.9632843167484996E-2</v>
       </c>
-      <c r="K34" s="172">
+      <c r="K34" s="168">
         <v>4443265000</v>
       </c>
-      <c r="L34" s="173">
+      <c r="L34" s="169">
         <f t="shared" si="2"/>
         <v>17773060000</v>
       </c>
-      <c r="M34" s="176">
+      <c r="M34" s="172">
         <f t="shared" si="3"/>
         <v>1105306583626.9399</v>
       </c>
-      <c r="N34" s="172">
+      <c r="N34" s="168">
         <v>91807</v>
       </c>
-      <c r="O34" s="172">
+      <c r="O34" s="168">
         <v>10260</v>
       </c>
-      <c r="P34" s="172">
+      <c r="P34" s="168">
         <v>5980</v>
       </c>
-      <c r="Q34" s="176">
+      <c r="Q34" s="172">
         <f t="shared" si="4"/>
         <v>108047000000</v>
       </c>
-      <c r="R34" s="172">
+      <c r="R34" s="168">
         <v>810</v>
       </c>
-      <c r="S34" s="177">
+      <c r="S34" s="173">
         <f t="shared" si="5"/>
         <v>3.3096707914148475E-2</v>
       </c>
-      <c r="T34" s="177">
+      <c r="T34" s="173">
         <f t="shared" si="6"/>
         <v>0.91095176092279107</v>
       </c>
-      <c r="U34" s="177">
+      <c r="U34" s="173">
         <f t="shared" si="7"/>
         <v>8.9048239077208935E-2</v>
       </c>
-      <c r="V34" s="177">
+      <c r="V34" s="173">
         <f t="shared" si="8"/>
         <v>5.7269847051260737E-2</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="175">
+      <c r="A35" s="171">
         <v>43831</v>
       </c>
-      <c r="B35" s="168">
+      <c r="B35" s="164">
         <v>77.377502000000007</v>
       </c>
-      <c r="C35" s="169">
+      <c r="C35" s="165">
         <v>3225.52</v>
       </c>
-      <c r="D35" s="174">
+      <c r="D35" s="170">
         <f t="shared" si="0"/>
         <v>0.24421134015454804</v>
       </c>
-      <c r="E35" s="174">
+      <c r="E35" s="170">
         <f t="shared" si="0"/>
         <v>6.187861309735454E-2</v>
       </c>
-      <c r="F35" s="172">
+      <c r="F35" s="168">
         <f t="shared" si="9"/>
         <v>0.99445134004580671</v>
       </c>
-      <c r="G35" s="174">
+      <c r="G35" s="170">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H35" s="174">
+      <c r="H35" s="170">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="I35" s="174">
+      <c r="I35" s="170">
         <v>1.7919354838709701E-2</v>
       </c>
-      <c r="J35" s="174">
+      <c r="J35" s="170">
         <f t="shared" si="1"/>
         <v>6.963082452109165E-2</v>
       </c>
-      <c r="K35" s="172">
+      <c r="K35" s="168">
         <v>4375480000</v>
       </c>
-      <c r="L35" s="173">
+      <c r="L35" s="169">
         <f t="shared" si="2"/>
         <v>17501920000</v>
       </c>
-      <c r="M35" s="176">
+      <c r="M35" s="172">
         <f t="shared" si="3"/>
         <v>1354254849803.8401</v>
       </c>
-      <c r="N35" s="172">
+      <c r="N35" s="168">
         <v>93078</v>
       </c>
-      <c r="O35" s="172">
+      <c r="O35" s="168">
         <v>10224</v>
       </c>
-      <c r="P35" s="172">
+      <c r="P35" s="168">
         <v>4990</v>
       </c>
-      <c r="Q35" s="176">
+      <c r="Q35" s="172">
         <f t="shared" si="4"/>
         <v>108292000000</v>
       </c>
-      <c r="R35" s="172">
+      <c r="R35" s="168">
         <v>785</v>
       </c>
-      <c r="S35" s="177">
+      <c r="S35" s="173">
         <f t="shared" si="5"/>
         <v>3.2052229158201898E-2</v>
       </c>
-      <c r="T35" s="177">
+      <c r="T35" s="173">
         <f t="shared" si="6"/>
         <v>0.92595655994573822</v>
       </c>
-      <c r="U35" s="177">
+      <c r="U35" s="173">
         <f t="shared" si="7"/>
         <v>7.4043440054261778E-2</v>
       </c>
-      <c r="V35" s="177">
+      <c r="V35" s="173">
         <f t="shared" si="8"/>
         <v>6.6848376048016162E-2</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="175">
+      <c r="A36" s="171">
         <v>43922</v>
       </c>
-      <c r="B36" s="168">
+      <c r="B36" s="164">
         <v>73.449996999999996</v>
       </c>
-      <c r="C36" s="169">
+      <c r="C36" s="165">
         <v>2912.43</v>
       </c>
-      <c r="D36" s="174">
+      <c r="D36" s="170">
         <f t="shared" si="0"/>
         <v>-5.0757712493742835E-2</v>
       </c>
-      <c r="E36" s="174">
+      <c r="E36" s="170">
         <f t="shared" si="0"/>
         <v>-9.7066519506932236E-2</v>
       </c>
-      <c r="F36" s="172">
+      <c r="F36" s="168">
         <f t="shared" si="9"/>
         <v>0.97882143898777374</v>
       </c>
-      <c r="G36" s="174">
+      <c r="G36" s="170">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="H36" s="174">
+      <c r="H36" s="170">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="I36" s="174">
+      <c r="I36" s="170">
         <v>1.3650000000000001E-2</v>
       </c>
-      <c r="J36" s="174">
+      <c r="J36" s="170">
         <f t="shared" si="1"/>
         <v>7.3945400641646869E-2</v>
       </c>
-      <c r="K36" s="172">
+      <c r="K36" s="168">
         <v>4334335000</v>
       </c>
-      <c r="L36" s="173">
+      <c r="L36" s="169">
         <f t="shared" si="2"/>
         <v>17337340000</v>
       </c>
-      <c r="M36" s="176">
+      <c r="M36" s="172">
         <f t="shared" si="3"/>
         <v>1273427570987.98</v>
       </c>
-      <c r="N36" s="179">
+      <c r="N36" s="175">
         <v>89086</v>
       </c>
-      <c r="O36" s="172">
+      <c r="O36" s="168">
         <v>10392</v>
       </c>
-      <c r="P36" s="172">
+      <c r="P36" s="168">
         <v>10029</v>
       </c>
-      <c r="Q36" s="176">
+      <c r="Q36" s="172">
         <f t="shared" si="4"/>
         <v>109507000000</v>
       </c>
-      <c r="R36" s="172">
+      <c r="R36" s="168">
         <v>757</v>
       </c>
-      <c r="S36" s="177">
+      <c r="S36" s="173">
         <f t="shared" si="5"/>
         <v>2.9386249280867891E-2</v>
       </c>
-      <c r="T36" s="177">
+      <c r="T36" s="173">
         <f t="shared" si="6"/>
         <v>0.92081548737206897</v>
       </c>
-      <c r="U36" s="177">
+      <c r="U36" s="173">
         <f t="shared" si="7"/>
         <v>7.9184512627931025E-2</v>
       </c>
-      <c r="V36" s="177">
+      <c r="V36" s="173">
         <f t="shared" si="8"/>
         <v>7.0417005958029369E-2</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="175">
+      <c r="A37" s="171">
         <v>44013</v>
       </c>
-      <c r="B37" s="168">
+      <c r="B37" s="164">
         <v>106.260002</v>
       </c>
-      <c r="C37" s="169">
+      <c r="C37" s="165">
         <v>3271.12</v>
       </c>
-      <c r="D37" s="174">
+      <c r="D37" s="170">
         <f t="shared" si="0"/>
         <v>0.44669852062757753</v>
       </c>
-      <c r="E37" s="174">
+      <c r="E37" s="170">
         <f t="shared" si="0"/>
         <v>0.123158324835275</v>
       </c>
-      <c r="F37" s="172">
+      <c r="F37" s="168">
         <f t="shared" si="9"/>
         <v>1.5306983567165311</v>
       </c>
-      <c r="G37" s="174">
+      <c r="G37" s="170">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="H37" s="174">
+      <c r="H37" s="170">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="I37" s="174">
+      <c r="I37" s="170">
         <v>6.8761904761904802E-3</v>
       </c>
-      <c r="J37" s="174">
+      <c r="J37" s="170">
         <f t="shared" si="1"/>
         <v>8.9074692231868202E-2</v>
       </c>
-      <c r="K37" s="172">
+      <c r="K37" s="168">
         <v>4275634000</v>
       </c>
-      <c r="L37" s="173">
+      <c r="L37" s="169">
         <f t="shared" si="2"/>
         <v>17102536000</v>
       </c>
-      <c r="M37" s="176">
+      <c r="M37" s="172">
         <f t="shared" si="3"/>
         <v>1817315509565.072</v>
       </c>
-      <c r="N37" s="179">
+      <c r="N37" s="175">
         <v>94048</v>
       </c>
-      <c r="O37" s="179">
+      <c r="O37" s="175">
         <v>7509</v>
       </c>
-      <c r="P37" s="179">
+      <c r="P37" s="175">
         <v>11166</v>
       </c>
-      <c r="Q37" s="176">
+      <c r="Q37" s="172">
         <f t="shared" si="4"/>
         <v>112723000000</v>
       </c>
-      <c r="R37" s="172">
+      <c r="R37" s="168">
         <v>697</v>
       </c>
-      <c r="S37" s="177">
+      <c r="S37" s="173">
         <f t="shared" si="5"/>
         <v>2.7048605874577504E-2</v>
       </c>
-      <c r="T37" s="177">
+      <c r="T37" s="173">
         <f t="shared" si="6"/>
         <v>0.94159546587212828</v>
       </c>
-      <c r="U37" s="177">
+      <c r="U37" s="173">
         <f t="shared" si="7"/>
         <v>5.8404534127871721E-2</v>
       </c>
-      <c r="V37" s="177">
+      <c r="V37" s="173">
         <f t="shared" si="8"/>
         <v>8.5452087554395498E-2</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="175">
+      <c r="A38" s="171">
         <v>44105</v>
       </c>
-      <c r="B38" s="168">
+      <c r="B38" s="164">
         <v>108.860001</v>
       </c>
-      <c r="C38" s="169">
+      <c r="C38" s="165">
         <v>3269.96</v>
       </c>
-      <c r="D38" s="174">
+      <c r="D38" s="170">
         <f t="shared" si="0"/>
         <v>2.4468275466435596E-2</v>
       </c>
-      <c r="E38" s="174">
+      <c r="E38" s="170">
         <f t="shared" si="0"/>
         <v>-3.5461860157981473E-4</v>
       </c>
-      <c r="F38" s="172">
+      <c r="F38" s="168">
         <f t="shared" si="9"/>
         <v>1.5460733405424141</v>
       </c>
-      <c r="G38" s="174">
+      <c r="G38" s="170">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="H38" s="174">
+      <c r="H38" s="170">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="I38" s="174">
+      <c r="I38" s="170">
         <v>6.5062499999999999E-3</v>
       </c>
-      <c r="J38" s="174">
+      <c r="J38" s="170">
         <f t="shared" si="1"/>
         <v>7.9790126341710427E-2</v>
       </c>
-      <c r="K38" s="172">
+      <c r="K38" s="168">
         <v>17001802000</v>
       </c>
-      <c r="L38" s="173">
+      <c r="L38" s="169">
         <f>K38</f>
         <v>17001802000</v>
       </c>
-      <c r="M38" s="176">
+      <c r="M38" s="172">
         <f t="shared" si="3"/>
         <v>1850816182721.802</v>
       </c>
-      <c r="N38" s="172">
+      <c r="N38" s="168">
         <v>98667</v>
       </c>
-      <c r="O38" s="172">
+      <c r="O38" s="168">
         <v>8773</v>
       </c>
-      <c r="P38" s="172">
+      <c r="P38" s="168">
         <v>4996</v>
       </c>
-      <c r="Q38" s="176">
+      <c r="Q38" s="172">
         <f t="shared" si="4"/>
         <v>112436000000</v>
       </c>
-      <c r="R38" s="172">
+      <c r="R38" s="168">
         <v>634</v>
       </c>
-      <c r="S38" s="177">
+      <c r="S38" s="173">
         <f t="shared" si="5"/>
         <v>2.5552314205414636E-2</v>
       </c>
-      <c r="T38" s="177">
+      <c r="T38" s="173">
         <f t="shared" si="6"/>
         <v>0.94272972112827524</v>
       </c>
-      <c r="U38" s="177">
+      <c r="U38" s="173">
         <f t="shared" si="7"/>
         <v>5.7270278871724756E-2</v>
       </c>
-      <c r="V38" s="177">
+      <c r="V38" s="173">
         <f t="shared" si="8"/>
         <v>7.6683911715272543E-2</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="175">
+      <c r="A39" s="171">
         <v>44197</v>
       </c>
-      <c r="B39" s="168">
+      <c r="B39" s="164">
         <v>131.96000699999999</v>
       </c>
-      <c r="C39" s="169">
+      <c r="C39" s="165">
         <v>3714.24</v>
       </c>
-      <c r="D39" s="174">
+      <c r="D39" s="170">
         <f t="shared" si="0"/>
         <v>0.21219920804520287</v>
       </c>
-      <c r="E39" s="174">
+      <c r="E39" s="170">
         <f t="shared" si="0"/>
         <v>0.13586710540801716</v>
       </c>
-      <c r="F39" s="172">
+      <c r="F39" s="168">
         <f t="shared" si="9"/>
         <v>1.7065346606132785</v>
       </c>
-      <c r="G39" s="174">
+      <c r="G39" s="170">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H39" s="174">
+      <c r="H39" s="170">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="I39" s="174">
+      <c r="I39" s="170">
         <v>8.6451612903225804E-3</v>
       </c>
-      <c r="J39" s="174">
+      <c r="J39" s="170">
         <f t="shared" si="1"/>
         <v>8.0319617036080287E-2</v>
       </c>
-      <c r="K39" s="172">
+      <c r="K39" s="168">
         <v>16788096000</v>
       </c>
-      <c r="L39" s="173">
+      <c r="L39" s="169">
         <f>K39</f>
         <v>16788096000</v>
       </c>
-      <c r="M39" s="176">
+      <c r="M39" s="172">
         <f t="shared" si="3"/>
         <v>2215357265676.6719</v>
       </c>
-      <c r="N39" s="179">
+      <c r="N39" s="175">
         <v>99281</v>
       </c>
-      <c r="O39" s="179">
+      <c r="O39" s="175">
         <v>7762</v>
       </c>
-      <c r="P39" s="179">
+      <c r="P39" s="175">
         <v>5000</v>
       </c>
-      <c r="Q39" s="176">
+      <c r="Q39" s="172">
         <f t="shared" si="4"/>
         <v>112043000000</v>
       </c>
-      <c r="R39" s="172">
+      <c r="R39" s="168">
         <v>638</v>
       </c>
-      <c r="S39" s="177">
+      <c r="S39" s="173">
         <f t="shared" si="5"/>
         <v>2.4329944753353622E-2</v>
       </c>
-      <c r="T39" s="177">
+      <c r="T39" s="173">
         <f t="shared" si="6"/>
         <v>0.9518591616352573</v>
       </c>
-      <c r="U39" s="177">
+      <c r="U39" s="173">
         <f t="shared" si="7"/>
         <v>4.81408383647427E-2</v>
       </c>
-      <c r="V39" s="177">
+      <c r="V39" s="173">
         <f t="shared" si="8"/>
         <v>7.7624227272622637E-2</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="180">
+      <c r="A40" s="176">
         <v>44287</v>
       </c>
-      <c r="B40" s="181">
+      <c r="B40" s="177">
         <v>131.46000699999999</v>
       </c>
-      <c r="C40" s="182">
+      <c r="C40" s="178">
         <v>4181.17</v>
       </c>
-      <c r="D40" s="183">
+      <c r="D40" s="179">
         <f t="shared" si="0"/>
         <v>-3.7890267768779795E-3</v>
       </c>
-      <c r="E40" s="183">
+      <c r="E40" s="179">
         <f t="shared" si="0"/>
         <v>0.12571347031963476</v>
       </c>
-      <c r="F40" s="172">
+      <c r="F40" s="168">
         <f t="shared" si="9"/>
         <v>1.3160844710449926</v>
       </c>
-      <c r="G40" s="183">
+      <c r="G40" s="179">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="H40" s="183">
+      <c r="H40" s="179">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="I40" s="183">
+      <c r="I40" s="179">
         <v>1.3359016393442599E-2</v>
       </c>
-      <c r="J40" s="183">
+      <c r="J40" s="179">
         <f t="shared" si="1"/>
         <v>6.7844913494705283E-2</v>
       </c>
-      <c r="K40" s="184">
+      <c r="K40" s="180">
         <v>16687631000</v>
       </c>
-      <c r="L40" s="185">
+      <c r="L40" s="181">
         <f>K40</f>
         <v>16687631000</v>
       </c>
-      <c r="M40" s="186">
+      <c r="M40" s="182">
         <f t="shared" si="3"/>
         <v>2193756088073.4167</v>
       </c>
-      <c r="N40" s="184">
+      <c r="N40" s="180">
         <v>108642</v>
       </c>
-      <c r="O40" s="184">
+      <c r="O40" s="180">
         <v>8003</v>
       </c>
-      <c r="P40" s="184">
+      <c r="P40" s="180">
         <v>5000</v>
       </c>
-      <c r="Q40" s="186">
+      <c r="Q40" s="182">
         <f t="shared" si="4"/>
         <v>121645000000</v>
       </c>
-      <c r="R40" s="184">
+      <c r="R40" s="180">
         <v>670</v>
       </c>
-      <c r="S40" s="187">
+      <c r="S40" s="183">
         <f t="shared" si="5"/>
         <v>2.1694274322824614E-2</v>
       </c>
-      <c r="T40" s="187">
+      <c r="T40" s="183">
         <f t="shared" si="6"/>
         <v>0.9474626661330553</v>
       </c>
-      <c r="U40" s="187">
+      <c r="U40" s="183">
         <f t="shared" si="7"/>
         <v>5.2537333866944702E-2</v>
       </c>
-      <c r="V40" s="187">
+      <c r="V40" s="183">
         <f t="shared" si="8"/>
         <v>6.542028195635928E-2</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="188" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="190"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="190"/>
-      <c r="R41" s="190"/>
-      <c r="S41" s="190"/>
-      <c r="T41" s="190"/>
-      <c r="U41" s="190"/>
-      <c r="V41" s="191">
+      <c r="A41" s="191" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="192"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="184"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="184"/>
+      <c r="K41" s="184"/>
+      <c r="L41" s="184"/>
+      <c r="M41" s="184"/>
+      <c r="N41" s="184"/>
+      <c r="O41" s="184"/>
+      <c r="P41" s="184"/>
+      <c r="Q41" s="184"/>
+      <c r="R41" s="184"/>
+      <c r="S41" s="184"/>
+      <c r="T41" s="184"/>
+      <c r="U41" s="184"/>
+      <c r="V41" s="185">
         <f>AVERAGE(V3:V40)</f>
         <v>6.7380327129735726E-2</v>
       </c>

--- a/Apple DCF Tiny.xlsx
+++ b/Apple DCF Tiny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shecky/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E307FE6-704A-4449-AE87-04B58006AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72229A2-FB7C-CD40-9710-E544BFDDB67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="3360" windowWidth="31320" windowHeight="23600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="3360" windowWidth="31320" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1499,10 +1499,10 @@
                   <c:v>135.43742531677944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>163.78969920446704</c:v>
+                  <c:v>148.10417523621015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.07721504561141</c:v>
+                  <c:v>126.51638971632765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,11 +2217,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$G$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$G$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4202,7 +4202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B9" s="8">
         <f>'FV Calculation'!I10</f>
-        <v>177.07721504561141</v>
+        <v>126.51638971632765</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B10" s="150">
         <f>(B9-B5)/B5</f>
-        <v>0.3904767573271411</v>
+        <v>-6.5458208376312742E-3</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B11" s="151">
         <f>(1+B10)^(1/4.33)-1</f>
-        <v>7.91037902493128E-2</v>
+        <v>-1.5155567737217268E-3</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4354,7 +4354,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4677,7 +4677,7 @@
       <c r="E24" s="94"/>
       <c r="F24" s="94"/>
       <c r="G24" s="97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4690,7 +4690,7 @@
       <c r="E25" s="94"/>
       <c r="F25" s="94"/>
       <c r="G25" s="97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4896,15 +4896,15 @@
       </c>
       <c r="G3" s="17">
         <f>FCF!G10</f>
-        <v>96698847220.394135</v>
+        <v>86156368238.884155</v>
       </c>
       <c r="H3" s="17">
         <f>FCF!H10</f>
-        <v>97947424795.714539</v>
+        <v>65544291423.785416</v>
       </c>
       <c r="I3" s="17">
         <f>H3</f>
-        <v>97947424795.714539</v>
+        <v>65544291423.785416</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4958,15 +4958,15 @@
       </c>
       <c r="G5" s="22">
         <f>G3/G4</f>
-        <v>79517682545.447952</v>
+        <v>70848359994.134598</v>
       </c>
       <c r="H5" s="22">
         <f>H3/H4</f>
-        <v>75459903568.823242</v>
+        <v>50496130149.836212</v>
       </c>
       <c r="I5" s="22">
         <f>(I3*(1+Dashboard!B6))/I4</f>
-        <v>2108604548425.0774</v>
+        <v>1411032411599.8569</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4989,15 +4989,15 @@
       </c>
       <c r="G6" s="25">
         <f>(G3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>2081725267424.3445</v>
+        <v>1854767599282.9729</v>
       </c>
       <c r="H6" s="25">
         <f>(H3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>2108604548425.0774</v>
+        <v>1411032411599.8569</v>
       </c>
       <c r="I6" s="25">
         <f>I5</f>
-        <v>2108604548425.0774</v>
+        <v>1411032411599.8569</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5020,15 +5020,15 @@
       </c>
       <c r="G7" s="17">
         <f>SUM($D5:G5,G6)</f>
-        <v>2398621526024.7314</v>
+        <v>2162994535332.0464</v>
       </c>
       <c r="H7" s="17">
         <f>SUM($D5:H5,H6)</f>
-        <v>2500960710594.2871</v>
+        <v>1769755477798.7666</v>
       </c>
       <c r="I7" s="17">
         <f>SUM($D5:I5)</f>
-        <v>2500960710594.2871</v>
+        <v>1769755477798.7666</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5051,15 +5051,15 @@
       </c>
       <c r="G8" s="17">
         <f>-Financials!H37</f>
-        <v>-39800302609.206253</v>
+        <v>-41908798405.508255</v>
       </c>
       <c r="H8" s="17">
         <f>-Financials!I37</f>
-        <v>-29829630150.063354</v>
+        <v>-38418752620.751175</v>
       </c>
       <c r="I8" s="17">
         <f>H8</f>
-        <v>-29829630150.063354</v>
+        <v>-38418752620.751175</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5082,15 +5082,15 @@
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>2438421828633.9375</v>
+        <v>2204903333737.5547</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>2530790340744.3506</v>
+        <v>1808174230419.5178</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="0"/>
-        <v>2530790340744.3506</v>
+        <v>1808174230419.5178</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5111,15 +5111,15 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>163.78969920446704</v>
+        <v>148.10417523621015</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>177.07721504561141</v>
+        <v>126.51638971632765</v>
       </c>
       <c r="I10" s="27">
         <f t="shared" si="1"/>
-        <v>177.07721504561141</v>
+        <v>126.51638971632765</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B11" s="17">
         <f>SUM(D5:I5)</f>
-        <v>2500960710594.2871</v>
+        <v>1769755477798.7666</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="B12" s="22">
         <f>H8</f>
-        <v>-29829630150.063354</v>
+        <v>-38418752620.751175</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="B13" s="29">
         <f>B11-B12</f>
-        <v>2530790340744.3506</v>
+        <v>1808174230419.5178</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -5431,11 +5431,11 @@
       </c>
       <c r="H4" s="55">
         <f>'Revenue Model'!E11*1000000</f>
-        <v>400544109886.39453</v>
+        <v>376578483649.72717</v>
       </c>
       <c r="I4" s="55">
         <f>'Revenue Model'!F11*1000000</f>
-        <v>394972048477.99615</v>
+        <v>319284594586.96399</v>
       </c>
       <c r="J4" s="14"/>
     </row>
@@ -5489,11 +5489,11 @@
       </c>
       <c r="H6" s="55">
         <f>('Revenue Model'!E11-'Revenue Model'!E12)*1000000</f>
-        <v>248917191189.07245</v>
+        <v>240768878268.60556</v>
       </c>
       <c r="I6" s="55">
         <f>('Revenue Model'!F11-'Revenue Model'!F12)*1000000</f>
-        <v>240749880305.71561</v>
+        <v>213941715145.73343</v>
       </c>
       <c r="J6" s="14"/>
     </row>
@@ -5539,11 +5539,11 @@
       </c>
       <c r="H8" s="64">
         <f t="shared" si="0"/>
-        <v>151626918697.32208</v>
+        <v>135809605381.12161</v>
       </c>
       <c r="I8" s="64">
         <f t="shared" si="0"/>
-        <v>154222168172.28055</v>
+        <v>105342879441.23056</v>
       </c>
       <c r="J8" s="14"/>
     </row>
@@ -5577,11 +5577,11 @@
       </c>
       <c r="H9" s="62">
         <f t="shared" si="1"/>
-        <v>0.37855236153722921</v>
+        <v>0.36064090562179946</v>
       </c>
       <c r="I9" s="62">
         <f t="shared" si="1"/>
-        <v>0.39046349929461466</v>
+        <v>0.32993411278582113</v>
       </c>
       <c r="J9" s="14"/>
     </row>
@@ -5624,11 +5624,11 @@
       </c>
       <c r="H11" s="18">
         <f>'Revenue Model'!E11*Assumptions!$B$17</f>
-        <v>27637.543582161223</v>
+        <v>25983.915371831179</v>
       </c>
       <c r="I11" s="18">
         <f>'Revenue Model'!F11*Assumptions!$B$17</f>
-        <v>27253.071344981738</v>
+        <v>22030.637026500517</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="H12" s="55">
         <f t="shared" si="2"/>
-        <v>27637543582.161224</v>
+        <v>25983915371.831181</v>
       </c>
       <c r="I12" s="55">
         <f t="shared" si="2"/>
-        <v>27253071344.981739</v>
+        <v>22030637026.500519</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="H13" s="68">
         <f t="shared" si="3"/>
-        <v>6.9000000000000006E-2</v>
+        <v>6.900000000000002E-2</v>
       </c>
       <c r="I13" s="68">
         <f t="shared" si="3"/>
@@ -5733,11 +5733,11 @@
       </c>
       <c r="H14" s="69">
         <f>'Revenue Model'!E11*Assumptions!$B$18</f>
-        <v>24433.190703070064</v>
+        <v>22971.287502633357</v>
       </c>
       <c r="I14" s="69">
         <f>'Revenue Model'!F11*Assumptions!$B$18</f>
-        <v>24093.294957157763</v>
+        <v>19476.360269804802</v>
       </c>
       <c r="J14" s="14"/>
     </row>
@@ -5771,11 +5771,11 @@
       </c>
       <c r="H15" s="55">
         <f t="shared" si="4"/>
-        <v>24433190703.070065</v>
+        <v>22971287502.633358</v>
       </c>
       <c r="I15" s="55">
         <f t="shared" si="4"/>
-        <v>24093294957.157764</v>
+        <v>19476360269.804802</v>
       </c>
       <c r="J15" s="14"/>
     </row>
@@ -5867,11 +5867,11 @@
       </c>
       <c r="H18" s="61">
         <f t="shared" si="5"/>
-        <v>2.8715938435001049E-2</v>
+        <v>3.054343383754908E-2</v>
       </c>
       <c r="I18" s="61">
         <f t="shared" si="5"/>
-        <v>2.9121048044595428E-2</v>
+        <v>3.6024287406911465E-2</v>
       </c>
       <c r="J18" s="14"/>
     </row>
@@ -5917,11 +5917,11 @@
       </c>
       <c r="H20" s="64">
         <f t="shared" si="6"/>
-        <v>111058184412.09079</v>
+        <v>98356402506.657074</v>
       </c>
       <c r="I20" s="64">
         <f t="shared" si="6"/>
-        <v>114377801870.14105</v>
+        <v>75337882144.925232</v>
       </c>
       <c r="J20" s="14"/>
     </row>
@@ -5967,11 +5967,11 @@
       </c>
       <c r="H22" s="64">
         <f t="shared" si="7"/>
-        <v>99556184412.09079</v>
+        <v>86854402506.657074</v>
       </c>
       <c r="I22" s="64">
         <f t="shared" si="7"/>
-        <v>102875801870.14105</v>
+        <v>63835882144.925232</v>
       </c>
       <c r="J22" s="14"/>
     </row>
@@ -6099,11 +6099,11 @@
       </c>
       <c r="H27" s="64">
         <f t="shared" si="9"/>
-        <v>99556184412.09079</v>
+        <v>86854402506.657074</v>
       </c>
       <c r="I27" s="64">
         <f t="shared" si="9"/>
-        <v>102875801870.14105</v>
+        <v>63835882144.925232</v>
       </c>
       <c r="J27" s="14"/>
     </row>
@@ -6132,11 +6132,11 @@
       </c>
       <c r="H28" s="76">
         <f>H27*Assumptions!$B$19/1000000</f>
-        <v>16924.551350055433</v>
+        <v>14765.248426131704</v>
       </c>
       <c r="I28" s="76">
         <f>I27*Assumptions!$B$19/1000000</f>
-        <v>17488.886317923982</v>
+        <v>10852.099964637291</v>
       </c>
       <c r="J28" s="14"/>
     </row>
@@ -6170,11 +6170,11 @@
       </c>
       <c r="H29" s="55">
         <f t="shared" si="10"/>
-        <v>16924551350.055433</v>
+        <v>14765248426.131704</v>
       </c>
       <c r="I29" s="55">
         <f t="shared" si="10"/>
-        <v>17488886317.923981</v>
+        <v>10852099964.637291</v>
       </c>
       <c r="J29" s="14"/>
     </row>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="H30" s="154">
         <f t="shared" si="11"/>
-        <v>0.16999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="I30" s="154">
         <f t="shared" si="11"/>
@@ -6272,11 +6272,11 @@
       </c>
       <c r="H33" s="64">
         <f t="shared" si="12"/>
-        <v>82631633062.035355</v>
+        <v>72089154080.525375</v>
       </c>
       <c r="I33" s="64">
         <f t="shared" si="12"/>
-        <v>85386915552.217072</v>
+        <v>52983782180.287941</v>
       </c>
       <c r="J33" s="14"/>
     </row>
@@ -6307,11 +6307,11 @@
       </c>
       <c r="H34" s="72">
         <f>FCF!G10*1.2</f>
-        <v>116038616664.47296</v>
+        <v>103387641886.66098</v>
       </c>
       <c r="I34" s="72">
         <f>FCF!H10*1.2</f>
-        <v>117536909754.85744</v>
+        <v>78653149708.542496</v>
       </c>
       <c r="J34" s="77"/>
     </row>
@@ -6336,11 +6336,11 @@
       </c>
       <c r="H35" s="72">
         <f>FCF!G10+FCF!G8-H34</f>
-        <v>-9792394444.0788269</v>
+        <v>-7683898647.776825</v>
       </c>
       <c r="I35" s="72">
         <f>FCF!H10+FCF!H8-I34</f>
-        <v>-9970672459.1428986</v>
+        <v>-3490045784.7570801</v>
       </c>
       <c r="J35" s="77"/>
     </row>
@@ -6394,11 +6394,11 @@
       </c>
       <c r="H37" s="72">
         <f>G37+H35</f>
-        <v>39800302609.206253</v>
+        <v>41908798405.508255</v>
       </c>
       <c r="I37" s="72">
         <f>H37+I35</f>
-        <v>29829630150.063354</v>
+        <v>38418752620.751175</v>
       </c>
       <c r="J37" s="77"/>
     </row>
@@ -6491,11 +6491,11 @@
       </c>
       <c r="H41" s="76">
         <f>H33/H39</f>
-        <v>5.5503974599779786</v>
+        <v>4.8422552341440248</v>
       </c>
       <c r="I41" s="76">
         <f>I33/I39</f>
-        <v>5.9744487577245611</v>
+        <v>3.7072294927082754</v>
       </c>
       <c r="J41" s="14"/>
     </row>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="F3" s="88">
         <f>IF(Assumptions!G24=FALSE,E3*Assumptions!C3,(E3*Assumptions!C3)*0.85)</f>
-        <v>158660.17878386224</v>
+        <v>134861.15196628289</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="F4" s="91">
         <f>IF(Assumptions!G26=FALSE,IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6),0.85*E4*(1+Assumptions!$B$6)),IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6+0.015),0.85*E4*(1+Assumptions!$B$6+0.015)))</f>
-        <v>86749.885603156421</v>
+        <v>73737.402762682963</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="F8" s="91">
         <f>SUM(F3:F6)</f>
-        <v>287728.06438701868</v>
+        <v>250916.55472896586</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6704,11 +6704,11 @@
       </c>
       <c r="E9" s="91">
         <f>IF(Assumptions!G25=FALSE,D9*(1+Assumptions!$B$8),0.75*D9*(1+Assumptions!$B$8))</f>
-        <v>95862.504946669389</v>
+        <v>71896.878710002042</v>
       </c>
       <c r="F9" s="91">
         <f>IF(Assumptions!G24=FALSE,E9*(1+Assumptions!$B$8),0.85*E9*(1+Assumptions!$B$8))</f>
-        <v>107243.98409097744</v>
+        <v>68368.039857998112</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6737,11 +6737,11 @@
       </c>
       <c r="E11" s="91">
         <f>SUM(E8:E9)</f>
-        <v>400544.10988639452</v>
+        <v>376578.48364972719</v>
       </c>
       <c r="F11" s="91">
         <f>SUM(F8:F9)</f>
-        <v>394972.04847799614</v>
+        <v>319284.594586964</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6762,11 +6762,11 @@
       </c>
       <c r="E12" s="91">
         <f>E8*Assumptions!$B$11+E9*Assumptions!$B$12</f>
-        <v>151626.91869732208</v>
+        <v>135809.60538112163</v>
       </c>
       <c r="F12" s="91">
         <f>IF(Assumptions!G24=FALSE,F8*Assumptions!$B$11+F9*Assumptions!$B$12,F8*Assumptions!$C$11+F9*Assumptions!$C$12)</f>
-        <v>154222.16817228054</v>
+        <v>105342.87944123056</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6787,11 +6787,11 @@
       </c>
       <c r="E13" s="96">
         <f>E12/E11</f>
-        <v>0.37855236153722921</v>
+        <v>0.36064090562179951</v>
       </c>
       <c r="F13" s="96">
         <f>F12/F11</f>
-        <v>0.3904634992946146</v>
+        <v>0.32993411278582113</v>
       </c>
     </row>
   </sheetData>
@@ -7206,11 +7206,11 @@
       </c>
       <c r="G4" s="137">
         <f>Financials!H33</f>
-        <v>82631633062.035355</v>
+        <v>72089154080.525375</v>
       </c>
       <c r="H4" s="137">
         <f>Financials!I33</f>
-        <v>85386915552.217072</v>
+        <v>52983782180.287941</v>
       </c>
       <c r="I4" s="132"/>
     </row>
@@ -7387,11 +7387,11 @@
       </c>
       <c r="G10" s="137">
         <f>G4+G5+G6-G7-G8</f>
-        <v>96698847220.394135</v>
+        <v>86156368238.884155</v>
       </c>
       <c r="H10" s="137">
         <f>H4+H5+H6-H7-H8</f>
-        <v>97947424795.714539</v>
+        <v>65544291423.785416</v>
       </c>
       <c r="I10" s="132"/>
     </row>

--- a/Apple DCF Tiny.xlsx
+++ b/Apple DCF Tiny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shecky/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72229A2-FB7C-CD40-9710-E544BFDDB67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AF88A0-E693-5F4E-BEA3-2574183A2DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="3360" windowWidth="31320" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58700" yWindow="7420" windowWidth="26620" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Revenue Model" sheetId="4" r:id="rId5"/>
     <sheet name="NonCash Working Cap" sheetId="6" r:id="rId6"/>
     <sheet name="FCF" sheetId="7" r:id="rId7"/>
-    <sheet name="WACC" sheetId="8" r:id="rId8"/>
+    <sheet name="WACC" sheetId="9" r:id="rId8"/>
+    <sheet name="2021 Estimate" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
   <si>
     <t>Company</t>
   </si>
@@ -284,12 +285,21 @@
     <t>Growth Rate</t>
   </si>
   <si>
+    <t>2Y CAGR 2019-2021. 2018 is an outlier year with 40% YoY growth.</t>
+  </si>
+  <si>
     <t>Mac and iPad</t>
   </si>
   <si>
     <t>See note</t>
   </si>
   <si>
+    <t>Return to 2019 levels</t>
+  </si>
+  <si>
+    <t>3Y CAGR 2018-2021 minus 2 pp for App Store concessions</t>
+  </si>
+  <si>
     <t>Margins</t>
   </si>
   <si>
@@ -302,6 +312,9 @@
     <t>Products Gross Margin</t>
   </si>
   <si>
+    <t>Guesses based on trends 2018-H1 2021</t>
+  </si>
+  <si>
     <t>Services Gross Margin</t>
   </si>
   <si>
@@ -320,9 +333,6 @@
     <t>Sales/Marketing/General/Admin as a % of Rev</t>
   </si>
   <si>
-    <t>R&amp;D as a % of Rev</t>
-  </si>
-  <si>
     <t>Tax Rate</t>
   </si>
   <si>
@@ -392,9 +402,6 @@
     <t>Fill out the assumptions tab, but don't change the rest</t>
   </si>
   <si>
-    <t>Medium minus 2pp</t>
-  </si>
-  <si>
     <t>Averages</t>
   </si>
   <si>
@@ -446,32 +453,53 @@
     <t>*http://people.stern.nyu.edu/adamodar/</t>
   </si>
   <si>
-    <t>Quarterly Average 2015-2016. See worksheet</t>
-  </si>
-  <si>
     <t>2015-2020 Average</t>
   </si>
   <si>
-    <t>4.33 Year CAGR</t>
-  </si>
-  <si>
-    <t>Medium minus 5pp</t>
-  </si>
-  <si>
-    <t>2019 levels minus 10%</t>
-  </si>
-  <si>
-    <t>Medium minus 5 pp</t>
-  </si>
-  <si>
-    <t>Medium minus 3pp on years 2-3 and just above 2021 in 2024</t>
+    <t>4.25 Year CAGR</t>
+  </si>
+  <si>
+    <t>Based on average of 2015 and 2018 cycles with a little extra for 5G adoption</t>
+  </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
+  <si>
+    <t>Cost of Goods</t>
+  </si>
+  <si>
+    <t>Opex</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Average Diluted Shares</t>
+  </si>
+  <si>
+    <t>Weighted Ave Shares</t>
+  </si>
+  <si>
+    <t>Quarterly Average 2015-2021. See worksheet</t>
+  </si>
+  <si>
+    <t>Medium Assumptions</t>
+  </si>
+  <si>
+    <t>R&amp;D Growth Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,###,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;0.00"/>
@@ -486,6 +514,7 @@
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="#,##0.0#"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00,,&quot;M&quot;"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1049,12 +1078,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1192,7 +1215,12 @@
     <xf numFmtId="174" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1286,7 +1314,8 @@
     <xf numFmtId="10" fontId="22" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1301,13 +1330,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{416BFC1A-1329-1C4B-8EA4-B78F4EF97840}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{08EEDB63-E62A-3544-9C8C-B35593E8B3A2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1388,832 +1415,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FCF Fair Values</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'FV Calculation'!$D$10:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>"$"0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>127.70252587617085</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>114.38495040840726</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135.43742531677944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>148.10417523621015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>126.51638971632765</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A3A-5441-9451-5B5288D5AB94}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="99185664"/>
-        <c:axId val="99541600"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="99185664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="99541600"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="99541600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="99185664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="74000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="83000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="30000"/>
-                <a:lumOff val="70000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2554,47 +1755,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <global>
@@ -2742,40 +1902,40 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>145.09</v>
-    <v>83.144999999999996</v>
-    <v>1.2027000000000001</v>
-    <v>1.24</v>
-    <v>9.8329999999999997E-3</v>
-    <v>0.05</v>
-    <v>3.9260000000000006E-4</v>
+    <v>150</v>
+    <v>93.767499999999998</v>
+    <v>1.2025999999999999</v>
+    <v>0.22</v>
+    <v>1.5110000000000002E-3</v>
+    <v>0.09</v>
+    <v>6.1699999999999993E-4</v>
     <v>USD</v>
-    <v>Apple Inc. designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players. The Company sells a range of related software, services, accessories, networking solutions, and third-party digital content and applications. The Company's segments include the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and the Asian countries not included in the Company's other operating segments. Its products and services include iPhone, iPad, Mac, iPod, Apple Watch, Apple TV, a portfolio of consumer and professional software applications, iPhone OS (iOS), OS X and watchOS operating systems, iCloud, Apple Pay and a range of accessory, service and support offerings.</v>
+    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company’s products include iPhone, Mac, iPad, and Wearables, Home and Accessories. iPhone is the Company’s line of smartphones based on its iOS operating system. Mac is the Company’s line of personal computers based on its macOS operating system. iPad is the Company’s line of multi-purpose tablets based on its iPadOS operating system. Wearables, Home and Accessories includes AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and other Apple-branded and third-party accessories. AirPods are the Company’s wireless headphones that interact with Siri. Apple Watch is the Company’s line of smart watches. Its services include Advertising, AppleCare, Cloud Services, Digital Content and Payment Services. Its customers are primarily in the consumer, small and mid-sized business, education, enterprise and government markets.</v>
     <v>147000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Apple Park Way, CUPERTINO, CA, 95014-0642 US</v>
-    <v>127.44</v>
+    <v>146.33000000000001</v>
     <v>3</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>44358.999905057812</v>
+    <v>44407.99998700156</v>
     <v>4</v>
-    <v>126.1</v>
-    <v>2125169680500</v>
+    <v>144.11000000000001</v>
+    <v>2411090000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>126.53</v>
-    <v>28.298300000000001</v>
-    <v>126.11</v>
-    <v>127.35</v>
-    <v>127.4</v>
-    <v>16687630000</v>
+    <v>144.38</v>
+    <v>28.522600000000001</v>
+    <v>145.63999999999999</v>
+    <v>145.86000000000001</v>
+    <v>145.94999999999999</v>
+    <v>16530170000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>53522373</v>
-    <v>78682983</v>
+    <v>70440626</v>
+    <v>87124432</v>
     <v>1977</v>
   </rv>
   <rv s="4">
@@ -2951,7 +2111,6 @@
       <v>8</v>
       <v>9</v>
       <v>10</v>
-      <v>11</v>
       <v>5</v>
       <v>1</v>
       <v>1</v>
@@ -2994,7 +2153,7 @@
     <k n="Image" t="spb"/>
     <k n="ExchangeID" t="spb"/>
     <k n="UniqueName" t="spb"/>
-    <k n="%ProviderInfo" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
     <k n="LearnMoreOnLink" t="spb"/>
   </s>
   <s>
@@ -3016,7 +2175,6 @@
     <k n="Previous close" t="i"/>
     <k n="Volume average" t="i"/>
     <k n="Last trade time" t="i"/>
-    <k n="`_DisplayString" t="i"/>
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
@@ -3071,7 +2229,6 @@
   <richProperties>
     <rPr n="IsTitleField" t="b"/>
     <rPr n="IsHeroField" t="b"/>
-    <rPr n="ShouldShowInCell" t="b"/>
   </richProperties>
   <richStyles>
     <rSty dxfid="0"/>
@@ -3086,9 +2243,6 @@
     <rSty dxfid="3"/>
     <rSty dxfid="4"/>
     <rSty dxfid="5"/>
-    <rSty>
-      <rpv i="2">1</rpv>
-    </rSty>
     <rSty dxfid="6"/>
     <rSty dxfid="7"/>
   </richStyles>
@@ -4202,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4216,20 +3370,20 @@
     <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="152" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="150" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="187" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="188"/>
       <c r="C1" s="188"/>
       <c r="D1" s="188"/>
     </row>
-    <row r="2" spans="1:4" s="152" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153" t="s">
-        <v>103</v>
+    <row r="2" spans="1:4" s="150" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4258,7 +3412,7 @@
       </c>
       <c r="B5" s="5" cm="1">
         <f t="array" ref="B5">_FV(B4,"Price")</f>
-        <v>127.35</v>
+        <v>145.86000000000001</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4267,7 +3421,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="148">
+      <c r="B6" s="146">
         <f>Assumptions!B15</f>
         <v>0.02</v>
       </c>
@@ -4280,13 +3434,13 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="149">
+      <c r="B7" s="147">
         <f>Assumptions!B16</f>
-        <v>6.7380327129735726E-2</v>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4301,7 +3455,7 @@
       </c>
       <c r="B9" s="8">
         <f>'FV Calculation'!I10</f>
-        <v>126.51638971632765</v>
+        <v>97.707296923599017</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4310,20 +3464,20 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="150">
+      <c r="B10" s="148">
         <f>(B9-B5)/B5</f>
-        <v>-6.5458208376312742E-3</v>
+        <v>-0.33012959739751124</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="151">
-        <f>(1+B10)^(1/4.33)-1</f>
-        <v>-1.5155567737217268E-3</v>
+        <v>126</v>
+      </c>
+      <c r="B11" s="149">
+        <f>(1+B10)^(1/4.25)-1</f>
+        <v>-8.9968015936793155E-2</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4354,20 +3508,20 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" style="97" customWidth="1"/>
-    <col min="2" max="5" width="16.33203125" style="97" customWidth="1"/>
-    <col min="6" max="6" width="81.5" style="97" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="97" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.33203125" style="97"/>
+    <col min="1" max="1" width="45.33203125" style="95" customWidth="1"/>
+    <col min="2" max="5" width="16.33203125" style="95" customWidth="1"/>
+    <col min="6" max="6" width="81.5" style="95" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="95" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.33203125" style="95"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4381,328 +3535,329 @@
       <c r="F1" s="189"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="98" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="99">
+      <c r="B3" s="97">
         <v>1</v>
       </c>
-      <c r="C3" s="100">
-        <v>0.83</v>
-      </c>
-      <c r="D3" s="100">
-        <v>0.83</v>
-      </c>
-      <c r="E3" s="101">
-        <v>1.01</v>
-      </c>
-      <c r="F3" s="102" t="s">
-        <v>129</v>
+      <c r="C3" s="98">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="98">
+        <v>0.85</v>
+      </c>
+      <c r="E3" s="99">
+        <v>1.1056735628430301</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="105">
-        <v>0.21828154953248599</v>
-      </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="106" t="s">
-        <v>126</v>
+      <c r="B6" s="103">
+        <v>0.23</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="104" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="106" t="s">
-        <v>127</v>
+      <c r="B7" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="104" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="105">
-        <v>0.11872712016695</v>
-      </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="106" t="s">
-        <v>128</v>
+      <c r="B8" s="103">
+        <v>0.13</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="104" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="92"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
+      <c r="A10" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="95">
+      <c r="A11" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="93">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C11" s="96">
+      <c r="C11" s="94">
         <v>0.24</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="106" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="93">
+        <v>0.66</v>
+      </c>
+      <c r="C12" s="94">
+        <v>0.64</v>
+      </c>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="107"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+    </row>
+    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="108">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="108">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="108">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="108">
+        <v>0.15</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="108">
+        <v>0.17</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="108">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="104" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="108">
+        <v>0.122</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="90"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="109"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+    </row>
+    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="87" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="95">
-        <v>0.66</v>
-      </c>
-      <c r="C12" s="96">
-        <v>0.66</v>
-      </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="110">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="106" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="110">
-        <f>WACC!V41</f>
-        <v>6.7380327129735726E-2</v>
-      </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="186" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="110">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="106" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="110">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="106" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="110">
-        <v>0.17</v>
-      </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="106" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="110">
-        <v>0.04</v>
-      </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="106" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="110">
-        <v>0.122</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="106" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="92"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-    </row>
-    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-    </row>
-    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="97" t="b">
+      <c r="B24" s="110"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="95" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="97" t="b">
+      <c r="A25" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="95" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="97" t="b">
+      <c r="A26" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="110"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4797,7 +3952,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4884,27 +4039,27 @@
       </c>
       <c r="D3" s="17">
         <f>FCF!D10</f>
-        <v>92613704565.339417</v>
+        <v>103929758814.45561</v>
       </c>
       <c r="E3" s="17">
         <f>FCF!E10</f>
-        <v>75603199855.849335</v>
+        <v>72636882400.105164</v>
       </c>
       <c r="F3" s="17">
         <f>FCF!F10</f>
-        <v>84233360312.385895</v>
+        <v>79668341948.282349</v>
       </c>
       <c r="G3" s="17">
         <f>FCF!G10</f>
-        <v>86156368238.884155</v>
+        <v>82705897160.988373</v>
       </c>
       <c r="H3" s="17">
         <f>FCF!H10</f>
-        <v>65544291423.785416</v>
+        <v>47689338378.649658</v>
       </c>
       <c r="I3" s="17">
         <f>H3</f>
-        <v>65544291423.785416</v>
+        <v>47689338378.649658</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4919,23 +4074,23 @@
       </c>
       <c r="E4" s="18">
         <f>((1+Dashboard!$B$7)^E2)</f>
-        <v>1.0673803271297357</v>
+        <v>1.0673999999999999</v>
       </c>
       <c r="F4" s="18">
         <f>((1+Dashboard!$B$7)^F2)</f>
-        <v>1.1393007627435816</v>
+        <v>1.1393427599999999</v>
       </c>
       <c r="G4" s="18">
         <f>((1+Dashboard!$B$7)^G2)</f>
-        <v>1.2160672208364016</v>
+        <v>1.2161344620239998</v>
       </c>
       <c r="H4" s="18">
         <f>((1+Dashboard!$B$7)^H2)</f>
-        <v>1.2980062279881068</v>
+        <v>1.2981019247644174</v>
       </c>
       <c r="I4" s="19">
         <f>(Dashboard!$B$7-Dashboard!$B$6)</f>
-        <v>4.7380327129735722E-2</v>
+        <v>4.7399999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4946,27 +4101,27 @@
       <c r="C5" s="21"/>
       <c r="D5" s="22">
         <f>D3/D4</f>
-        <v>92613704565.339417</v>
+        <v>103929758814.45561</v>
       </c>
       <c r="E5" s="22">
         <f>E3/E4</f>
-        <v>70830610171.682571</v>
+        <v>68050292673.8853</v>
       </c>
       <c r="F5" s="22">
         <f>F3/F4</f>
-        <v>73934261317.916809</v>
+        <v>69924823982.102066</v>
       </c>
       <c r="G5" s="22">
         <f>G3/G4</f>
-        <v>70848359994.134598</v>
+        <v>68007198006.166046</v>
       </c>
       <c r="H5" s="22">
         <f>H3/H4</f>
-        <v>50496130149.836212</v>
+        <v>36737745679.950691</v>
       </c>
       <c r="I5" s="22">
         <f>(I3*(1+Dashboard!B6))/I4</f>
-        <v>1411032411599.8569</v>
+        <v>1026226268907.6509</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4977,27 +4132,27 @@
       <c r="C6" s="24"/>
       <c r="D6" s="25">
         <f>(D3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1993780633847.9185</v>
+        <v>2236463164361.7031</v>
       </c>
       <c r="E6" s="25">
         <f>(E3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1627579810536.3662</v>
+        <v>1563072152913.6555</v>
       </c>
       <c r="F6" s="25">
         <f>(F3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1813369234099.521</v>
+        <v>1714382041925.0635</v>
       </c>
       <c r="G6" s="25">
         <f>(G3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1854767599282.9729</v>
+        <v>1779747154097.2183</v>
       </c>
       <c r="H6" s="25">
         <f>(H3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1411032411599.8569</v>
+        <v>1026226268907.6509</v>
       </c>
       <c r="I6" s="25">
         <f>I5</f>
-        <v>1411032411599.8569</v>
+        <v>1026226268907.6509</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5008,27 +4163,27 @@
       <c r="C7" s="14"/>
       <c r="D7" s="17">
         <f>D5+D6</f>
-        <v>2086394338413.2578</v>
+        <v>2340392923176.1587</v>
       </c>
       <c r="E7" s="17">
         <f>SUM($D5:E5,E6)</f>
-        <v>1791024125273.3882</v>
+        <v>1735052204401.9963</v>
       </c>
       <c r="F7" s="17">
         <f>SUM($D5:F5,F6)</f>
-        <v>2050747810154.4597</v>
+        <v>1956286917395.5063</v>
       </c>
       <c r="G7" s="17">
         <f>SUM($D5:G5,G6)</f>
-        <v>2162994535332.0464</v>
+        <v>2089659227573.8271</v>
       </c>
       <c r="H7" s="17">
         <f>SUM($D5:H5,H6)</f>
-        <v>1769755477798.7666</v>
+        <v>1372876088064.2104</v>
       </c>
       <c r="I7" s="17">
         <f>SUM($D5:I5)</f>
-        <v>1769755477798.7666</v>
+        <v>1372876088064.2104</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5038,28 +4193,28 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="17">
-        <f>-Financials!E37</f>
-        <v>-62465259086.932114</v>
+        <f>-Financials!E38</f>
+        <v>-70595024118.554428</v>
       </c>
       <c r="E8" s="17">
-        <f>-Financials!F37</f>
-        <v>-56749119115.762253</v>
+        <f>-Financials!F38</f>
+        <v>-72735835878.5439</v>
       </c>
       <c r="F8" s="17">
-        <f>-Financials!G37</f>
-        <v>-49592697053.28508</v>
+        <f>-Financials!G38</f>
+        <v>-74459251683.715652</v>
       </c>
       <c r="G8" s="17">
-        <f>-Financials!H37</f>
-        <v>-41908798405.508255</v>
+        <f>-Financials!H38</f>
+        <v>-75736036967.616806</v>
       </c>
       <c r="H8" s="17">
-        <f>-Financials!I37</f>
-        <v>-38418752620.751175</v>
+        <f>-Financials!I38</f>
+        <v>-80585915629.751831</v>
       </c>
       <c r="I8" s="17">
         <f>H8</f>
-        <v>-38418752620.751175</v>
+        <v>-80585915629.751831</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5070,27 +4225,27 @@
       <c r="C9" s="14"/>
       <c r="D9" s="17">
         <f t="shared" ref="D9:I9" si="0">D7-D8</f>
-        <v>2148859597500.1899</v>
+        <v>2410987947294.7129</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>1847773244389.1504</v>
+        <v>1807788040280.5403</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>2100340507207.7449</v>
+        <v>2030746169079.2219</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>2204903333737.5547</v>
+        <v>2165395264541.4438</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>1808174230419.5178</v>
+        <v>1453462003693.9624</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="0"/>
-        <v>1808174230419.5178</v>
+        <v>1453462003693.9624</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5099,27 +4254,27 @@
       <c r="C10" s="14"/>
       <c r="D10" s="27">
         <f t="shared" ref="D10:I10" si="1">D9/D20</f>
-        <v>127.70252587617085</v>
+        <v>144.07720492976651</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>114.38495040840726</v>
+        <v>111.25729951801357</v>
       </c>
       <c r="F10" s="27">
         <f t="shared" si="1"/>
-        <v>135.43742531677944</v>
+        <v>128.71151972914058</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>148.10417523621015</v>
+        <v>141.34476506669466</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>126.51638971632765</v>
+        <v>97.707296923599017</v>
       </c>
       <c r="I10" s="27">
         <f t="shared" si="1"/>
-        <v>126.51638971632765</v>
+        <v>97.707296923599017</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5128,7 +4283,7 @@
       </c>
       <c r="B11" s="17">
         <f>SUM(D5:I5)</f>
-        <v>1769755477798.7666</v>
+        <v>1372876088064.2104</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -5143,8 +4298,8 @@
         <v>16</v>
       </c>
       <c r="B12" s="22">
-        <f>H8</f>
-        <v>-38418752620.751175</v>
+        <f>I8</f>
+        <v>-80585915629.751831</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -5160,7 +4315,7 @@
       </c>
       <c r="B13" s="29">
         <f>B11-B12</f>
-        <v>1808174230419.5178</v>
+        <v>1453462003693.9624</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -5198,7 +4353,7 @@
       </c>
       <c r="B16" s="31">
         <f>Assumptions!B16</f>
-        <v>6.7380327129735726E-2</v>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -5243,39 +4398,39 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="B20" s="34">
-        <f>Financials!C39*1000000</f>
+        <f>Financials!C40*1000000</f>
         <v>18595700000</v>
       </c>
       <c r="C20" s="34">
-        <f>Financials!D39*1000000</f>
+        <f>Financials!D40*1000000</f>
         <v>17528200000</v>
       </c>
       <c r="D20" s="34">
-        <f>Financials!E39</f>
-        <v>16827072000</v>
+        <f>Financials!E40</f>
+        <v>16734000000</v>
       </c>
       <c r="E20" s="34">
-        <f>Financials!F39</f>
-        <v>16153989120</v>
+        <f>Financials!F40</f>
+        <v>16248714000</v>
       </c>
       <c r="F20" s="34">
-        <f>Financials!G39</f>
-        <v>15507829555.199999</v>
+        <f>Financials!G40</f>
+        <v>15777501294</v>
       </c>
       <c r="G20" s="34">
-        <f>Financials!H39</f>
-        <v>14887516372.991999</v>
+        <f>Financials!H40</f>
+        <v>15319953756.473999</v>
       </c>
       <c r="H20" s="34">
-        <f>Financials!I39</f>
-        <v>14292015718.072319</v>
+        <f>Financials!I40</f>
+        <v>14875675097.536253</v>
       </c>
       <c r="I20" s="34">
         <f>H20</f>
-        <v>14292015718.072319</v>
+        <v>14875675097.536253</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5307,16 +4462,15 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I30"/>
+      <selection activeCell="E43" sqref="E43:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5351,53 +4505,53 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
-      <c r="B2" s="45">
+      <c r="B2" s="11">
         <v>2018</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="11">
         <v>2019</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="11">
         <v>2020</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="153">
         <v>2021</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="153">
         <v>2022</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="153">
         <v>2023</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="153">
         <v>2024</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="153">
         <v>2025</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="47">
         <v>265595</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="48">
         <v>260174</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="48">
         <v>274515</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="49">
         <v>358624.99791904603</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5405,145 +4559,145 @@
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="52">
         <f>B3*1000000</f>
         <v>265595000000</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="52">
         <f>C3*1000000</f>
         <v>260174000000</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="52">
         <f>D3*1000000</f>
         <v>274515000000</v>
       </c>
-      <c r="E4" s="55">
-        <f>'Revenue Model'!B11*1000000</f>
-        <v>360144807111.13776</v>
-      </c>
-      <c r="F4" s="55">
+      <c r="E4" s="53">
+        <f>'2021 Estimate'!B1*1000000</f>
+        <v>366849962131.995</v>
+      </c>
+      <c r="F4" s="53">
         <f>'Revenue Model'!C11*1000000</f>
-        <v>323978496448.96063</v>
-      </c>
-      <c r="G4" s="55">
+        <v>337138011761.5379</v>
+      </c>
+      <c r="G4" s="53">
         <f>'Revenue Model'!D11*1000000</f>
-        <v>343544721441.88635</v>
-      </c>
-      <c r="H4" s="55">
+        <v>358452197155.9104</v>
+      </c>
+      <c r="H4" s="53">
         <f>'Revenue Model'!E11*1000000</f>
-        <v>376578483649.72717</v>
-      </c>
-      <c r="I4" s="55">
+        <v>408234990887.20374</v>
+      </c>
+      <c r="I4" s="53">
         <f>'Revenue Model'!F11*1000000</f>
-        <v>319284594586.96399</v>
+        <v>322347704999.79736</v>
       </c>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="55">
         <v>163756</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="55">
         <v>161782</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="55">
         <v>169559</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="52">
         <f>B5*1000000</f>
         <v>163756000000</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="52">
         <f>C5*1000000</f>
         <v>161782000000</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="52">
         <f>D5*1000000</f>
         <v>169559000000</v>
       </c>
-      <c r="E6" s="55">
-        <f>('Revenue Model'!B11-'Revenue Model'!B12)*1000000</f>
-        <v>216086884266.68268</v>
-      </c>
-      <c r="F6" s="55">
+      <c r="E6" s="53">
+        <f>'2021 Estimate'!B2*1000000</f>
+        <v>213320953225.897</v>
+      </c>
+      <c r="F6" s="53">
         <f>('Revenue Model'!C11-'Revenue Model'!C12)*1000000</f>
-        <v>201684581177.17621</v>
-      </c>
-      <c r="G6" s="55">
+        <v>210739677622.22992</v>
+      </c>
+      <c r="G6" s="53">
         <f>('Revenue Model'!D11-'Revenue Model'!D12)*1000000</f>
-        <v>212211856373.02054</v>
-      </c>
-      <c r="H6" s="55">
+        <v>222151068857.53433</v>
+      </c>
+      <c r="H6" s="53">
         <f>('Revenue Model'!E11-'Revenue Model'!E12)*1000000</f>
-        <v>240768878268.60556</v>
-      </c>
-      <c r="I6" s="55">
+        <v>262430226053.03476</v>
+      </c>
+      <c r="I6" s="53">
         <f>('Revenue Model'!F11-'Revenue Model'!F12)*1000000</f>
-        <v>213941715145.73343</v>
+        <v>218190069638.65744</v>
       </c>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="61">
         <f t="shared" ref="B8:I8" si="0">B4-B6</f>
         <v>101839000000</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="61">
         <f t="shared" si="0"/>
         <v>98392000000</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="61">
         <f t="shared" si="0"/>
         <v>104956000000</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="62">
         <f t="shared" si="0"/>
-        <v>144057922844.45508</v>
-      </c>
-      <c r="F8" s="64">
+        <v>153529008906.09799</v>
+      </c>
+      <c r="F8" s="62">
         <f t="shared" si="0"/>
-        <v>122293915271.78442</v>
-      </c>
-      <c r="G8" s="64">
+        <v>126398334139.30798</v>
+      </c>
+      <c r="G8" s="62">
         <f t="shared" si="0"/>
-        <v>131332865068.86581</v>
-      </c>
-      <c r="H8" s="64">
+        <v>136301128298.37607</v>
+      </c>
+      <c r="H8" s="62">
         <f t="shared" si="0"/>
-        <v>135809605381.12161</v>
-      </c>
-      <c r="I8" s="64">
+        <v>145804764834.16898</v>
+      </c>
+      <c r="I8" s="62">
         <f t="shared" si="0"/>
-        <v>105342879441.23056</v>
+        <v>104157635361.13992</v>
       </c>
       <c r="J8" s="14"/>
     </row>
@@ -5551,53 +4705,53 @@
       <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="63">
         <f t="shared" ref="B9:I9" si="1">B8/B4</f>
         <v>0.38343718820007905</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="64">
         <f t="shared" si="1"/>
         <v>0.37817768109034722</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="64">
         <f t="shared" si="1"/>
         <v>0.38233247727810865</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="60">
         <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="F9" s="62">
+        <v>0.41850626892216297</v>
+      </c>
+      <c r="F9" s="60">
         <f t="shared" si="1"/>
-        <v>0.37747540843671556</v>
-      </c>
-      <c r="G9" s="62">
+        <v>0.37491570137368896</v>
+      </c>
+      <c r="G9" s="60">
         <f t="shared" si="1"/>
-        <v>0.38228753600885101</v>
-      </c>
-      <c r="H9" s="62">
+        <v>0.38024910819305502</v>
+      </c>
+      <c r="H9" s="60">
         <f t="shared" si="1"/>
-        <v>0.36064090562179946</v>
-      </c>
-      <c r="I9" s="62">
+        <v>0.35715891113913645</v>
+      </c>
+      <c r="I9" s="60">
         <f t="shared" si="1"/>
-        <v>0.32993411278582113</v>
+        <v>0.32312200070171243</v>
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
+    <row r="10" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="58"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
@@ -5611,24 +4765,23 @@
         <v>19916</v>
       </c>
       <c r="E11" s="18">
-        <f>'Revenue Model'!B11*Assumptions!$B$17</f>
-        <v>24849.99169066851</v>
+        <v>22000</v>
       </c>
       <c r="F11" s="18">
         <f>'Revenue Model'!C11*Assumptions!$B$17</f>
-        <v>22354.516254978284</v>
+        <v>24611.074858592267</v>
       </c>
       <c r="G11" s="18">
         <f>'Revenue Model'!D11*Assumptions!$B$17</f>
-        <v>23704.58577949016</v>
+        <v>26167.01039238146</v>
       </c>
       <c r="H11" s="18">
         <f>'Revenue Model'!E11*Assumptions!$B$17</f>
-        <v>25983.915371831179</v>
+        <v>29801.15433476587</v>
       </c>
       <c r="I11" s="18">
         <f>'Revenue Model'!F11*Assumptions!$B$17</f>
-        <v>22030.637026500517</v>
+        <v>23531.382464985203</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -5636,37 +4789,37 @@
       <c r="A12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="52">
         <f t="shared" ref="B12:I12" si="2">B11*1000000</f>
         <v>16705000000</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="52">
         <f t="shared" si="2"/>
         <v>18245000000</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="52">
         <f t="shared" si="2"/>
         <v>19916000000</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
+        <f>'2021 Estimate'!B4/2*1000000</f>
+        <v>21899500000</v>
+      </c>
+      <c r="F12" s="53">
+        <f>F11*1000000</f>
+        <v>24611074858.592266</v>
+      </c>
+      <c r="G12" s="53">
         <f t="shared" si="2"/>
-        <v>24849991690.66851</v>
-      </c>
-      <c r="F12" s="55">
+        <v>26167010392.381462</v>
+      </c>
+      <c r="H12" s="53">
         <f t="shared" si="2"/>
-        <v>22354516254.978283</v>
-      </c>
-      <c r="G12" s="55">
+        <v>29801154334.765869</v>
+      </c>
+      <c r="I12" s="53">
         <f t="shared" si="2"/>
-        <v>23704585779.490162</v>
-      </c>
-      <c r="H12" s="55">
-        <f t="shared" si="2"/>
-        <v>25983915371.831181</v>
-      </c>
-      <c r="I12" s="55">
-        <f t="shared" si="2"/>
-        <v>22030637026.500519</v>
+        <v>23531382464.985203</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -5674,70 +4827,70 @@
       <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="65">
         <f t="shared" ref="B13:I13" si="3">B12/B4</f>
         <v>6.2896515371147807E-2</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="65">
         <f t="shared" si="3"/>
         <v>7.0126146348213125E-2</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="65">
         <f t="shared" si="3"/>
         <v>7.2549769593646979E-2</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="65">
         <f t="shared" si="3"/>
-        <v>6.900000000000002E-2</v>
-      </c>
-      <c r="F13" s="68">
+        <v>5.9696067222491406E-2</v>
+      </c>
+      <c r="F13" s="66">
         <f t="shared" si="3"/>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="G13" s="68">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G13" s="66">
         <f t="shared" si="3"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="H13" s="68">
+        <v>7.3000000000000009E-2</v>
+      </c>
+      <c r="H13" s="66">
         <f t="shared" si="3"/>
-        <v>6.900000000000002E-2</v>
-      </c>
-      <c r="I13" s="68">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I13" s="66">
         <f t="shared" si="3"/>
-        <v>6.9000000000000006E-2</v>
+        <v>7.2999999999999982E-2</v>
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="69">
+    <row r="14" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58"/>
+      <c r="B14" s="67">
         <v>14236</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="67">
         <v>16217</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="67">
         <v>18752</v>
       </c>
-      <c r="E14" s="69">
-        <f>'Revenue Model'!B11*Assumptions!$B$18</f>
-        <v>21968.833233779405</v>
-      </c>
-      <c r="F14" s="69">
-        <f>'Revenue Model'!C11*Assumptions!$B$18</f>
-        <v>19762.688283386597</v>
-      </c>
-      <c r="G14" s="69">
-        <f>'Revenue Model'!D11*Assumptions!$B$18</f>
-        <v>20956.228007955066</v>
-      </c>
-      <c r="H14" s="69">
-        <f>'Revenue Model'!E11*Assumptions!$B$18</f>
-        <v>22971.287502633357</v>
-      </c>
-      <c r="I14" s="69">
-        <f>'Revenue Model'!F11*Assumptions!$B$18</f>
-        <v>19476.360269804802</v>
+      <c r="E14" s="67">
+        <f>'2021 Estimate'!B4/2</f>
+        <v>21899.5</v>
+      </c>
+      <c r="F14" s="67">
+        <f>E14*(1+Assumptions!$B$18)</f>
+        <v>25184.424999999999</v>
+      </c>
+      <c r="G14" s="67">
+        <f>F14*(1+Assumptions!$B$18)</f>
+        <v>28962.088749999995</v>
+      </c>
+      <c r="H14" s="67">
+        <f>G14*(1+Assumptions!$B$18)</f>
+        <v>33306.40206249999</v>
+      </c>
+      <c r="I14" s="67">
+        <f>H14*(1+Assumptions!$B$18)</f>
+        <v>38302.362371874988</v>
       </c>
       <c r="J14" s="14"/>
     </row>
@@ -5745,99 +4898,99 @@
       <c r="A15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="52">
         <f t="shared" ref="B15:I15" si="4">B14*1000000</f>
         <v>14236000000</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="52">
         <f t="shared" si="4"/>
         <v>16217000000</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="52">
         <f t="shared" si="4"/>
         <v>18752000000</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="53">
+        <f>'2021 Estimate'!B4/2*1000000</f>
+        <v>21899500000</v>
+      </c>
+      <c r="F15" s="53">
         <f t="shared" si="4"/>
-        <v>21968833233.779404</v>
-      </c>
-      <c r="F15" s="55">
+        <v>25184425000</v>
+      </c>
+      <c r="G15" s="53">
         <f t="shared" si="4"/>
-        <v>19762688283.386597</v>
-      </c>
-      <c r="G15" s="55">
+        <v>28962088749.999996</v>
+      </c>
+      <c r="H15" s="53">
         <f t="shared" si="4"/>
-        <v>20956228007.955067</v>
-      </c>
-      <c r="H15" s="55">
+        <v>33306402062.499989</v>
+      </c>
+      <c r="I15" s="53">
         <f t="shared" si="4"/>
-        <v>22971287502.633358</v>
-      </c>
-      <c r="I15" s="55">
-        <f t="shared" si="4"/>
-        <v>19476360269.804802</v>
+        <v>38302362371.874985</v>
       </c>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="69">
+      <c r="A16" s="58"/>
+      <c r="B16" s="67">
         <v>10903</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="67">
         <v>12547</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="67">
         <v>11056</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="52">
         <f>B16*1000000</f>
         <v>10903000000</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="52">
         <f>C16*1000000</f>
         <v>12547000000</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="52">
         <f>D16*1000000</f>
         <v>11056000000</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="53">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="53">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="53">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="53">
         <f>AVERAGE($B17:$D17)</f>
         <v>11502000000</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="68" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
@@ -5853,138 +5006,138 @@
         <f t="shared" si="5"/>
         <v>4.0274666229532081E-2</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="59">
         <f t="shared" si="5"/>
-        <v>3.1937153536273473E-2</v>
-      </c>
-      <c r="F18" s="61">
+        <v>3.1353417438439057E-2</v>
+      </c>
+      <c r="F18" s="59">
         <f t="shared" si="5"/>
-        <v>3.5502356255338749E-2</v>
-      </c>
-      <c r="G18" s="61">
+        <v>3.4116592014950584E-2</v>
+      </c>
+      <c r="G18" s="59">
         <f t="shared" si="5"/>
-        <v>3.3480357234787747E-2</v>
-      </c>
-      <c r="H18" s="61">
+        <v>3.2087960657686113E-2</v>
+      </c>
+      <c r="H18" s="59">
         <f t="shared" si="5"/>
-        <v>3.054343383754908E-2</v>
-      </c>
-      <c r="I18" s="61">
+        <v>2.8174948881777823E-2</v>
+      </c>
+      <c r="I18" s="59">
         <f t="shared" si="5"/>
-        <v>3.6024287406911465E-2</v>
+        <v>3.5681966465395593E-2</v>
       </c>
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="61">
         <f t="shared" ref="B20:I20" si="6">B8-B12-B15+B17</f>
         <v>81801000000</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="61">
         <f t="shared" si="6"/>
         <v>76477000000</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="61">
         <f t="shared" si="6"/>
         <v>77344000000</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="62">
+        <f>E8-E12-E15+E17</f>
+        <v>121232008906.09799</v>
+      </c>
+      <c r="F20" s="62">
         <f t="shared" si="6"/>
-        <v>108741097920.00716</v>
-      </c>
-      <c r="F20" s="64">
+        <v>88104834280.715714</v>
+      </c>
+      <c r="G20" s="62">
         <f t="shared" si="6"/>
-        <v>91678710733.41954</v>
-      </c>
-      <c r="G20" s="64">
+        <v>92674029155.994598</v>
+      </c>
+      <c r="H20" s="62">
         <f t="shared" si="6"/>
-        <v>98174051281.420593</v>
-      </c>
-      <c r="H20" s="64">
+        <v>94199208436.903122</v>
+      </c>
+      <c r="I20" s="62">
         <f t="shared" si="6"/>
-        <v>98356402506.657074</v>
-      </c>
-      <c r="I20" s="64">
-        <f t="shared" si="6"/>
-        <v>75337882144.925232</v>
+        <v>53825890524.279739</v>
       </c>
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="61">
         <f t="shared" ref="B22:I22" si="7">B20-B17</f>
         <v>70898000000</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="61">
         <f t="shared" si="7"/>
         <v>63930000000</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="61">
         <f t="shared" si="7"/>
         <v>66288000000</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="62">
+        <f>E20-E17</f>
+        <v>109730008906.09799</v>
+      </c>
+      <c r="F22" s="62">
         <f t="shared" si="7"/>
-        <v>97239097920.007156</v>
-      </c>
-      <c r="F22" s="64">
+        <v>76602834280.715714</v>
+      </c>
+      <c r="G22" s="62">
         <f t="shared" si="7"/>
-        <v>80176710733.41954</v>
-      </c>
-      <c r="G22" s="64">
+        <v>81172029155.994598</v>
+      </c>
+      <c r="H22" s="62">
         <f t="shared" si="7"/>
-        <v>86672051281.420593</v>
-      </c>
-      <c r="H22" s="64">
+        <v>82697208436.903122</v>
+      </c>
+      <c r="I22" s="62">
         <f t="shared" si="7"/>
-        <v>86854402506.657074</v>
-      </c>
-      <c r="I22" s="64">
-        <f t="shared" si="7"/>
-        <v>63835882144.925232</v>
+        <v>42323890524.279739</v>
       </c>
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6000,19 +5153,19 @@
       <c r="D24" s="18">
         <v>721</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="71">
         <v>0</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="71">
         <v>0</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="71">
         <v>0</v>
       </c>
-      <c r="H24" s="73">
+      <c r="H24" s="71">
         <v>0</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="71">
         <v>0</v>
       </c>
       <c r="J24" s="14"/>
@@ -6021,122 +5174,122 @@
       <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="52">
         <f t="shared" ref="B25:I25" si="8">B24*1000000</f>
         <v>2005000000</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="52">
         <f t="shared" si="8"/>
         <v>1838000000</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="52">
         <f t="shared" si="8"/>
         <v>721000000</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="68" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="63">
-        <f t="shared" ref="B27:I27" si="9">B22+B25</f>
+      <c r="B27" s="61">
+        <f t="shared" ref="B27:D27" si="9">B22+B25</f>
         <v>72903000000</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="61">
         <f t="shared" si="9"/>
         <v>65768000000</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="61">
         <f t="shared" si="9"/>
         <v>67009000000</v>
       </c>
-      <c r="E27" s="64">
-        <f t="shared" si="9"/>
-        <v>97239097920.007156</v>
-      </c>
-      <c r="F27" s="64">
-        <f t="shared" si="9"/>
-        <v>80176710733.41954</v>
-      </c>
-      <c r="G27" s="64">
-        <f t="shared" si="9"/>
-        <v>86672051281.420593</v>
-      </c>
-      <c r="H27" s="64">
-        <f t="shared" si="9"/>
-        <v>86854402506.657074</v>
-      </c>
-      <c r="I27" s="64">
-        <f t="shared" si="9"/>
-        <v>63835882144.925232</v>
+      <c r="E27" s="62">
+        <f>E8-E12-E15+E25</f>
+        <v>109730008906.09799</v>
+      </c>
+      <c r="F27" s="62">
+        <f t="shared" ref="F27:I27" si="10">F8-F12-F15+F25</f>
+        <v>76602834280.715714</v>
+      </c>
+      <c r="G27" s="62">
+        <f t="shared" si="10"/>
+        <v>81172029155.994598</v>
+      </c>
+      <c r="H27" s="62">
+        <f t="shared" si="10"/>
+        <v>82697208436.903122</v>
+      </c>
+      <c r="I27" s="62">
+        <f t="shared" si="10"/>
+        <v>42323890524.279739</v>
       </c>
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
-      <c r="B28" s="74">
+      <c r="A28" s="58"/>
+      <c r="B28" s="72">
         <v>13372</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="72">
         <v>10481</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="72">
         <v>9680</v>
       </c>
-      <c r="E28" s="75">
+      <c r="E28" s="73">
         <f>E27*0.15/1000000</f>
-        <v>14585.864688001075</v>
-      </c>
-      <c r="F28" s="76">
+        <v>16459.501335914698</v>
+      </c>
+      <c r="F28" s="74">
         <f>F27*Assumptions!$B$19/1000000</f>
-        <v>13630.040824681322</v>
-      </c>
-      <c r="G28" s="76">
+        <v>13022.481827721673</v>
+      </c>
+      <c r="G28" s="74">
         <f>G27*Assumptions!$B$19/1000000</f>
-        <v>14734.248717841501</v>
-      </c>
-      <c r="H28" s="76">
+        <v>13799.244956519084</v>
+      </c>
+      <c r="H28" s="74">
         <f>H27*Assumptions!$B$19/1000000</f>
-        <v>14765.248426131704</v>
-      </c>
-      <c r="I28" s="76">
+        <v>14058.525434273532</v>
+      </c>
+      <c r="I28" s="74">
         <f>I27*Assumptions!$B$19/1000000</f>
-        <v>10852.099964637291</v>
+        <v>7195.0613891275561</v>
       </c>
       <c r="J28" s="14"/>
     </row>
@@ -6144,37 +5297,37 @@
       <c r="A29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="54">
-        <f t="shared" ref="B29:I29" si="10">B28*1000000</f>
+      <c r="B29" s="52">
+        <f t="shared" ref="B29:I29" si="11">B28*1000000</f>
         <v>13372000000</v>
       </c>
-      <c r="C29" s="54">
-        <f t="shared" si="10"/>
+      <c r="C29" s="52">
+        <f t="shared" si="11"/>
         <v>10481000000</v>
       </c>
-      <c r="D29" s="54">
-        <f t="shared" si="10"/>
+      <c r="D29" s="52">
+        <f t="shared" si="11"/>
         <v>9680000000</v>
       </c>
-      <c r="E29" s="55">
-        <f t="shared" si="10"/>
-        <v>14585864688.001074</v>
-      </c>
-      <c r="F29" s="55">
-        <f t="shared" si="10"/>
-        <v>13630040824.681322</v>
-      </c>
-      <c r="G29" s="55">
-        <f t="shared" si="10"/>
-        <v>14734248717.841501</v>
-      </c>
-      <c r="H29" s="55">
-        <f t="shared" si="10"/>
-        <v>14765248426.131704</v>
-      </c>
-      <c r="I29" s="55">
-        <f t="shared" si="10"/>
-        <v>10852099964.637291</v>
+      <c r="E29" s="53">
+        <f>'2021 Estimate'!B7*1000000</f>
+        <v>15760721424.9757</v>
+      </c>
+      <c r="F29" s="53">
+        <f t="shared" si="11"/>
+        <v>13022481827.721672</v>
+      </c>
+      <c r="G29" s="53">
+        <f t="shared" si="11"/>
+        <v>13799244956.519083</v>
+      </c>
+      <c r="H29" s="53">
+        <f t="shared" si="11"/>
+        <v>14058525434.273531</v>
+      </c>
+      <c r="I29" s="53">
+        <f t="shared" si="11"/>
+        <v>7195061389.1275558</v>
       </c>
       <c r="J29" s="14"/>
     </row>
@@ -6182,101 +5335,101 @@
       <c r="A30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="82">
-        <f t="shared" ref="B30:I30" si="11">IF(B27&gt;0,B29/B27,0)</f>
+      <c r="B30" s="19">
+        <f t="shared" ref="B30:I30" si="12">IF(B27&gt;0,B29/B27,0)</f>
         <v>0.18342180705869443</v>
       </c>
-      <c r="C30" s="82">
-        <f t="shared" si="11"/>
+      <c r="C30" s="19">
+        <f t="shared" si="12"/>
         <v>0.1593632161537526</v>
       </c>
-      <c r="D30" s="82">
-        <f t="shared" si="11"/>
+      <c r="D30" s="19">
+        <f t="shared" si="12"/>
         <v>0.14445820710650809</v>
       </c>
-      <c r="E30" s="154">
-        <f t="shared" si="11"/>
-        <v>0.15</v>
-      </c>
-      <c r="F30" s="154">
-        <f t="shared" si="11"/>
+      <c r="E30" s="59">
+        <f t="shared" si="12"/>
+        <v>0.14363182489543966</v>
+      </c>
+      <c r="F30" s="59">
+        <f t="shared" si="12"/>
         <v>0.17</v>
       </c>
-      <c r="G30" s="154">
-        <f t="shared" si="11"/>
+      <c r="G30" s="59">
+        <f t="shared" si="12"/>
         <v>0.17</v>
       </c>
-      <c r="H30" s="154">
-        <f t="shared" si="11"/>
+      <c r="H30" s="59">
+        <f t="shared" si="12"/>
         <v>0.17</v>
       </c>
-      <c r="I30" s="154">
-        <f t="shared" si="11"/>
+      <c r="I30" s="59">
+        <f t="shared" si="12"/>
         <v>0.17</v>
       </c>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="63">
-        <f t="shared" ref="B33:I33" si="12">B27-B29</f>
+      <c r="B33" s="61">
+        <f t="shared" ref="B33:I33" si="13">B27-B29</f>
         <v>59531000000</v>
       </c>
-      <c r="C33" s="63">
-        <f t="shared" si="12"/>
+      <c r="C33" s="61">
+        <f t="shared" si="13"/>
         <v>55287000000</v>
       </c>
-      <c r="D33" s="63">
-        <f t="shared" si="12"/>
+      <c r="D33" s="61">
+        <f t="shared" si="13"/>
         <v>57329000000</v>
       </c>
-      <c r="E33" s="64">
-        <f t="shared" si="12"/>
-        <v>82653233232.006088</v>
-      </c>
-      <c r="F33" s="64">
-        <f t="shared" si="12"/>
-        <v>66546669908.73822</v>
-      </c>
-      <c r="G33" s="64">
-        <f t="shared" si="12"/>
-        <v>71937802563.579086</v>
-      </c>
-      <c r="H33" s="64">
-        <f t="shared" si="12"/>
-        <v>72089154080.525375</v>
-      </c>
-      <c r="I33" s="64">
-        <f t="shared" si="12"/>
-        <v>52983782180.287941</v>
+      <c r="E33" s="62">
+        <f>E27-E29</f>
+        <v>93969287481.122284</v>
+      </c>
+      <c r="F33" s="62">
+        <f t="shared" si="13"/>
+        <v>63580352452.994041</v>
+      </c>
+      <c r="G33" s="62">
+        <f t="shared" si="13"/>
+        <v>67372784199.475517</v>
+      </c>
+      <c r="H33" s="62">
+        <f t="shared" si="13"/>
+        <v>68638683002.629593</v>
+      </c>
+      <c r="I33" s="62">
+        <f t="shared" si="13"/>
+        <v>35128829135.152184</v>
       </c>
       <c r="J33" s="14"/>
     </row>
@@ -6293,211 +5446,269 @@
       <c r="D34" s="17">
         <v>75992000000</v>
       </c>
-      <c r="E34" s="72">
-        <f>FCF!D10*1.2</f>
-        <v>111136445478.4073</v>
-      </c>
-      <c r="F34" s="72">
-        <f>FCF!E10*1.2</f>
-        <v>90723839827.019196</v>
-      </c>
-      <c r="G34" s="72">
-        <f>FCF!F10*1.2</f>
-        <v>101080032374.86307</v>
-      </c>
-      <c r="H34" s="72">
-        <f>FCF!G10*1.2</f>
-        <v>103387641886.66098</v>
-      </c>
-      <c r="I34" s="72">
-        <f>FCF!H10*1.2</f>
-        <v>78653149708.542496</v>
-      </c>
-      <c r="J34" s="77"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="E34" s="70">
+        <f>FCF!D10*1.1</f>
+        <v>114322734695.90118</v>
+      </c>
+      <c r="F34" s="70">
+        <f>FCF!E10*1.1</f>
+        <v>79900570640.115692</v>
+      </c>
+      <c r="G34" s="70">
+        <f>FCF!F10*1.1</f>
+        <v>87635176143.110596</v>
+      </c>
+      <c r="H34" s="70">
+        <f>FCF!G10*1.1</f>
+        <v>90976486877.087219</v>
+      </c>
+      <c r="I34" s="70">
+        <f>FCF!H10*1.1</f>
+        <v>52458272216.514626</v>
+      </c>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="1:10" s="136" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="72">
+      <c r="E35" s="70"/>
+      <c r="F35" s="186">
+        <f>F34/'FV Calculation'!E10</f>
+        <v>718160255.42826581</v>
+      </c>
+      <c r="G35" s="186">
+        <f>G34/'FV Calculation'!F10</f>
+        <v>680865056.42641246</v>
+      </c>
+      <c r="H35" s="186">
+        <f>H34/'FV Calculation'!G10</f>
+        <v>643649496.56366289</v>
+      </c>
+      <c r="I35" s="186">
+        <f>I34/'FV Calculation'!H10</f>
+        <v>536892063.01074636</v>
+      </c>
+      <c r="J35" s="75"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="70">
         <f>FCF!D10+FCF!D8-E34</f>
-        <v>-8546740913.0678864</v>
-      </c>
-      <c r="F35" s="72">
+        <v>-416975881.4455719</v>
+      </c>
+      <c r="F36" s="70">
         <f>FCF!E10+FCF!E8-F34</f>
-        <v>-5716139971.1698608</v>
-      </c>
-      <c r="G35" s="72">
+        <v>2140811759.9894714</v>
+      </c>
+      <c r="G36" s="70">
         <f>FCF!F10+FCF!F8-G34</f>
-        <v>-7156422062.4771729</v>
-      </c>
-      <c r="H35" s="72">
+        <v>1723415805.1717529</v>
+      </c>
+      <c r="H36" s="70">
         <f>FCF!G10+FCF!G8-H34</f>
-        <v>-7683898647.776825</v>
-      </c>
-      <c r="I35" s="72">
+        <v>1276785283.9011536</v>
+      </c>
+      <c r="I36" s="70">
         <f>FCF!H10+FCF!H8-I34</f>
-        <v>-3490045784.7570801</v>
-      </c>
-      <c r="J35" s="77"/>
-    </row>
-    <row r="36" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+        <v>4849878662.1350327</v>
+      </c>
+      <c r="J36" s="75"/>
+    </row>
+    <row r="37" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B37" s="76">
         <v>122617</v>
       </c>
-      <c r="C36" s="78">
+      <c r="C37" s="76">
         <v>97851</v>
       </c>
-      <c r="D36" s="78">
+      <c r="D37" s="76">
         <v>71012</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="77"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="75"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="17">
-        <f>B36*1000000</f>
+      <c r="B38" s="17">
+        <f>B37*1000000</f>
         <v>122617000000</v>
       </c>
-      <c r="C37" s="17">
-        <f>C36*1000000</f>
+      <c r="C38" s="17">
+        <f>C37*1000000</f>
         <v>97851000000</v>
       </c>
-      <c r="D37" s="17">
-        <f>D36*1000000</f>
+      <c r="D38" s="17">
+        <f>D37*1000000</f>
         <v>71012000000</v>
       </c>
-      <c r="E37" s="72">
-        <f>D37+E35</f>
-        <v>62465259086.932114</v>
-      </c>
-      <c r="F37" s="72">
-        <f>E37+F35</f>
-        <v>56749119115.762253</v>
-      </c>
-      <c r="G37" s="72">
-        <f>F37+G35</f>
-        <v>49592697053.28508</v>
-      </c>
-      <c r="H37" s="72">
-        <f>G37+H35</f>
-        <v>41908798405.508255</v>
-      </c>
-      <c r="I37" s="72">
-        <f>H37+I35</f>
-        <v>38418752620.751175</v>
-      </c>
-      <c r="J37" s="77"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="14"/>
+      <c r="E38" s="70">
+        <f>D38+E36</f>
+        <v>70595024118.554428</v>
+      </c>
+      <c r="F38" s="70">
+        <f>E38+F36</f>
+        <v>72735835878.5439</v>
+      </c>
+      <c r="G38" s="70">
+        <f>F38+G36</f>
+        <v>74459251683.715652</v>
+      </c>
+      <c r="H38" s="70">
+        <f>G38+H36</f>
+        <v>75736036967.616806</v>
+      </c>
+      <c r="I38" s="70">
+        <f>H38+I36</f>
+        <v>80585915629.751831</v>
+      </c>
+      <c r="J38" s="75"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="80">
+      <c r="B40" s="78">
         <v>20000.400000000001</v>
       </c>
-      <c r="C39" s="80">
+      <c r="C40" s="78">
         <v>18595.7</v>
       </c>
-      <c r="D39" s="80">
+      <c r="D40" s="78">
         <v>17528.2</v>
       </c>
-      <c r="E39" s="81">
-        <f>D39*(1-Assumptions!$B$20)*1000000</f>
-        <v>16827072000</v>
-      </c>
-      <c r="F39" s="81">
-        <f>E39*(1-Assumptions!$B$20)</f>
-        <v>16153989120</v>
-      </c>
-      <c r="G39" s="81">
-        <f>F39*(1-Assumptions!$B$20)</f>
-        <v>15507829555.199999</v>
-      </c>
-      <c r="H39" s="81">
-        <f>G39*(1-Assumptions!$B$20)</f>
-        <v>14887516372.991999</v>
-      </c>
-      <c r="I39" s="81">
-        <f>H39*(1-Assumptions!$B$20)</f>
-        <v>14292015718.072319</v>
-      </c>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
+      <c r="E40" s="79">
+        <f>'2021 Estimate'!B9*1000000</f>
+        <v>16734000000</v>
+      </c>
+      <c r="F40" s="79">
+        <f>E40*(1-Assumptions!$B$20)</f>
+        <v>16248714000</v>
+      </c>
+      <c r="G40" s="79">
+        <f>F40*(1-Assumptions!$B$20)</f>
+        <v>15777501294</v>
+      </c>
+      <c r="H40" s="79">
+        <f>G40*(1-Assumptions!$B$20)</f>
+        <v>15319953756.473999</v>
+      </c>
+      <c r="I40" s="79">
+        <f>H40*(1-Assumptions!$B$20)</f>
+        <v>14875675097.536253</v>
+      </c>
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="58"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="27">
-        <f>B33/B39/1000000</f>
+      <c r="B42" s="27">
+        <f>B33/B40/1000000</f>
         <v>2.9764904701905959</v>
       </c>
-      <c r="C41" s="27">
-        <f>C33/C39/1000000</f>
+      <c r="C42" s="27">
+        <f>C33/C40/1000000</f>
         <v>2.9731066859542796</v>
       </c>
-      <c r="D41" s="27">
-        <f>D33/D39/1000000</f>
+      <c r="D42" s="27">
+        <f>D33/D40/1000000</f>
         <v>3.2706724021861913</v>
       </c>
-      <c r="E41" s="76">
-        <f>E33/E39</f>
-        <v>4.9119201030343298</v>
-      </c>
-      <c r="F41" s="76">
-        <f>F33/F39</f>
-        <v>4.1195192973324364</v>
-      </c>
-      <c r="G41" s="76">
-        <f>G33/G39</f>
-        <v>4.6388053407162513</v>
-      </c>
-      <c r="H41" s="76">
-        <f>H33/H39</f>
-        <v>4.8422552341440248</v>
-      </c>
-      <c r="I41" s="76">
-        <f>I33/I39</f>
-        <v>3.7072294927082754</v>
-      </c>
-      <c r="J41" s="14"/>
+      <c r="E42" s="74">
+        <f>'2021 Estimate'!B10</f>
+        <v>5.6217958419507799</v>
+      </c>
+      <c r="F42" s="74">
+        <f>F33/F40</f>
+        <v>3.9129467386153785</v>
+      </c>
+      <c r="G42" s="74">
+        <f>G33/G40</f>
+        <v>4.2701808698375201</v>
+      </c>
+      <c r="H42" s="74">
+        <f>H33/H40</f>
+        <v>4.4803453126367199</v>
+      </c>
+      <c r="I42" s="74">
+        <f>I33/I40</f>
+        <v>2.3614947829137725</v>
+      </c>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="193">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C43" s="193">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D43" s="193">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E43" s="71">
+        <f>'FV Calculation'!D10/Financials!E42</f>
+        <v>25.628323934255729</v>
+      </c>
+      <c r="F43" s="71">
+        <f>'FV Calculation'!E10/Financials!F42</f>
+        <v>28.43312392168739</v>
+      </c>
+      <c r="G43" s="71">
+        <f>'FV Calculation'!F10/Financials!G42</f>
+        <v>30.141936290871453</v>
+      </c>
+      <c r="H43" s="71">
+        <f>'FV Calculation'!G10/Financials!H42</f>
+        <v>31.547739114669291</v>
+      </c>
+      <c r="I43" s="71">
+        <f>'FV Calculation'!H10/Financials!I42</f>
+        <v>41.37519067606879</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6521,13 +5732,13 @@
       <selection activeCell="E37" sqref="E37"/>
       <selection pane="topRight" activeCell="E37" sqref="E37"/>
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C5:F6"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="16.33203125" style="83" customWidth="1"/>
-    <col min="8" max="16384" width="16.33203125" style="83"/>
+    <col min="1" max="7" width="16.33203125" style="81" customWidth="1"/>
+    <col min="8" max="16384" width="16.33203125" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6541,257 +5752,250 @@
       <c r="F1" s="190"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83">
         <v>2021</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="83">
         <v>2022</v>
       </c>
-      <c r="D2" s="85">
+      <c r="D2" s="83">
         <v>2023</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="83">
         <v>2024</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="83">
         <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="87">
-        <v>189264.19990917601</v>
-      </c>
-      <c r="C3" s="88">
+      <c r="B3" s="85">
+        <v>192713.94390188501</v>
+      </c>
+      <c r="C3" s="86">
         <f>$B3*Assumptions!C3</f>
-        <v>157089.28592461607</v>
-      </c>
-      <c r="D3" s="88">
+        <v>163806.85231660225</v>
+      </c>
+      <c r="D3" s="86">
         <f>$B3*Assumptions!D3</f>
-        <v>157089.28592461607</v>
-      </c>
-      <c r="E3" s="88">
+        <v>163806.85231660225</v>
+      </c>
+      <c r="E3" s="86">
         <f>$B3*Assumptions!E3</f>
-        <v>191156.84190826776</v>
-      </c>
-      <c r="F3" s="88">
-        <f>IF(Assumptions!G24=FALSE,E3*Assumptions!C3,(E3*Assumptions!C3)*0.85)</f>
-        <v>134861.15196628289</v>
+        <v>213078.71296352902</v>
+      </c>
+      <c r="F3" s="86">
+        <f>IF(Assumptions!G24=FALSE,E3*Assumptions!C3,(E3*Assumptions!C3)*0.8)</f>
+        <v>144893.52481519975</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="90">
-        <v>39380.229492070903</v>
-      </c>
-      <c r="C4" s="91">
+      <c r="B4" s="88">
+        <v>39786.460703502897</v>
+      </c>
+      <c r="C4" s="89">
         <f>B4*(1+Assumptions!$B$6)</f>
-        <v>47976.207006545039</v>
-      </c>
-      <c r="D4" s="91">
+        <v>48937.346665308563</v>
+      </c>
+      <c r="D4" s="89">
         <f>C4*(1+Assumptions!$B$6)</f>
-        <v>58448.527812624998</v>
-      </c>
-      <c r="E4" s="91">
+        <v>60192.936398329533</v>
+      </c>
+      <c r="E4" s="89">
         <f>D4*(1+Assumptions!$B$6)</f>
-        <v>71206.763031457376</v>
-      </c>
-      <c r="F4" s="91">
-        <f>IF(Assumptions!G26=FALSE,IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6),0.85*E4*(1+Assumptions!$B$6)),IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6+0.015),0.85*E4*(1+Assumptions!$B$6+0.015)))</f>
-        <v>73737.402762682963</v>
+        <v>74037.311769945329</v>
+      </c>
+      <c r="F4" s="89">
+        <f>IF(Assumptions!G26=FALSE,IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6),0.8*E4*(1+Assumptions!$B$6)),IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6+0.015),0.8*E4*(1+Assumptions!$B$6+0.015)))</f>
+        <v>72852.714781626215</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="193">
-        <v>33601.389420749198</v>
-      </c>
-      <c r="C5" s="91">
-        <f>25740*0.9</f>
-        <v>23166</v>
-      </c>
-      <c r="D5" s="91">
-        <f t="shared" ref="D5:F5" si="0">25740*0.9</f>
-        <v>23166</v>
-      </c>
-      <c r="E5" s="91">
-        <f t="shared" si="0"/>
-        <v>23166</v>
-      </c>
-      <c r="F5" s="91">
-        <f t="shared" si="0"/>
-        <v>23166</v>
+      <c r="B5" s="152">
+        <v>35754.823048646002</v>
+      </c>
+      <c r="C5" s="89">
+        <v>25740</v>
+      </c>
+      <c r="D5" s="89">
+        <v>25740</v>
+      </c>
+      <c r="E5" s="89">
+        <v>25740</v>
+      </c>
+      <c r="F5" s="89">
+        <f>IF(Assumptions!G24=FALSE,E5,E5*0.8)</f>
+        <v>20592</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="193">
-        <v>29432.7804561099</v>
-      </c>
-      <c r="C6" s="91">
-        <f>21280*0.9</f>
-        <v>19152</v>
-      </c>
-      <c r="D6" s="91">
-        <f t="shared" ref="D6:F6" si="1">21280*0.9</f>
-        <v>19152</v>
-      </c>
-      <c r="E6" s="91">
-        <f t="shared" si="1"/>
-        <v>19152</v>
-      </c>
-      <c r="F6" s="91">
-        <f t="shared" si="1"/>
-        <v>19152</v>
+      <c r="B6" s="152">
+        <v>30122.333788025699</v>
+      </c>
+      <c r="C6" s="89">
+        <v>21280</v>
+      </c>
+      <c r="D6" s="89">
+        <v>21280</v>
+      </c>
+      <c r="E6" s="89">
+        <v>21280</v>
+      </c>
+      <c r="F6" s="89">
+        <f>IF(Assumptions!G24=FALSE,E6,E6*0.8)</f>
+        <v>17024</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="92"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="88">
         <f>SUM(B3:B6)</f>
-        <v>291678.599278106</v>
-      </c>
-      <c r="C8" s="91">
+        <v>298377.56144205964</v>
+      </c>
+      <c r="C8" s="89">
         <f>SUM(C3:C6)</f>
-        <v>247383.4929311611</v>
-      </c>
-      <c r="D8" s="91">
+        <v>259764.19898191083</v>
+      </c>
+      <c r="D8" s="89">
         <f>SUM(D3:D6)</f>
-        <v>257855.81373724106</v>
-      </c>
-      <c r="E8" s="91">
+        <v>271019.78871493181</v>
+      </c>
+      <c r="E8" s="89">
         <f>SUM(E3:E6)</f>
-        <v>304681.60493972513</v>
-      </c>
-      <c r="F8" s="91">
+        <v>334136.02473347436</v>
+      </c>
+      <c r="F8" s="89">
         <f>SUM(F3:F6)</f>
-        <v>250916.55472896586</v>
+        <v>255362.23959682597</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="90">
-        <v>68466.207833031804</v>
-      </c>
-      <c r="C9" s="91">
+      <c r="B9" s="88">
+        <v>68472.400689935501</v>
+      </c>
+      <c r="C9" s="89">
         <f>B9*(1+Assumptions!$B$8)</f>
-        <v>76595.003517799545</v>
-      </c>
-      <c r="D9" s="91">
+        <v>77373.812779627115</v>
+      </c>
+      <c r="D9" s="89">
         <f>C9*(1+Assumptions!$B$8)</f>
-        <v>85688.907704645288</v>
-      </c>
-      <c r="E9" s="91">
+        <v>87432.40844097863</v>
+      </c>
+      <c r="E9" s="89">
         <f>IF(Assumptions!G25=FALSE,D9*(1+Assumptions!$B$8),0.75*D9*(1+Assumptions!$B$8))</f>
-        <v>71896.878710002042</v>
-      </c>
-      <c r="F9" s="91">
-        <f>IF(Assumptions!G24=FALSE,E9*(1+Assumptions!$B$8),0.85*E9*(1+Assumptions!$B$8))</f>
-        <v>68368.039857998112</v>
+        <v>74098.966153729387</v>
+      </c>
+      <c r="F9" s="89">
+        <f>IF(Assumptions!G24=FALSE,E9*(1+Assumptions!$B$8),0.8*E9*(1+Assumptions!$B$8))</f>
+        <v>66985.465402971357</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="88">
         <f>SUM(B8:B9)</f>
-        <v>360144.80711113778</v>
-      </c>
-      <c r="C11" s="91">
+        <v>366849.96213199513</v>
+      </c>
+      <c r="C11" s="89">
         <f>SUM(C8:C9)</f>
-        <v>323978.49644896062</v>
-      </c>
-      <c r="D11" s="91">
+        <v>337138.01176153793</v>
+      </c>
+      <c r="D11" s="89">
         <f>SUM(D8:D9)</f>
-        <v>343544.72144188633</v>
-      </c>
-      <c r="E11" s="91">
+        <v>358452.19715591043</v>
+      </c>
+      <c r="E11" s="89">
         <f>SUM(E8:E9)</f>
-        <v>376578.48364972719</v>
-      </c>
-      <c r="F11" s="91">
+        <v>408234.99088720372</v>
+      </c>
+      <c r="F11" s="89">
         <f>SUM(F8:F9)</f>
-        <v>319284.594586964</v>
+        <v>322347.70499979734</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="90">
-        <f>B11*0.4</f>
-        <v>144057.92284445511</v>
-      </c>
-      <c r="C12" s="91">
+      <c r="B12" s="88">
+        <v>153529.008906098</v>
+      </c>
+      <c r="C12" s="89">
         <f>C8*Assumptions!$B$11+C9*Assumptions!$B$12</f>
-        <v>122293.91527178441</v>
-      </c>
-      <c r="D12" s="91">
+        <v>126398.33413930802</v>
+      </c>
+      <c r="D12" s="89">
         <f>D8*Assumptions!$B$11+D9*Assumptions!$B$12</f>
-        <v>131332.86506886579</v>
-      </c>
-      <c r="E12" s="91">
+        <v>136301.1282983761</v>
+      </c>
+      <c r="E12" s="89">
         <f>E8*Assumptions!$B$11+E9*Assumptions!$B$12</f>
-        <v>135809.60538112163</v>
-      </c>
-      <c r="F12" s="91">
+        <v>145804.76483416895</v>
+      </c>
+      <c r="F12" s="89">
         <f>IF(Assumptions!G24=FALSE,F8*Assumptions!$B$11+F9*Assumptions!$B$12,F8*Assumptions!$C$11+F9*Assumptions!$C$12)</f>
-        <v>105342.87944123056</v>
+        <v>104157.6353611399</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="95">
+      <c r="B13" s="93">
         <f>B12/B11</f>
-        <v>0.4</v>
-      </c>
-      <c r="C13" s="96">
+        <v>0.41850626892216281</v>
+      </c>
+      <c r="C13" s="94">
         <f>C12/C11</f>
-        <v>0.37747540843671556</v>
-      </c>
-      <c r="D13" s="96">
+        <v>0.37491570137368907</v>
+      </c>
+      <c r="D13" s="94">
         <f>D12/D11</f>
-        <v>0.38228753600885096</v>
-      </c>
-      <c r="E13" s="96">
+        <v>0.38024910819305513</v>
+      </c>
+      <c r="E13" s="94">
         <f>E12/E11</f>
-        <v>0.36064090562179951</v>
-      </c>
-      <c r="F13" s="96">
+        <v>0.35715891113913639</v>
+      </c>
+      <c r="F13" s="94">
         <f>F12/F11</f>
-        <v>0.32993411278582113</v>
+        <v>0.32312200070171238</v>
       </c>
     </row>
   </sheetData>
@@ -6820,278 +6024,278 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="113" customWidth="1"/>
-    <col min="2" max="2" width="10" style="113" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="113" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="113" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="113" customWidth="1"/>
-    <col min="7" max="9" width="9.1640625" style="113" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="113" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="113" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="113"/>
+    <col min="1" max="1" width="38.33203125" style="111" customWidth="1"/>
+    <col min="2" max="2" width="10" style="111" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="111" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="111" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="111" customWidth="1"/>
+    <col min="7" max="9" width="9.1640625" style="111" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="111" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="111" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114"/>
-      <c r="B1" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117" t="s">
+      <c r="A1" s="112"/>
+      <c r="B1" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121">
+      <c r="A2" s="118"/>
+      <c r="B2" s="119">
         <f>Financials!B2</f>
         <v>2018</v>
       </c>
-      <c r="C2" s="121">
+      <c r="C2" s="119">
         <f>Financials!C2</f>
         <v>2019</v>
       </c>
-      <c r="D2" s="121">
+      <c r="D2" s="119">
         <f>Financials!D2</f>
         <v>2020</v>
       </c>
-      <c r="E2" s="122">
+      <c r="E2" s="120">
         <f>Financials!E2</f>
         <v>2021</v>
       </c>
-      <c r="F2" s="122">
+      <c r="F2" s="120">
         <f>Financials!F2</f>
         <v>2022</v>
       </c>
-      <c r="G2" s="122">
+      <c r="G2" s="120">
         <f>Financials!G2</f>
         <v>2023</v>
       </c>
-      <c r="H2" s="122">
+      <c r="H2" s="120">
         <f>Financials!H2</f>
         <v>2024</v>
       </c>
-      <c r="I2" s="122">
+      <c r="I2" s="120">
         <f>Financials!I2</f>
         <v>2025</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="121" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="123"/>
     </row>
     <row r="4" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="128">
+      <c r="A4" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="126">
         <v>48995</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="126">
         <v>45804</v>
       </c>
-      <c r="D4" s="128">
+      <c r="D4" s="126">
         <v>37445</v>
       </c>
-      <c r="E4" s="129">
+      <c r="E4" s="127">
         <f>AVERAGE(B4:D4)</f>
         <v>44081.333333333336</v>
       </c>
-      <c r="F4" s="129">
+      <c r="F4" s="127">
         <f>AVERAGE(C4:E4)</f>
         <v>42443.444444444445</v>
       </c>
-      <c r="G4" s="129">
+      <c r="G4" s="127">
         <f>AVERAGE(D4:F4)</f>
         <v>41323.259259259263</v>
       </c>
-      <c r="H4" s="129">
+      <c r="H4" s="127">
         <f>AVERAGE(E4:G4)</f>
         <v>42616.012345679017</v>
       </c>
-      <c r="I4" s="129">
+      <c r="I4" s="127">
         <f>AVERAGE(F4:H4)</f>
         <v>42127.572016460908</v>
       </c>
-      <c r="J4" s="130" t="s">
-        <v>93</v>
+      <c r="J4" s="128" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="128">
+      <c r="A5" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="126">
         <v>3956</v>
       </c>
-      <c r="C5" s="128">
+      <c r="C5" s="126">
         <v>4106</v>
       </c>
-      <c r="D5" s="128">
+      <c r="D5" s="126">
         <v>4061</v>
       </c>
-      <c r="E5" s="129">
+      <c r="E5" s="127">
         <f t="shared" ref="E5:I6" si="0">AVERAGE(A5:D5)</f>
         <v>4041</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="127">
         <f t="shared" si="0"/>
         <v>4041</v>
       </c>
-      <c r="G5" s="129">
+      <c r="G5" s="127">
         <f t="shared" si="0"/>
         <v>4062.25</v>
       </c>
-      <c r="H5" s="129">
+      <c r="H5" s="127">
         <f t="shared" si="0"/>
         <v>4051.3125</v>
       </c>
-      <c r="I5" s="129">
+      <c r="I5" s="127">
         <f t="shared" si="0"/>
         <v>4048.890625</v>
       </c>
-      <c r="J5" s="130" t="s">
-        <v>93</v>
+      <c r="J5" s="128" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="128">
+      <c r="A6" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="126">
         <v>55888</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="126">
         <v>46236</v>
       </c>
-      <c r="D6" s="128">
+      <c r="D6" s="126">
         <v>42296</v>
       </c>
-      <c r="E6" s="129">
+      <c r="E6" s="127">
         <f t="shared" si="0"/>
         <v>48140</v>
       </c>
-      <c r="F6" s="129">
+      <c r="F6" s="127">
         <f t="shared" si="0"/>
         <v>48140</v>
       </c>
-      <c r="G6" s="129">
+      <c r="G6" s="127">
         <f t="shared" si="0"/>
         <v>46203</v>
       </c>
-      <c r="H6" s="129">
+      <c r="H6" s="127">
         <f t="shared" si="0"/>
         <v>46194.75</v>
       </c>
-      <c r="I6" s="129">
+      <c r="I6" s="127">
         <f t="shared" si="0"/>
         <v>47169.4375</v>
       </c>
-      <c r="J6" s="130" t="s">
-        <v>93</v>
+      <c r="J6" s="128" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="128">
+      <c r="A7" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="126">
         <f t="shared" ref="B7:I7" si="1">SUM(B4:B5)-B6</f>
         <v>-2937</v>
       </c>
-      <c r="C7" s="128">
+      <c r="C7" s="126">
         <f t="shared" si="1"/>
         <v>3674</v>
       </c>
-      <c r="D7" s="128">
+      <c r="D7" s="126">
         <f t="shared" si="1"/>
         <v>-790</v>
       </c>
-      <c r="E7" s="129">
+      <c r="E7" s="127">
         <f t="shared" si="1"/>
         <v>-17.666666666664241</v>
       </c>
-      <c r="F7" s="129">
+      <c r="F7" s="127">
         <f t="shared" si="1"/>
         <v>-1655.5555555555547</v>
       </c>
-      <c r="G7" s="129">
+      <c r="G7" s="127">
         <f t="shared" si="1"/>
         <v>-817.49074074073724</v>
       </c>
-      <c r="H7" s="129">
+      <c r="H7" s="127">
         <f t="shared" si="1"/>
         <v>472.57484567901702</v>
       </c>
-      <c r="I7" s="129">
+      <c r="I7" s="127">
         <f t="shared" si="1"/>
         <v>-992.97485853909166</v>
       </c>
-      <c r="J7" s="132"/>
+      <c r="J7" s="130"/>
     </row>
     <row r="8" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="132"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="130"/>
     </row>
     <row r="9" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="136">
+      <c r="A9" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="132"/>
+      <c r="C9" s="134">
         <f t="shared" ref="C9:I9" si="2">(B$7-C$7)*1000000</f>
         <v>-6611000000</v>
       </c>
-      <c r="D9" s="136">
+      <c r="D9" s="134">
         <f t="shared" si="2"/>
         <v>4464000000</v>
       </c>
-      <c r="E9" s="137">
+      <c r="E9" s="135">
         <f t="shared" si="2"/>
         <v>-772333333.33333576</v>
       </c>
-      <c r="F9" s="137">
+      <c r="F9" s="135">
         <f t="shared" si="2"/>
         <v>1637888888.8888905</v>
       </c>
-      <c r="G9" s="137">
+      <c r="G9" s="135">
         <f t="shared" si="2"/>
         <v>-838064814.81481755</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H9" s="135">
         <f t="shared" si="2"/>
         <v>-1290065586.4197543</v>
       </c>
-      <c r="I9" s="137">
+      <c r="I9" s="135">
         <f t="shared" si="2"/>
         <v>1465549704.2181087</v>
       </c>
-      <c r="J9" s="132"/>
+      <c r="J9" s="130"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7113,298 +6317,298 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="138" customWidth="1"/>
-    <col min="2" max="8" width="9.1640625" style="138" customWidth="1"/>
-    <col min="9" max="9" width="35.5" style="138" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="138" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="138"/>
+    <col min="1" max="1" width="36.33203125" style="136" customWidth="1"/>
+    <col min="2" max="8" width="9.1640625" style="136" customWidth="1"/>
+    <col min="9" max="9" width="35.5" style="136" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="136" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="136"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139"/>
-      <c r="B1" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="117" t="s">
+      <c r="A1" s="137"/>
+      <c r="B1" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="142">
+      <c r="A2" s="118"/>
+      <c r="B2" s="140">
         <f>Financials!C2</f>
         <v>2019</v>
       </c>
-      <c r="C2" s="142">
+      <c r="C2" s="140">
         <f>Financials!D2</f>
         <v>2020</v>
       </c>
-      <c r="D2" s="143">
+      <c r="D2" s="141">
         <f>Financials!E2</f>
         <v>2021</v>
       </c>
-      <c r="E2" s="143">
+      <c r="E2" s="141">
         <f>Financials!F2</f>
         <v>2022</v>
       </c>
-      <c r="F2" s="143">
+      <c r="F2" s="141">
         <f>Financials!G2</f>
         <v>2023</v>
       </c>
-      <c r="G2" s="143">
+      <c r="G2" s="141">
         <f>Financials!H2</f>
         <v>2024</v>
       </c>
-      <c r="H2" s="143">
+      <c r="H2" s="141">
         <f>Financials!I2</f>
         <v>2025</v>
       </c>
-      <c r="I2" s="144" t="s">
+      <c r="I2" s="142" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="125"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="146" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="136">
+      <c r="A4" s="144" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="134">
         <f>Financials!C33</f>
         <v>55287000000</v>
       </c>
-      <c r="C4" s="136">
+      <c r="C4" s="134">
         <f>Financials!D33</f>
         <v>57329000000</v>
       </c>
-      <c r="D4" s="137">
+      <c r="D4" s="135">
         <f>Financials!E33</f>
-        <v>82653233232.006088</v>
-      </c>
-      <c r="E4" s="137">
+        <v>93969287481.122284</v>
+      </c>
+      <c r="E4" s="135">
         <f>Financials!F33</f>
-        <v>66546669908.73822</v>
-      </c>
-      <c r="F4" s="137">
+        <v>63580352452.994041</v>
+      </c>
+      <c r="F4" s="135">
         <f>Financials!G33</f>
-        <v>71937802563.579086</v>
-      </c>
-      <c r="G4" s="137">
+        <v>67372784199.475517</v>
+      </c>
+      <c r="G4" s="135">
         <f>Financials!H33</f>
-        <v>72089154080.525375</v>
-      </c>
-      <c r="H4" s="137">
+        <v>68638683002.629593</v>
+      </c>
+      <c r="H4" s="135">
         <f>Financials!I33</f>
-        <v>52983782180.287941</v>
-      </c>
-      <c r="I4" s="132"/>
+        <v>35128829135.152184</v>
+      </c>
+      <c r="I4" s="130"/>
     </row>
     <row r="5" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="136">
+      <c r="B5" s="134">
         <f>Financials!C17</f>
         <v>12547000000</v>
       </c>
-      <c r="C5" s="136">
+      <c r="C5" s="134">
         <f>Financials!D17</f>
         <v>11056000000</v>
       </c>
-      <c r="D5" s="137">
+      <c r="D5" s="135">
         <f>Financials!E17</f>
         <v>11502000000</v>
       </c>
-      <c r="E5" s="137">
+      <c r="E5" s="135">
         <f>Financials!F17</f>
         <v>11502000000</v>
       </c>
-      <c r="F5" s="137">
+      <c r="F5" s="135">
         <f>Financials!G17</f>
         <v>11502000000</v>
       </c>
-      <c r="G5" s="137">
+      <c r="G5" s="135">
         <f>Financials!H17</f>
         <v>11502000000</v>
       </c>
-      <c r="H5" s="137">
+      <c r="H5" s="135">
         <f>Financials!I17</f>
         <v>11502000000</v>
       </c>
-      <c r="I5" s="130" t="s">
+      <c r="I5" s="128" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="128">
+      <c r="A6" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="126">
         <v>6068</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="126">
         <v>6829</v>
       </c>
-      <c r="D6" s="137">
+      <c r="D6" s="135">
         <f>C6*(1+Assumptions!$B$21)*1000000</f>
         <v>7662137999.999999</v>
       </c>
-      <c r="E6" s="137">
+      <c r="E6" s="135">
         <f>D6*(1+Assumptions!$B$21)</f>
         <v>8596918835.9999981</v>
       </c>
-      <c r="F6" s="137">
+      <c r="F6" s="135">
         <f>E6*(1+Assumptions!$B$21)</f>
         <v>9645742933.9919968</v>
       </c>
-      <c r="G6" s="137">
+      <c r="G6" s="135">
         <f>F6*(1+Assumptions!$B$21)</f>
         <v>10822523571.93902</v>
       </c>
-      <c r="H6" s="137">
+      <c r="H6" s="135">
         <f>G6*(1+Assumptions!$B$21)</f>
         <v>12142871447.71558</v>
       </c>
-      <c r="I6" s="132"/>
+      <c r="I6" s="130"/>
     </row>
     <row r="7" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="146" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="136">
+      <c r="A7" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="134">
         <f>'NonCash Working Cap'!C9</f>
         <v>-6611000000</v>
       </c>
-      <c r="C7" s="136">
+      <c r="C7" s="134">
         <f>'NonCash Working Cap'!D9</f>
         <v>4464000000</v>
       </c>
-      <c r="D7" s="137">
+      <c r="D7" s="135">
         <f>'NonCash Working Cap'!E9</f>
         <v>-772333333.33333576</v>
       </c>
-      <c r="E7" s="137">
+      <c r="E7" s="135">
         <f>'NonCash Working Cap'!F9</f>
         <v>1637888888.8888905</v>
       </c>
-      <c r="F7" s="137">
+      <c r="F7" s="135">
         <f>'NonCash Working Cap'!G9</f>
         <v>-838064814.81481755</v>
       </c>
-      <c r="G7" s="137">
+      <c r="G7" s="135">
         <f>'NonCash Working Cap'!H9</f>
         <v>-1290065586.4197543</v>
       </c>
-      <c r="H7" s="137">
+      <c r="H7" s="135">
         <f>'NonCash Working Cap'!I9</f>
         <v>1465549704.2181087</v>
       </c>
-      <c r="I7" s="132"/>
+      <c r="I7" s="130"/>
     </row>
     <row r="8" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="146" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="136">
+      <c r="A8" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="134">
         <v>11119000000</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="134">
         <v>8833000000</v>
       </c>
-      <c r="D8" s="137">
+      <c r="D8" s="135">
         <f>AVERAGE(B8:C8)</f>
         <v>9976000000</v>
       </c>
-      <c r="E8" s="137">
+      <c r="E8" s="135">
         <f>AVERAGE(C8:D8)</f>
         <v>9404500000</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="135">
         <f>AVERAGE(D8:E8)</f>
         <v>9690250000</v>
       </c>
-      <c r="G8" s="137">
+      <c r="G8" s="135">
         <f>AVERAGE(E8:F8)</f>
         <v>9547375000</v>
       </c>
-      <c r="H8" s="137">
+      <c r="H8" s="135">
         <f>AVERAGE(F8:G8)</f>
         <v>9618812500</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="I8" s="128" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="133"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="132"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="130"/>
     </row>
     <row r="10" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="136">
+      <c r="B10" s="134">
         <f>B4+B5-B7-B8+B6*1000000</f>
         <v>69394000000</v>
       </c>
-      <c r="C10" s="136">
+      <c r="C10" s="134">
         <f>C4+C5-C7-C8+C6*1000000</f>
         <v>61917000000</v>
       </c>
-      <c r="D10" s="137">
+      <c r="D10" s="135">
         <f>D4+D5+D6-D7-D8</f>
-        <v>92613704565.339417</v>
-      </c>
-      <c r="E10" s="137">
+        <v>103929758814.45561</v>
+      </c>
+      <c r="E10" s="135">
         <f>E4+E5+E6-E7-E8</f>
-        <v>75603199855.849335</v>
-      </c>
-      <c r="F10" s="137">
+        <v>72636882400.105164</v>
+      </c>
+      <c r="F10" s="135">
         <f>F4+F5+F6-F7-F8</f>
-        <v>84233360312.385895</v>
-      </c>
-      <c r="G10" s="137">
+        <v>79668341948.282349</v>
+      </c>
+      <c r="G10" s="135">
         <f>G4+G5+G6-G7-G8</f>
-        <v>86156368238.884155</v>
-      </c>
-      <c r="H10" s="137">
+        <v>82705897160.988373</v>
+      </c>
+      <c r="H10" s="135">
         <f>H4+H5+H6-H7-H8</f>
-        <v>65544291423.785416</v>
-      </c>
-      <c r="I10" s="132"/>
+        <v>47689338378.649658</v>
+      </c>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="133"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="132"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="130"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7417,7 +6621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F472BBA-87D1-8147-8FCB-F2D9661B31A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478CA4A-BEAF-DA41-AF74-CFD957A253E4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7432,2629 +6636,2629 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="16.33203125" style="162" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="162" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="16.33203125" style="162" customWidth="1"/>
-    <col min="14" max="16" width="16.33203125" style="162" hidden="1" customWidth="1"/>
-    <col min="17" max="23" width="16.33203125" style="162" customWidth="1"/>
-    <col min="24" max="16384" width="16.33203125" style="162"/>
+    <col min="1" max="10" width="16.33203125" style="161" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="161" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" style="161" customWidth="1"/>
+    <col min="14" max="16" width="16.33203125" style="161" hidden="1" customWidth="1"/>
+    <col min="17" max="23" width="16.33203125" style="161" customWidth="1"/>
+    <col min="24" max="16384" width="16.33203125" style="161"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="158">
+      <c r="A1" s="154" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="155"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="157">
         <f>AVERAGE(F15:F40)</f>
         <v>0.97276993505983878</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="161">
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="160">
         <f>AVERAGE(V15:V40)</f>
         <v>6.7380327129735726E-2</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="157"/>
-      <c r="B2" s="155" t="s">
+      <c r="A2" s="156"/>
+      <c r="B2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="155" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="155" t="s">
+      <c r="C2" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="155" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="155" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="155" t="s">
+      <c r="E2" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="F2" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="155" t="s">
+      <c r="G2" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="H2" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="157"/>
-      <c r="L2" s="155" t="s">
+      <c r="I2" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="154" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="156"/>
+      <c r="L2" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="155" t="s">
+      <c r="M2" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="155" t="s">
+      <c r="N2" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="155" t="s">
+      <c r="O2" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="155" t="s">
+      <c r="P2" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="155" t="s">
+      <c r="Q2" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="T2" s="155" t="s">
+      <c r="R2" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="155" t="s">
+      <c r="S2" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="V2" s="155" t="s">
+      <c r="T2" s="154" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="154" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="154" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="163">
+      <c r="A3" s="162">
         <v>40909</v>
       </c>
-      <c r="B3" s="164">
+      <c r="B3" s="163">
         <v>16.302855999999998</v>
       </c>
-      <c r="C3" s="165">
+      <c r="C3" s="164">
         <v>1312.41</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
     </row>
     <row r="4" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="163">
+      <c r="A4" s="162">
         <v>41000</v>
       </c>
-      <c r="B4" s="164">
+      <c r="B4" s="163">
         <v>20.856428000000001</v>
       </c>
-      <c r="C4" s="165">
+      <c r="C4" s="164">
         <v>1397.91</v>
       </c>
-      <c r="D4" s="170">
+      <c r="D4" s="169">
         <f t="shared" ref="D4:E40" si="0">B4/B3-1</f>
         <v>0.27931130594541242</v>
       </c>
-      <c r="E4" s="170">
+      <c r="E4" s="169">
         <f t="shared" si="0"/>
         <v>6.5147324387958117E-2</v>
       </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
     </row>
     <row r="5" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="163">
+      <c r="A5" s="162">
         <v>41091</v>
       </c>
-      <c r="B5" s="164">
+      <c r="B5" s="163">
         <v>21.812857000000001</v>
       </c>
-      <c r="C5" s="165">
+      <c r="C5" s="164">
         <v>1379.32</v>
       </c>
-      <c r="D5" s="170">
+      <c r="D5" s="169">
         <f t="shared" si="0"/>
         <v>4.5857756659002158E-2</v>
       </c>
-      <c r="E5" s="170">
+      <c r="E5" s="169">
         <f t="shared" si="0"/>
         <v>-1.3298424075942061E-2</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
     </row>
     <row r="6" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="163">
+      <c r="A6" s="162">
         <v>41183</v>
       </c>
-      <c r="B6" s="164">
+      <c r="B6" s="163">
         <v>21.261429</v>
       </c>
-      <c r="C6" s="165">
+      <c r="C6" s="164">
         <v>1412.16</v>
       </c>
-      <c r="D6" s="170">
+      <c r="D6" s="169">
         <f t="shared" si="0"/>
         <v>-2.5279953011198897E-2</v>
       </c>
-      <c r="E6" s="170">
+      <c r="E6" s="169">
         <f t="shared" si="0"/>
         <v>2.3808833338166746E-2</v>
       </c>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="168"/>
-      <c r="T6" s="168"/>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
     </row>
     <row r="7" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="163">
+      <c r="A7" s="162">
         <v>41275</v>
       </c>
-      <c r="B7" s="164">
+      <c r="B7" s="163">
         <v>16.267499999999998</v>
       </c>
-      <c r="C7" s="165">
+      <c r="C7" s="164">
         <v>1498.11</v>
       </c>
-      <c r="D7" s="170">
+      <c r="D7" s="169">
         <f t="shared" si="0"/>
         <v>-0.23488209564841578</v>
       </c>
-      <c r="E7" s="170">
+      <c r="E7" s="169">
         <f t="shared" si="0"/>
         <v>6.0864208021753852E-2</v>
       </c>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="168"/>
-      <c r="T7" s="168"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="168"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="167"/>
+      <c r="V7" s="167"/>
     </row>
     <row r="8" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="163">
+      <c r="A8" s="162">
         <v>41365</v>
       </c>
-      <c r="B8" s="164">
+      <c r="B8" s="163">
         <v>15.813571</v>
       </c>
-      <c r="C8" s="165">
+      <c r="C8" s="164">
         <v>1597.57</v>
       </c>
-      <c r="D8" s="170">
+      <c r="D8" s="169">
         <f t="shared" si="0"/>
         <v>-2.7904041801137147E-2</v>
       </c>
-      <c r="E8" s="170">
+      <c r="E8" s="169">
         <f t="shared" si="0"/>
         <v>6.6390318467936194E-2</v>
       </c>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="168"/>
-      <c r="R8" s="168"/>
-      <c r="S8" s="168"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="168"/>
-      <c r="V8" s="168"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="167"/>
     </row>
     <row r="9" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="163">
+      <c r="A9" s="162">
         <v>41456</v>
       </c>
-      <c r="B9" s="164">
+      <c r="B9" s="163">
         <v>16.161784999999998</v>
       </c>
-      <c r="C9" s="165">
+      <c r="C9" s="164">
         <v>1685.73</v>
       </c>
-      <c r="D9" s="170">
+      <c r="D9" s="169">
         <f t="shared" si="0"/>
         <v>2.2019947297166276E-2</v>
       </c>
-      <c r="E9" s="170">
+      <c r="E9" s="169">
         <f t="shared" si="0"/>
         <v>5.5183810412063439E-2</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="168"/>
-      <c r="T9" s="168"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="168"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
     </row>
     <row r="10" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="163">
+      <c r="A10" s="162">
         <v>41548</v>
       </c>
-      <c r="B10" s="164">
+      <c r="B10" s="163">
         <v>18.667856</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C10" s="164">
         <v>1756.54</v>
       </c>
-      <c r="D10" s="170">
+      <c r="D10" s="169">
         <f t="shared" si="0"/>
         <v>0.1550615232166499</v>
       </c>
-      <c r="E10" s="170">
+      <c r="E10" s="169">
         <f t="shared" si="0"/>
         <v>4.2005540626316229E-2</v>
       </c>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="167"/>
+      <c r="U10" s="167"/>
+      <c r="V10" s="167"/>
     </row>
     <row r="11" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="163">
+      <c r="A11" s="162">
         <v>41640</v>
       </c>
-      <c r="B11" s="164">
+      <c r="B11" s="163">
         <v>17.878571000000001</v>
       </c>
-      <c r="C11" s="165">
+      <c r="C11" s="164">
         <v>1782.59</v>
       </c>
-      <c r="D11" s="170">
+      <c r="D11" s="169">
         <f t="shared" si="0"/>
         <v>-4.228043113253066E-2</v>
       </c>
-      <c r="E11" s="170">
+      <c r="E11" s="169">
         <f t="shared" si="0"/>
         <v>1.4830291368258086E-2</v>
       </c>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="168"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="168">
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="167">
         <v>84</v>
       </c>
-      <c r="S11" s="168"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="168"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="167"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
     </row>
     <row r="12" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="163">
+      <c r="A12" s="162">
         <v>41730</v>
       </c>
-      <c r="B12" s="164">
+      <c r="B12" s="163">
         <v>21.074642000000001</v>
       </c>
-      <c r="C12" s="165">
+      <c r="C12" s="164">
         <v>1883.95</v>
       </c>
-      <c r="D12" s="170">
+      <c r="D12" s="169">
         <f t="shared" si="0"/>
         <v>0.17876546173628749</v>
       </c>
-      <c r="E12" s="170">
+      <c r="E12" s="169">
         <f t="shared" si="0"/>
         <v>5.6861084152833863E-2</v>
       </c>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168">
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="167">
         <v>85</v>
       </c>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
+      <c r="S12" s="167"/>
+      <c r="T12" s="167"/>
+      <c r="U12" s="167"/>
+      <c r="V12" s="167"/>
     </row>
     <row r="13" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="163">
+      <c r="A13" s="162">
         <v>41821</v>
       </c>
-      <c r="B13" s="164">
+      <c r="B13" s="163">
         <v>23.9</v>
       </c>
-      <c r="C13" s="165">
+      <c r="C13" s="164">
         <v>1930.67</v>
       </c>
-      <c r="D13" s="170">
+      <c r="D13" s="169">
         <f t="shared" si="0"/>
         <v>0.13406434140138646</v>
       </c>
-      <c r="E13" s="170">
+      <c r="E13" s="169">
         <f t="shared" si="0"/>
         <v>2.4798959632686746E-2</v>
       </c>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="168"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="168">
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167">
         <v>100</v>
       </c>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
     </row>
     <row r="14" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="163">
+      <c r="A14" s="162">
         <v>41913</v>
       </c>
-      <c r="B14" s="164">
+      <c r="B14" s="163">
         <v>27</v>
       </c>
-      <c r="C14" s="165">
+      <c r="C14" s="164">
         <v>2018.05</v>
       </c>
-      <c r="D14" s="170">
+      <c r="D14" s="169">
         <f t="shared" si="0"/>
         <v>0.12970711297071147</v>
       </c>
-      <c r="E14" s="170">
+      <c r="E14" s="169">
         <f t="shared" si="0"/>
         <v>4.5258899760186821E-2</v>
       </c>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168">
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="167">
         <v>28987</v>
       </c>
-      <c r="O14" s="168">
+      <c r="O14" s="167">
         <v>0</v>
       </c>
-      <c r="P14" s="168">
+      <c r="P14" s="167">
         <v>6308</v>
       </c>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168">
+      <c r="Q14" s="167"/>
+      <c r="R14" s="167">
         <v>115</v>
       </c>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
+      <c r="S14" s="165"/>
+      <c r="T14" s="165"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
     </row>
     <row r="15" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="171">
+      <c r="A15" s="170">
         <v>42005</v>
       </c>
-      <c r="B15" s="164">
+      <c r="B15" s="163">
         <v>29.290001</v>
       </c>
-      <c r="C15" s="165">
+      <c r="C15" s="164">
         <v>1994.99</v>
       </c>
-      <c r="D15" s="170">
+      <c r="D15" s="169">
         <f t="shared" si="0"/>
         <v>8.4814851851851891E-2</v>
       </c>
-      <c r="E15" s="170">
+      <c r="E15" s="169">
         <f t="shared" si="0"/>
         <v>-1.1426872475904903E-2</v>
       </c>
-      <c r="F15" s="168">
+      <c r="F15" s="167">
         <f>_xlfn.COVARIANCE.P(D4:D15,E4:E15)/VARP(E4:E15)</f>
         <v>0.14304398217391678</v>
       </c>
-      <c r="G15" s="170">
+      <c r="G15" s="169">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="H15" s="170">
+      <c r="H15" s="169">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="I15" s="170">
+      <c r="I15" s="169">
         <v>2.27596774193548E-2</v>
       </c>
-      <c r="J15" s="170">
+      <c r="J15" s="169">
         <f t="shared" ref="J15:J40" si="1">I15+F15*G15</f>
         <v>3.102761958900719E-2</v>
       </c>
-      <c r="K15" s="168">
+      <c r="K15" s="167">
         <v>5824748000</v>
       </c>
-      <c r="L15" s="169">
+      <c r="L15" s="168">
         <f t="shared" ref="L15:L37" si="2">K15*4</f>
         <v>23298992000</v>
       </c>
-      <c r="M15" s="172">
+      <c r="M15" s="171">
         <f t="shared" ref="M15:M40" si="3">L15*B15</f>
         <v>682427498978.99194</v>
       </c>
-      <c r="N15" s="168">
+      <c r="N15" s="167">
         <v>32504</v>
       </c>
-      <c r="O15" s="168">
+      <c r="O15" s="167">
         <v>0</v>
       </c>
-      <c r="P15" s="168">
+      <c r="P15" s="167">
         <v>3899</v>
       </c>
-      <c r="Q15" s="172">
+      <c r="Q15" s="171">
         <f t="shared" ref="Q15:Q40" si="4">SUM(N15:P15)*1000000</f>
         <v>36403000000</v>
       </c>
-      <c r="R15" s="168">
+      <c r="R15" s="167">
         <v>131</v>
       </c>
-      <c r="S15" s="173">
+      <c r="S15" s="172">
         <f t="shared" ref="S15:S40" si="5">SUM(R12:R15)/SUM(N15:P15)</f>
         <v>1.1839683542565173E-2</v>
       </c>
-      <c r="T15" s="173">
+      <c r="T15" s="172">
         <f t="shared" ref="T15:T40" si="6">M15/(M15+Q15)</f>
         <v>0.94935801965594691</v>
       </c>
-      <c r="U15" s="173">
+      <c r="U15" s="172">
         <f t="shared" ref="U15:U40" si="7">1-T15</f>
         <v>5.0641980344053095E-2</v>
       </c>
-      <c r="V15" s="173">
+      <c r="V15" s="172">
         <f t="shared" ref="V15:V40" si="8">(T15*J15)+(U15*S15)</f>
         <v>3.0055904508900323E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="171">
+      <c r="A16" s="170">
         <v>42095</v>
       </c>
-      <c r="B16" s="164">
+      <c r="B16" s="163">
         <v>31.287500000000001</v>
       </c>
-      <c r="C16" s="165">
+      <c r="C16" s="164">
         <v>2085.5100000000002</v>
       </c>
-      <c r="D16" s="170">
+      <c r="D16" s="169">
         <f t="shared" si="0"/>
         <v>6.8197300505384195E-2</v>
       </c>
-      <c r="E16" s="170">
+      <c r="E16" s="169">
         <f t="shared" si="0"/>
         <v>4.537366102085727E-2</v>
       </c>
-      <c r="F16" s="168">
+      <c r="F16" s="167">
         <f t="shared" ref="F16:F40" si="9">_xlfn.COVARIANCE.P(D5:D16,E5:E16)/VARP(E5:E16)</f>
         <v>-0.69181960234540973</v>
       </c>
-      <c r="G16" s="170">
+      <c r="G16" s="169">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="H16" s="170">
+      <c r="H16" s="169">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I16" s="170">
+      <c r="I16" s="169">
         <v>1.9688524590163899E-2</v>
       </c>
-      <c r="J16" s="170">
+      <c r="J16" s="169">
         <f t="shared" si="1"/>
         <v>-2.0852104107277111E-2</v>
       </c>
-      <c r="K16" s="168">
+      <c r="K16" s="167">
         <v>5761030000</v>
       </c>
-      <c r="L16" s="169">
+      <c r="L16" s="168">
         <f t="shared" si="2"/>
         <v>23044120000</v>
       </c>
-      <c r="M16" s="172">
+      <c r="M16" s="171">
         <f t="shared" si="3"/>
         <v>720992904500</v>
       </c>
-      <c r="N16" s="168">
+      <c r="N16" s="167">
         <v>40072</v>
       </c>
-      <c r="O16" s="168">
+      <c r="O16" s="167">
         <v>0</v>
       </c>
-      <c r="P16" s="168">
+      <c r="P16" s="167">
         <v>3799</v>
       </c>
-      <c r="Q16" s="172">
+      <c r="Q16" s="171">
         <f t="shared" si="4"/>
         <v>43871000000</v>
       </c>
-      <c r="R16" s="168">
+      <c r="R16" s="167">
         <v>163</v>
       </c>
-      <c r="S16" s="173">
+      <c r="S16" s="172">
         <f t="shared" si="5"/>
         <v>1.1602197351325477E-2</v>
       </c>
-      <c r="T16" s="173">
+      <c r="T16" s="172">
         <f t="shared" si="6"/>
         <v>0.94264208345839129</v>
       </c>
-      <c r="U16" s="173">
+      <c r="U16" s="172">
         <f t="shared" si="7"/>
         <v>5.7357916541608711E-2</v>
       </c>
-      <c r="V16" s="173">
+      <c r="V16" s="172">
         <f t="shared" si="8"/>
         <v>-1.8990592992798375E-2</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="171">
+      <c r="A17" s="170">
         <v>42186</v>
       </c>
-      <c r="B17" s="164">
+      <c r="B17" s="163">
         <v>30.325001</v>
       </c>
-      <c r="C17" s="165">
+      <c r="C17" s="164">
         <v>2103.84</v>
       </c>
-      <c r="D17" s="170">
+      <c r="D17" s="169">
         <f t="shared" si="0"/>
         <v>-3.0763052337195451E-2</v>
       </c>
-      <c r="E17" s="170">
+      <c r="E17" s="169">
         <f t="shared" si="0"/>
         <v>8.789217026051066E-3</v>
       </c>
-      <c r="F17" s="168">
+      <c r="F17" s="167">
         <f t="shared" si="9"/>
         <v>-0.52248409260401285</v>
       </c>
-      <c r="G17" s="170">
+      <c r="G17" s="169">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="H17" s="170">
+      <c r="H17" s="169">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="I17" s="170">
+      <c r="I17" s="169">
         <v>2.164375E-2</v>
       </c>
-      <c r="J17" s="170">
+      <c r="J17" s="169">
         <f t="shared" si="1"/>
         <v>-8.7125757802931462E-3</v>
       </c>
-      <c r="K17" s="168">
+      <c r="K17" s="167">
         <v>5702722000</v>
       </c>
-      <c r="L17" s="169">
+      <c r="L17" s="168">
         <f t="shared" si="2"/>
         <v>22810888000</v>
       </c>
-      <c r="M17" s="172">
+      <c r="M17" s="171">
         <f t="shared" si="3"/>
         <v>691740201410.88806</v>
       </c>
-      <c r="N17" s="168">
+      <c r="N17" s="167">
         <v>47419</v>
       </c>
-      <c r="O17" s="168">
+      <c r="O17" s="167">
         <v>2500</v>
       </c>
-      <c r="P17" s="168">
+      <c r="P17" s="167">
         <v>4499</v>
       </c>
-      <c r="Q17" s="172">
+      <c r="Q17" s="171">
         <f t="shared" si="4"/>
         <v>54418000000</v>
       </c>
-      <c r="R17" s="168">
+      <c r="R17" s="167">
         <v>201</v>
       </c>
-      <c r="S17" s="173">
+      <c r="S17" s="172">
         <f t="shared" si="5"/>
         <v>1.1209526259693485E-2</v>
       </c>
-      <c r="T17" s="173">
+      <c r="T17" s="172">
         <f t="shared" si="6"/>
         <v>0.92706908548736366</v>
       </c>
-      <c r="U17" s="173">
+      <c r="U17" s="172">
         <f t="shared" si="7"/>
         <v>7.2930914512636336E-2</v>
       </c>
-      <c r="V17" s="173">
+      <c r="V17" s="172">
         <f t="shared" si="8"/>
         <v>-7.2596386595028635E-3</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="171">
+      <c r="A18" s="170">
         <v>42278</v>
       </c>
-      <c r="B18" s="164">
+      <c r="B18" s="163">
         <v>29.875</v>
       </c>
-      <c r="C18" s="165">
+      <c r="C18" s="164">
         <v>2079.36</v>
       </c>
-      <c r="D18" s="170">
+      <c r="D18" s="169">
         <f t="shared" si="0"/>
         <v>-1.4839274036627437E-2</v>
       </c>
-      <c r="E18" s="170">
+      <c r="E18" s="169">
         <f t="shared" si="0"/>
         <v>-1.1635865845311399E-2</v>
       </c>
-      <c r="F18" s="168">
+      <c r="F18" s="167">
         <f t="shared" si="9"/>
         <v>-0.19667283185881096</v>
       </c>
-      <c r="G18" s="170">
+      <c r="G18" s="169">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="H18" s="170">
+      <c r="H18" s="169">
         <v>6.25E-2</v>
       </c>
-      <c r="I18" s="170">
+      <c r="I18" s="169">
         <v>2.2231250000000001E-2</v>
       </c>
-      <c r="J18" s="170">
+      <c r="J18" s="169">
         <f t="shared" si="1"/>
         <v>9.1918412477608354E-3</v>
       </c>
-      <c r="K18" s="168">
+      <c r="K18" s="167">
         <v>5575331000</v>
       </c>
-      <c r="L18" s="169">
+      <c r="L18" s="168">
         <f t="shared" si="2"/>
         <v>22301324000</v>
       </c>
-      <c r="M18" s="172">
+      <c r="M18" s="171">
         <f t="shared" si="3"/>
         <v>666252054500</v>
       </c>
-      <c r="N18" s="168">
+      <c r="N18" s="167">
         <v>53463</v>
       </c>
-      <c r="O18" s="168">
+      <c r="O18" s="167">
         <v>2500</v>
       </c>
-      <c r="P18" s="168">
+      <c r="P18" s="167">
         <v>8499</v>
       </c>
-      <c r="Q18" s="172">
+      <c r="Q18" s="171">
         <f t="shared" si="4"/>
         <v>64462000000</v>
       </c>
-      <c r="R18" s="168">
+      <c r="R18" s="167">
         <v>238</v>
       </c>
-      <c r="S18" s="173">
+      <c r="S18" s="172">
         <f t="shared" si="5"/>
         <v>1.1371040302814061E-2</v>
       </c>
-      <c r="T18" s="173">
+      <c r="T18" s="172">
         <f t="shared" si="6"/>
         <v>0.91178218127457678</v>
       </c>
-      <c r="U18" s="173">
+      <c r="U18" s="172">
         <f t="shared" si="7"/>
         <v>8.8217818725423225E-2</v>
       </c>
-      <c r="V18" s="173">
+      <c r="V18" s="172">
         <f t="shared" si="8"/>
         <v>9.3840854349661346E-3</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="171">
+      <c r="A19" s="170">
         <v>42370</v>
       </c>
-      <c r="B19" s="164">
+      <c r="B19" s="163">
         <v>24.334999</v>
       </c>
-      <c r="C19" s="165">
+      <c r="C19" s="164">
         <v>1940.24</v>
       </c>
-      <c r="D19" s="170">
+      <c r="D19" s="169">
         <f t="shared" si="0"/>
         <v>-0.18543936401673644</v>
       </c>
-      <c r="E19" s="170">
+      <c r="E19" s="169">
         <f t="shared" si="0"/>
         <v>-6.6905201600492514E-2</v>
       </c>
-      <c r="F19" s="168">
+      <c r="F19" s="167">
         <f t="shared" si="9"/>
         <v>1.7610033475811113</v>
       </c>
-      <c r="G19" s="170">
+      <c r="G19" s="169">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="H19" s="170">
+      <c r="H19" s="169">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="I19" s="170">
+      <c r="I19" s="169">
         <v>2.19048387096774E-2</v>
       </c>
-      <c r="J19" s="170">
+      <c r="J19" s="169">
         <f t="shared" si="1"/>
         <v>0.1296782435816414</v>
       </c>
-      <c r="K19" s="168">
+      <c r="K19" s="167">
         <v>5544583000</v>
       </c>
-      <c r="L19" s="169">
+      <c r="L19" s="168">
         <f t="shared" si="2"/>
         <v>22178332000</v>
       </c>
-      <c r="M19" s="172">
+      <c r="M19" s="171">
         <f t="shared" si="3"/>
         <v>539709687041.66797</v>
       </c>
-      <c r="N19" s="168">
+      <c r="N19" s="167">
         <v>53204</v>
       </c>
-      <c r="O19" s="168">
+      <c r="O19" s="167">
         <v>2500</v>
       </c>
-      <c r="P19" s="168">
+      <c r="P19" s="167">
         <v>7259</v>
       </c>
-      <c r="Q19" s="172">
+      <c r="Q19" s="171">
         <f t="shared" si="4"/>
         <v>62963000000</v>
       </c>
-      <c r="R19" s="168">
+      <c r="R19" s="167">
         <v>276</v>
       </c>
-      <c r="S19" s="173">
+      <c r="S19" s="172">
         <f t="shared" si="5"/>
         <v>1.3944697679589601E-2</v>
       </c>
-      <c r="T19" s="173">
+      <c r="T19" s="172">
         <f t="shared" si="6"/>
         <v>0.89552703921416166</v>
       </c>
-      <c r="U19" s="173">
+      <c r="U19" s="172">
         <f t="shared" si="7"/>
         <v>0.10447296078583834</v>
       </c>
-      <c r="V19" s="173">
+      <c r="V19" s="172">
         <f t="shared" si="8"/>
         <v>0.11758721737901032</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="171">
+      <c r="A20" s="170">
         <v>42461</v>
       </c>
-      <c r="B20" s="164">
+      <c r="B20" s="163">
         <v>23.434999000000001</v>
       </c>
-      <c r="C20" s="174">
+      <c r="C20" s="173">
         <v>2065.3000000000002</v>
       </c>
-      <c r="D20" s="170">
+      <c r="D20" s="169">
         <f t="shared" si="0"/>
         <v>-3.6983769754829199E-2</v>
       </c>
-      <c r="E20" s="170">
+      <c r="E20" s="169">
         <f t="shared" si="0"/>
         <v>6.4455943594607046E-2</v>
       </c>
-      <c r="F20" s="168">
+      <c r="F20" s="167">
         <f t="shared" si="9"/>
         <v>1.7635323202262723</v>
       </c>
-      <c r="G20" s="170">
+      <c r="G20" s="169">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="H20" s="170">
+      <c r="H20" s="169">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="I20" s="170">
+      <c r="I20" s="169">
         <v>1.9142622950819699E-2</v>
       </c>
-      <c r="J20" s="170">
+      <c r="J20" s="169">
         <f t="shared" si="1"/>
         <v>0.1291870397329391</v>
       </c>
-      <c r="K20" s="168">
+      <c r="K20" s="167">
         <v>5477425000</v>
       </c>
-      <c r="L20" s="169">
+      <c r="L20" s="168">
         <f t="shared" si="2"/>
         <v>21909700000</v>
       </c>
-      <c r="M20" s="172">
+      <c r="M20" s="171">
         <f t="shared" si="3"/>
         <v>513453797590.30005</v>
       </c>
-      <c r="N20" s="168">
+      <c r="N20" s="167">
         <v>69374</v>
       </c>
-      <c r="O20" s="168">
+      <c r="O20" s="167">
         <v>2500</v>
       </c>
-      <c r="P20" s="168">
+      <c r="P20" s="167">
         <v>7998</v>
       </c>
-      <c r="Q20" s="172">
+      <c r="Q20" s="171">
         <f t="shared" si="4"/>
         <v>79872000000</v>
       </c>
-      <c r="R20" s="168">
+      <c r="R20" s="167">
         <v>321</v>
       </c>
-      <c r="S20" s="173">
+      <c r="S20" s="172">
         <f t="shared" si="5"/>
         <v>1.2970753205128206E-2</v>
       </c>
-      <c r="T20" s="173">
+      <c r="T20" s="172">
         <f t="shared" si="6"/>
         <v>0.86538255992847835</v>
       </c>
-      <c r="U20" s="173">
+      <c r="U20" s="172">
         <f t="shared" si="7"/>
         <v>0.13461744007152165</v>
       </c>
-      <c r="V20" s="173">
+      <c r="V20" s="172">
         <f t="shared" si="8"/>
         <v>0.11354230074594673</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="171">
+      <c r="A21" s="170">
         <v>42552</v>
       </c>
-      <c r="B21" s="164">
+      <c r="B21" s="163">
         <v>26.052499999999998</v>
       </c>
-      <c r="C21" s="174">
+      <c r="C21" s="173">
         <v>2173.6</v>
       </c>
-      <c r="D21" s="170">
+      <c r="D21" s="169">
         <f t="shared" si="0"/>
         <v>0.11169196124138936</v>
       </c>
-      <c r="E21" s="170">
+      <c r="E21" s="169">
         <f t="shared" si="0"/>
         <v>5.2437902483900567E-2</v>
       </c>
-      <c r="F21" s="168">
+      <c r="F21" s="167">
         <f t="shared" si="9"/>
         <v>1.9579108946583634</v>
       </c>
-      <c r="G21" s="170">
+      <c r="G21" s="169">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="H21" s="170">
+      <c r="H21" s="169">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="I21" s="170">
+      <c r="I21" s="169">
         <v>1.7501562500000001E-2</v>
       </c>
-      <c r="J21" s="170">
+      <c r="J21" s="169">
         <f t="shared" si="1"/>
         <v>0.1402625755950794</v>
       </c>
-      <c r="K21" s="168">
+      <c r="K21" s="167">
         <v>5388443000</v>
       </c>
-      <c r="L21" s="169">
+      <c r="L21" s="168">
         <f t="shared" si="2"/>
         <v>21553772000</v>
       </c>
-      <c r="M21" s="172">
+      <c r="M21" s="171">
         <f t="shared" si="3"/>
         <v>561529645030</v>
       </c>
-      <c r="N21" s="168">
+      <c r="N21" s="167">
         <v>68939</v>
       </c>
-      <c r="O21" s="168">
+      <c r="O21" s="167">
         <v>3500</v>
       </c>
-      <c r="P21" s="168">
+      <c r="P21" s="167">
         <v>12496</v>
       </c>
-      <c r="Q21" s="172">
+      <c r="Q21" s="171">
         <f t="shared" si="4"/>
         <v>84935000000</v>
       </c>
-      <c r="R21" s="168">
+      <c r="R21" s="167">
         <v>409</v>
       </c>
-      <c r="S21" s="173">
+      <c r="S21" s="172">
         <f t="shared" si="5"/>
         <v>1.4646494378053806E-2</v>
       </c>
-      <c r="T21" s="173">
+      <c r="T21" s="172">
         <f t="shared" si="6"/>
         <v>0.86861617158343052</v>
       </c>
-      <c r="U21" s="173">
+      <c r="U21" s="172">
         <f t="shared" si="7"/>
         <v>0.13138382841656948</v>
       </c>
-      <c r="V21" s="173">
+      <c r="V21" s="172">
         <f t="shared" si="8"/>
         <v>0.12375865393409985</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="171">
+      <c r="A22" s="170">
         <v>42644</v>
       </c>
-      <c r="B22" s="164">
+      <c r="B22" s="163">
         <v>28.385000000000002</v>
       </c>
-      <c r="C22" s="165">
+      <c r="C22" s="164">
         <v>2126.15</v>
       </c>
-      <c r="D22" s="170">
+      <c r="D22" s="169">
         <f t="shared" si="0"/>
         <v>8.9530755205834422E-2</v>
       </c>
-      <c r="E22" s="170">
+      <c r="E22" s="169">
         <f t="shared" si="0"/>
         <v>-2.1830143540669811E-2</v>
       </c>
-      <c r="F22" s="168">
+      <c r="F22" s="167">
         <f t="shared" si="9"/>
         <v>1.5602175386937238</v>
       </c>
-      <c r="G22" s="170">
+      <c r="G22" s="169">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="H22" s="170">
+      <c r="H22" s="169">
         <v>5.21E-2</v>
       </c>
-      <c r="I22" s="170">
+      <c r="I22" s="169">
         <v>1.5643750000000001E-2</v>
       </c>
-      <c r="J22" s="170">
+      <c r="J22" s="169">
         <f t="shared" si="1"/>
         <v>0.11175315038353338</v>
       </c>
-      <c r="K22" s="168">
+      <c r="K22" s="167">
         <v>5332313000</v>
       </c>
-      <c r="L22" s="169">
+      <c r="L22" s="168">
         <f t="shared" si="2"/>
         <v>21329252000</v>
       </c>
-      <c r="M22" s="172">
+      <c r="M22" s="171">
         <f t="shared" si="3"/>
         <v>605430818020</v>
       </c>
-      <c r="N22" s="168">
+      <c r="N22" s="167">
         <v>75427</v>
       </c>
-      <c r="O22" s="168">
+      <c r="O22" s="167">
         <v>3500</v>
       </c>
-      <c r="P22" s="168">
+      <c r="P22" s="167">
         <v>8105</v>
       </c>
-      <c r="Q22" s="172">
+      <c r="Q22" s="171">
         <f t="shared" si="4"/>
         <v>87032000000</v>
       </c>
-      <c r="R22" s="168">
+      <c r="R22" s="167">
         <v>450</v>
       </c>
-      <c r="S22" s="173">
+      <c r="S22" s="172">
         <f t="shared" si="5"/>
         <v>1.6729478812390845E-2</v>
       </c>
-      <c r="T22" s="173">
+      <c r="T22" s="172">
         <f t="shared" si="6"/>
         <v>0.87431527334730297</v>
       </c>
-      <c r="U22" s="173">
+      <c r="U22" s="172">
         <f t="shared" si="7"/>
         <v>0.12568472665269703</v>
       </c>
-      <c r="V22" s="173">
+      <c r="V22" s="172">
         <f t="shared" si="8"/>
         <v>9.9810126196578683E-2</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="171">
+      <c r="A23" s="170">
         <v>42736</v>
       </c>
-      <c r="B23" s="164">
+      <c r="B23" s="163">
         <v>30.337499999999999</v>
       </c>
-      <c r="C23" s="165">
+      <c r="C23" s="164">
         <v>2278.87</v>
       </c>
-      <c r="D23" s="170">
+      <c r="D23" s="169">
         <f t="shared" si="0"/>
         <v>6.8786330808525475E-2</v>
       </c>
-      <c r="E23" s="170">
+      <c r="E23" s="169">
         <f t="shared" si="0"/>
         <v>7.1829362933000906E-2</v>
       </c>
-      <c r="F23" s="168">
+      <c r="F23" s="167">
         <f t="shared" si="9"/>
         <v>1.3864114460700145</v>
       </c>
-      <c r="G23" s="170">
+      <c r="G23" s="169">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H23" s="170">
+      <c r="H23" s="169">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="I23" s="170">
+      <c r="I23" s="169">
         <v>2.1386885245901599E-2</v>
       </c>
-      <c r="J23" s="170">
+      <c r="J23" s="169">
         <f t="shared" si="1"/>
         <v>0.10027369652728542</v>
       </c>
-      <c r="K23" s="168">
+      <c r="K23" s="167">
         <v>5246540000</v>
       </c>
-      <c r="L23" s="169">
+      <c r="L23" s="168">
         <f t="shared" si="2"/>
         <v>20986160000</v>
       </c>
-      <c r="M23" s="172">
+      <c r="M23" s="171">
         <f t="shared" si="3"/>
         <v>636667629000</v>
       </c>
-      <c r="N23" s="168">
+      <c r="N23" s="167">
         <v>73557</v>
       </c>
-      <c r="O23" s="168">
+      <c r="O23" s="167">
         <v>3499</v>
       </c>
-      <c r="P23" s="168">
+      <c r="P23" s="167">
         <v>10493</v>
       </c>
-      <c r="Q23" s="172">
+      <c r="Q23" s="171">
         <f t="shared" si="4"/>
         <v>87549000000</v>
       </c>
-      <c r="R23" s="168">
+      <c r="R23" s="167">
         <v>525</v>
       </c>
-      <c r="S23" s="173">
+      <c r="S23" s="172">
         <f t="shared" si="5"/>
         <v>1.9474808393014197E-2</v>
       </c>
-      <c r="T23" s="173">
+      <c r="T23" s="172">
         <f t="shared" si="6"/>
         <v>0.87911213786835041</v>
       </c>
-      <c r="U23" s="173">
+      <c r="U23" s="172">
         <f t="shared" si="7"/>
         <v>0.12088786213164959</v>
       </c>
-      <c r="V23" s="173">
+      <c r="V23" s="172">
         <f t="shared" si="8"/>
         <v>9.0506091678119072E-2</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="171">
+      <c r="A24" s="170">
         <v>42826</v>
       </c>
-      <c r="B24" s="164">
+      <c r="B24" s="163">
         <v>35.912497999999999</v>
       </c>
-      <c r="C24" s="174">
+      <c r="C24" s="173">
         <v>2384.1999999999998</v>
       </c>
-      <c r="D24" s="170">
+      <c r="D24" s="169">
         <f t="shared" si="0"/>
         <v>0.18376590028842199</v>
       </c>
-      <c r="E24" s="170">
+      <c r="E24" s="169">
         <f t="shared" si="0"/>
         <v>4.6220275838463776E-2</v>
       </c>
-      <c r="F24" s="168">
+      <c r="F24" s="167">
         <f t="shared" si="9"/>
         <v>1.3683721117351479</v>
       </c>
-      <c r="G24" s="170">
+      <c r="G24" s="169">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="H24" s="170">
+      <c r="H24" s="169">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="I24" s="170">
+      <c r="I24" s="169">
         <v>2.4466129032258099E-2</v>
       </c>
-      <c r="J24" s="170">
+      <c r="J24" s="169">
         <f t="shared" si="1"/>
         <v>9.8084548643609062E-2</v>
       </c>
-      <c r="K24" s="168">
+      <c r="K24" s="167">
         <v>5213840000</v>
       </c>
-      <c r="L24" s="169">
+      <c r="L24" s="168">
         <f t="shared" si="2"/>
         <v>20855360000</v>
       </c>
-      <c r="M24" s="172">
+      <c r="M24" s="171">
         <f t="shared" si="3"/>
         <v>748968074289.28003</v>
       </c>
-      <c r="N24" s="168">
+      <c r="N24" s="167">
         <v>84531</v>
       </c>
-      <c r="O24" s="168">
+      <c r="O24" s="167">
         <v>3999</v>
       </c>
-      <c r="P24" s="168">
+      <c r="P24" s="167">
         <v>9992</v>
       </c>
-      <c r="Q24" s="172">
+      <c r="Q24" s="171">
         <f t="shared" si="4"/>
         <v>98522000000</v>
       </c>
-      <c r="R24" s="168">
+      <c r="R24" s="167">
         <v>530</v>
       </c>
-      <c r="S24" s="173">
+      <c r="S24" s="172">
         <f t="shared" si="5"/>
         <v>1.9427133026126146E-2</v>
       </c>
-      <c r="T24" s="173">
+      <c r="T24" s="172">
         <f t="shared" si="6"/>
         <v>0.88374849099840813</v>
       </c>
-      <c r="U24" s="173">
+      <c r="U24" s="172">
         <f t="shared" si="7"/>
         <v>0.11625150900159187</v>
       </c>
-      <c r="V24" s="173">
+      <c r="V24" s="172">
         <f t="shared" si="8"/>
         <v>8.8940505383911295E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="171">
+      <c r="A25" s="170">
         <v>42917</v>
       </c>
-      <c r="B25" s="164">
+      <c r="B25" s="163">
         <v>37.182499</v>
       </c>
-      <c r="C25" s="174">
+      <c r="C25" s="173">
         <v>2470.3000000000002</v>
       </c>
-      <c r="D25" s="170">
+      <c r="D25" s="169">
         <f t="shared" si="0"/>
         <v>3.5363761106230962E-2</v>
       </c>
-      <c r="E25" s="170">
+      <c r="E25" s="169">
         <f t="shared" si="0"/>
         <v>3.6112742219612581E-2</v>
       </c>
-      <c r="F25" s="168">
+      <c r="F25" s="167">
         <f t="shared" si="9"/>
         <v>1.3281190628928796</v>
       </c>
-      <c r="G25" s="170">
+      <c r="G25" s="169">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="H25" s="170">
+      <c r="H25" s="169">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="I25" s="170">
+      <c r="I25" s="169">
         <v>2.2609523809523802E-2</v>
       </c>
-      <c r="J25" s="170">
+      <c r="J25" s="169">
         <f t="shared" si="1"/>
         <v>9.0742031735928527E-2</v>
       </c>
-      <c r="K25" s="168">
+      <c r="K25" s="167">
         <v>5165228000</v>
       </c>
-      <c r="L25" s="169">
+      <c r="L25" s="168">
         <f t="shared" si="2"/>
         <v>20660912000</v>
       </c>
-      <c r="M25" s="172">
+      <c r="M25" s="171">
         <f t="shared" si="3"/>
         <v>768224339779.08801</v>
       </c>
-      <c r="N25" s="168">
+      <c r="N25" s="167">
         <v>89864</v>
       </c>
-      <c r="O25" s="168">
+      <c r="O25" s="167">
         <v>6495</v>
       </c>
-      <c r="P25" s="168">
+      <c r="P25" s="167">
         <v>11980</v>
       </c>
-      <c r="Q25" s="172">
+      <c r="Q25" s="171">
         <f t="shared" si="4"/>
         <v>108339000000</v>
       </c>
-      <c r="R25" s="168">
+      <c r="R25" s="167">
         <v>602</v>
       </c>
-      <c r="S25" s="173">
+      <c r="S25" s="172">
         <f t="shared" si="5"/>
         <v>1.9448213478064226E-2</v>
       </c>
-      <c r="T25" s="173">
+      <c r="T25" s="172">
         <f t="shared" si="6"/>
         <v>0.87640482429107325</v>
       </c>
-      <c r="U25" s="173">
+      <c r="U25" s="172">
         <f t="shared" si="7"/>
         <v>0.12359517570892675</v>
       </c>
-      <c r="V25" s="173">
+      <c r="V25" s="172">
         <f t="shared" si="8"/>
         <v>8.1930459741387504E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="171">
+      <c r="A26" s="170">
         <v>43009</v>
       </c>
-      <c r="B26" s="164">
+      <c r="B26" s="163">
         <v>42.259998000000003</v>
       </c>
-      <c r="C26" s="165">
+      <c r="C26" s="164">
         <v>2575.2600000000002</v>
       </c>
-      <c r="D26" s="170">
+      <c r="D26" s="169">
         <f t="shared" si="0"/>
         <v>0.1365561523984713</v>
       </c>
-      <c r="E26" s="170">
+      <c r="E26" s="169">
         <f t="shared" si="0"/>
         <v>4.2488766546573409E-2</v>
       </c>
-      <c r="F26" s="168">
+      <c r="F26" s="167">
         <f t="shared" si="9"/>
         <v>1.3316078611431306</v>
       </c>
-      <c r="G26" s="170">
+      <c r="G26" s="169">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="H26" s="170">
+      <c r="H26" s="169">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I26" s="170">
+      <c r="I26" s="169">
         <v>2.2414285714285699E-2</v>
       </c>
-      <c r="J26" s="170">
+      <c r="J26" s="169">
         <f t="shared" si="1"/>
         <v>8.7929392482527735E-2</v>
       </c>
-      <c r="K26" s="168">
+      <c r="K26" s="167">
         <v>5134312000</v>
       </c>
-      <c r="L26" s="169">
+      <c r="L26" s="168">
         <f t="shared" si="2"/>
         <v>20537248000</v>
       </c>
-      <c r="M26" s="172">
+      <c r="M26" s="171">
         <f t="shared" si="3"/>
         <v>867904059405.50403</v>
       </c>
-      <c r="N26" s="168">
+      <c r="N26" s="167">
         <v>97207</v>
       </c>
-      <c r="O26" s="168">
+      <c r="O26" s="167">
         <v>6496</v>
       </c>
-      <c r="P26" s="168">
+      <c r="P26" s="167">
         <v>11977</v>
       </c>
-      <c r="Q26" s="172">
+      <c r="Q26" s="171">
         <f t="shared" si="4"/>
         <v>115680000000</v>
       </c>
-      <c r="R26" s="168">
+      <c r="R26" s="167">
         <v>666</v>
       </c>
-      <c r="S26" s="173">
+      <c r="S26" s="172">
         <f t="shared" si="5"/>
         <v>2.0081258644536654E-2</v>
       </c>
-      <c r="T26" s="173">
+      <c r="T26" s="172">
         <f t="shared" si="6"/>
         <v>0.88238930989800801</v>
       </c>
-      <c r="U26" s="173">
+      <c r="U26" s="172">
         <f t="shared" si="7"/>
         <v>0.11761069010199199</v>
       </c>
-      <c r="V26" s="173">
+      <c r="V26" s="172">
         <f t="shared" si="8"/>
         <v>7.9949726639709284E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="171">
+      <c r="A27" s="170">
         <v>43101</v>
       </c>
-      <c r="B27" s="164">
+      <c r="B27" s="163">
         <v>41.857498</v>
       </c>
-      <c r="C27" s="165">
+      <c r="C27" s="164">
         <v>2823.81</v>
       </c>
-      <c r="D27" s="170">
+      <c r="D27" s="169">
         <f t="shared" si="0"/>
         <v>-9.5243733802354846E-3</v>
       </c>
-      <c r="E27" s="170">
+      <c r="E27" s="169">
         <f t="shared" si="0"/>
         <v>9.6514526688567193E-2</v>
       </c>
-      <c r="F27" s="168">
+      <c r="F27" s="167">
         <f t="shared" si="9"/>
         <v>1.0471688625326183</v>
       </c>
-      <c r="G27" s="170">
+      <c r="G27" s="169">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="H27" s="170">
+      <c r="H27" s="169">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="I27" s="170">
+      <c r="I27" s="169">
         <v>2.37145161290323E-2</v>
       </c>
-      <c r="J27" s="170">
+      <c r="J27" s="169">
         <f t="shared" si="1"/>
         <v>7.6910694345689312E-2</v>
       </c>
-      <c r="K27" s="168">
+      <c r="K27" s="167">
         <v>5074013000</v>
       </c>
-      <c r="L27" s="169">
+      <c r="L27" s="168">
         <f t="shared" si="2"/>
         <v>20296052000</v>
       </c>
-      <c r="M27" s="172">
+      <c r="M27" s="171">
         <f t="shared" si="3"/>
         <v>849541955997.896</v>
       </c>
-      <c r="N27" s="168">
+      <c r="N27" s="167">
         <v>103922</v>
       </c>
-      <c r="O27" s="168">
+      <c r="O27" s="167">
         <v>6498</v>
       </c>
-      <c r="P27" s="168">
+      <c r="P27" s="167">
         <v>11980</v>
       </c>
-      <c r="Q27" s="172">
+      <c r="Q27" s="171">
         <f t="shared" si="4"/>
         <v>122400000000</v>
       </c>
-      <c r="R27" s="168">
+      <c r="R27" s="167">
         <v>734</v>
       </c>
-      <c r="S27" s="173">
+      <c r="S27" s="172">
         <f t="shared" si="5"/>
         <v>2.0686274509803922E-2</v>
       </c>
-      <c r="T27" s="173">
+      <c r="T27" s="172">
         <f t="shared" si="6"/>
         <v>0.87406655382591081</v>
       </c>
-      <c r="U27" s="173">
+      <c r="U27" s="172">
         <f t="shared" si="7"/>
         <v>0.12593344617408919</v>
       </c>
-      <c r="V27" s="173">
+      <c r="V27" s="172">
         <f t="shared" si="8"/>
         <v>6.983015939661745E-2</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="171">
+      <c r="A28" s="170">
         <v>43191</v>
       </c>
-      <c r="B28" s="164">
+      <c r="B28" s="163">
         <v>41.314999</v>
       </c>
-      <c r="C28" s="165">
+      <c r="C28" s="164">
         <v>2648.05</v>
       </c>
-      <c r="D28" s="170">
+      <c r="D28" s="169">
         <f t="shared" si="0"/>
         <v>-1.2960616996266716E-2</v>
       </c>
-      <c r="E28" s="170">
+      <c r="E28" s="169">
         <f t="shared" si="0"/>
         <v>-6.2242148019873822E-2</v>
       </c>
-      <c r="F28" s="168">
+      <c r="F28" s="167">
         <f t="shared" si="9"/>
         <v>0.89663199979520269</v>
       </c>
-      <c r="G28" s="170">
+      <c r="G28" s="169">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="H28" s="170">
+      <c r="H28" s="169">
         <v>7.17E-2</v>
       </c>
-      <c r="I28" s="170">
+      <c r="I28" s="169">
         <v>2.7585245901639299E-2</v>
       </c>
-      <c r="J28" s="170">
+      <c r="J28" s="169">
         <f t="shared" si="1"/>
         <v>7.4120446691010311E-2</v>
       </c>
-      <c r="K28" s="168">
+      <c r="K28" s="167">
         <v>4915138000</v>
       </c>
-      <c r="L28" s="169">
+      <c r="L28" s="168">
         <f t="shared" si="2"/>
         <v>19660552000</v>
       </c>
-      <c r="M28" s="172">
+      <c r="M28" s="171">
         <f t="shared" si="3"/>
         <v>812275686219.448</v>
       </c>
-      <c r="N28" s="168">
+      <c r="N28" s="167">
         <v>101362</v>
       </c>
-      <c r="O28" s="168">
+      <c r="O28" s="167">
         <v>8498</v>
       </c>
-      <c r="P28" s="168">
+      <c r="P28" s="167">
         <v>11980</v>
       </c>
-      <c r="Q28" s="172">
+      <c r="Q28" s="171">
         <f t="shared" si="4"/>
         <v>121840000000</v>
       </c>
-      <c r="R28" s="168">
+      <c r="R28" s="167">
         <v>792</v>
       </c>
-      <c r="S28" s="173">
+      <c r="S28" s="172">
         <f t="shared" si="5"/>
         <v>2.29317137229153E-2</v>
       </c>
-      <c r="T28" s="173">
+      <c r="T28" s="172">
         <f t="shared" si="6"/>
         <v>0.86956647683210342</v>
       </c>
-      <c r="U28" s="173">
+      <c r="U28" s="172">
         <f t="shared" si="7"/>
         <v>0.13043352316789658</v>
       </c>
-      <c r="V28" s="173">
+      <c r="V28" s="172">
         <f t="shared" si="8"/>
         <v>6.7443719903481025E-2</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="171">
+      <c r="A29" s="170">
         <v>43282</v>
       </c>
-      <c r="B29" s="164">
+      <c r="B29" s="163">
         <v>47.572498000000003</v>
       </c>
-      <c r="C29" s="165">
+      <c r="C29" s="164">
         <v>2816.29</v>
       </c>
-      <c r="D29" s="170">
+      <c r="D29" s="169">
         <f t="shared" si="0"/>
         <v>0.1514582875821926</v>
       </c>
-      <c r="E29" s="170">
+      <c r="E29" s="169">
         <f t="shared" si="0"/>
         <v>6.3533543550914784E-2</v>
       </c>
-      <c r="F29" s="168">
+      <c r="F29" s="167">
         <f t="shared" si="9"/>
         <v>0.9730426226273915</v>
       </c>
-      <c r="G29" s="170">
+      <c r="G29" s="169">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="H29" s="170">
+      <c r="H29" s="169">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="I29" s="170">
+      <c r="I29" s="169">
         <v>2.920625E-2</v>
       </c>
-      <c r="J29" s="170">
+      <c r="J29" s="169">
         <f t="shared" si="1"/>
         <v>8.1458638835090927E-2</v>
       </c>
-      <c r="K29" s="168">
+      <c r="K29" s="167">
         <v>4829926000</v>
       </c>
-      <c r="L29" s="169">
+      <c r="L29" s="168">
         <f t="shared" si="2"/>
         <v>19319704000</v>
       </c>
-      <c r="M29" s="172">
+      <c r="M29" s="171">
         <f t="shared" si="3"/>
         <v>919086579900.59204</v>
       </c>
-      <c r="N29" s="168">
+      <c r="N29" s="167">
         <v>97128</v>
       </c>
-      <c r="O29" s="168">
+      <c r="O29" s="167">
         <v>5498</v>
       </c>
-      <c r="P29" s="168">
+      <c r="P29" s="167">
         <v>11974</v>
       </c>
-      <c r="Q29" s="172">
+      <c r="Q29" s="171">
         <f t="shared" si="4"/>
         <v>114600000000</v>
       </c>
-      <c r="R29" s="168">
+      <c r="R29" s="167">
         <v>846</v>
       </c>
-      <c r="S29" s="173">
+      <c r="S29" s="172">
         <f t="shared" si="5"/>
         <v>2.6509598603839443E-2</v>
       </c>
-      <c r="T29" s="173">
+      <c r="T29" s="172">
         <f t="shared" si="6"/>
         <v>0.88913467367350274</v>
       </c>
-      <c r="U29" s="173">
+      <c r="U29" s="172">
         <f t="shared" si="7"/>
         <v>0.11086532632649726</v>
       </c>
-      <c r="V29" s="173">
+      <c r="V29" s="172">
         <f t="shared" si="8"/>
         <v>7.5366695558525418E-2</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="171">
+      <c r="A30" s="170">
         <v>43374</v>
       </c>
-      <c r="B30" s="164">
+      <c r="B30" s="163">
         <v>54.715000000000003</v>
       </c>
-      <c r="C30" s="165">
+      <c r="C30" s="164">
         <v>2711.74</v>
       </c>
-      <c r="D30" s="170">
+      <c r="D30" s="169">
         <f t="shared" si="0"/>
         <v>0.15013930948086851</v>
       </c>
-      <c r="E30" s="170">
+      <c r="E30" s="169">
         <f t="shared" si="0"/>
         <v>-3.7123307613917689E-2</v>
       </c>
-      <c r="F30" s="168">
+      <c r="F30" s="167">
         <f t="shared" si="9"/>
         <v>0.64979404186815926</v>
       </c>
-      <c r="G30" s="170">
+      <c r="G30" s="169">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="H30" s="170">
+      <c r="H30" s="169">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="I30" s="170">
+      <c r="I30" s="169">
         <v>2.9238095238095198E-2</v>
       </c>
-      <c r="J30" s="170">
+      <c r="J30" s="169">
         <f t="shared" si="1"/>
         <v>6.4197014690602169E-2</v>
       </c>
-      <c r="K30" s="168">
+      <c r="K30" s="167">
         <v>4745398000</v>
       </c>
-      <c r="L30" s="169">
+      <c r="L30" s="168">
         <f t="shared" si="2"/>
         <v>18981592000</v>
       </c>
-      <c r="M30" s="172">
+      <c r="M30" s="171">
         <f t="shared" si="3"/>
         <v>1038577806280.0001</v>
       </c>
-      <c r="N30" s="168">
+      <c r="N30" s="167">
         <v>93735</v>
       </c>
-      <c r="O30" s="168">
+      <c r="O30" s="167">
         <v>8784</v>
       </c>
-      <c r="P30" s="168">
+      <c r="P30" s="167">
         <v>11964</v>
       </c>
-      <c r="Q30" s="172">
+      <c r="Q30" s="171">
         <f t="shared" si="4"/>
         <v>114483000000</v>
       </c>
-      <c r="R30" s="168">
+      <c r="R30" s="167">
         <v>868</v>
       </c>
-      <c r="S30" s="173">
+      <c r="S30" s="172">
         <f t="shared" si="5"/>
         <v>2.8301145148187941E-2</v>
       </c>
-      <c r="T30" s="173">
+      <c r="T30" s="172">
         <f t="shared" si="6"/>
         <v>0.90071382239645759</v>
       </c>
-      <c r="U30" s="173">
+      <c r="U30" s="172">
         <f t="shared" si="7"/>
         <v>9.9286177603542414E-2</v>
       </c>
-      <c r="V30" s="173">
+      <c r="V30" s="172">
         <f t="shared" si="8"/>
         <v>6.0633051011980438E-2</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="171">
+      <c r="A31" s="170">
         <v>43466</v>
       </c>
-      <c r="B31" s="164">
+      <c r="B31" s="163">
         <v>41.610000999999997</v>
       </c>
-      <c r="C31" s="174">
+      <c r="C31" s="173">
         <v>2704.1</v>
       </c>
-      <c r="D31" s="170">
+      <c r="D31" s="169">
         <f t="shared" si="0"/>
         <v>-0.23951382619025874</v>
       </c>
-      <c r="E31" s="170">
+      <c r="E31" s="169">
         <f t="shared" si="0"/>
         <v>-2.8173792472728776E-3</v>
       </c>
-      <c r="F31" s="168">
+      <c r="F31" s="167">
         <f t="shared" si="9"/>
         <v>0.31814865601587111</v>
       </c>
-      <c r="G31" s="170">
+      <c r="G31" s="169">
         <v>5.96E-2</v>
       </c>
-      <c r="H31" s="170">
+      <c r="H31" s="169">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="I31" s="170">
+      <c r="I31" s="169">
         <v>3.0411475409836099E-2</v>
       </c>
-      <c r="J31" s="170">
+      <c r="J31" s="169">
         <f t="shared" si="1"/>
         <v>4.9373135308382013E-2</v>
       </c>
-      <c r="K31" s="168">
+      <c r="K31" s="167">
         <v>4715280000</v>
       </c>
-      <c r="L31" s="169">
+      <c r="L31" s="168">
         <f t="shared" si="2"/>
         <v>18861120000</v>
       </c>
-      <c r="M31" s="172">
+      <c r="M31" s="171">
         <f t="shared" si="3"/>
         <v>784811222061.12</v>
       </c>
-      <c r="N31" s="168">
+      <c r="N31" s="167">
         <v>92989</v>
       </c>
-      <c r="O31" s="168">
+      <c r="O31" s="167">
         <v>9772</v>
       </c>
-      <c r="P31" s="168">
+      <c r="P31" s="167">
         <v>11969</v>
       </c>
-      <c r="Q31" s="172">
+      <c r="Q31" s="171">
         <f t="shared" si="4"/>
         <v>114730000000</v>
       </c>
-      <c r="R31" s="168">
+      <c r="R31" s="167">
         <v>890</v>
       </c>
-      <c r="S31" s="173">
+      <c r="S31" s="172">
         <f t="shared" si="5"/>
         <v>2.9599930271071211E-2</v>
       </c>
-      <c r="T31" s="173">
+      <c r="T31" s="172">
         <f t="shared" si="6"/>
         <v>0.87245720686694161</v>
       </c>
-      <c r="U31" s="173">
+      <c r="U31" s="172">
         <f t="shared" si="7"/>
         <v>0.12754279313305839</v>
       </c>
-      <c r="V31" s="173">
+      <c r="V31" s="172">
         <f t="shared" si="8"/>
         <v>4.6851205508730731E-2</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="171">
+      <c r="A32" s="170">
         <v>43556</v>
       </c>
-      <c r="B32" s="164">
+      <c r="B32" s="163">
         <v>50.167499999999997</v>
       </c>
-      <c r="C32" s="165">
+      <c r="C32" s="164">
         <v>2945.83</v>
       </c>
-      <c r="D32" s="170">
+      <c r="D32" s="169">
         <f t="shared" si="0"/>
         <v>0.20565966821293746</v>
       </c>
-      <c r="E32" s="170">
+      <c r="E32" s="169">
         <f t="shared" si="0"/>
         <v>8.9393883362301807E-2</v>
       </c>
-      <c r="F32" s="168">
+      <c r="F32" s="167">
         <f t="shared" si="9"/>
         <v>0.70868048367508629</v>
       </c>
-      <c r="G32" s="170">
+      <c r="G32" s="169">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="H32" s="170">
+      <c r="H32" s="169">
         <v>4.07E-2</v>
       </c>
-      <c r="I32" s="170">
+      <c r="I32" s="169">
         <v>2.6529508196721299E-2</v>
       </c>
-      <c r="J32" s="170">
+      <c r="J32" s="169">
         <f t="shared" si="1"/>
         <v>6.7278636008038767E-2</v>
       </c>
-      <c r="K32" s="168">
+      <c r="K32" s="167">
         <v>4601075000</v>
       </c>
-      <c r="L32" s="169">
+      <c r="L32" s="168">
         <f t="shared" si="2"/>
         <v>18404300000</v>
       </c>
-      <c r="M32" s="172">
+      <c r="M32" s="171">
         <f t="shared" si="3"/>
         <v>923297720250</v>
       </c>
-      <c r="N32" s="168">
+      <c r="N32" s="167">
         <v>90201</v>
       </c>
-      <c r="O32" s="168">
+      <c r="O32" s="167">
         <v>10505</v>
       </c>
-      <c r="P32" s="168">
+      <c r="P32" s="167">
         <v>11924</v>
       </c>
-      <c r="Q32" s="172">
+      <c r="Q32" s="171">
         <f t="shared" si="4"/>
         <v>112630000000</v>
       </c>
-      <c r="R32" s="168">
+      <c r="R32" s="167">
         <v>1010</v>
       </c>
-      <c r="S32" s="173">
+      <c r="S32" s="172">
         <f t="shared" si="5"/>
         <v>3.2087365710734263E-2</v>
       </c>
-      <c r="T32" s="173">
+      <c r="T32" s="172">
         <f t="shared" si="6"/>
         <v>0.89127619833088445</v>
       </c>
-      <c r="U32" s="173">
+      <c r="U32" s="172">
         <f t="shared" si="7"/>
         <v>0.10872380166911555</v>
       </c>
-      <c r="V32" s="173">
+      <c r="V32" s="172">
         <f t="shared" si="8"/>
         <v>6.3452507315750403E-2</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="171">
+      <c r="A33" s="170">
         <v>43647</v>
       </c>
-      <c r="B33" s="164">
+      <c r="B33" s="163">
         <v>53.259998000000003</v>
       </c>
-      <c r="C33" s="165">
+      <c r="C33" s="164">
         <v>2980.38</v>
       </c>
-      <c r="D33" s="170">
+      <c r="D33" s="169">
         <f t="shared" si="0"/>
         <v>6.1643454427667388E-2</v>
       </c>
-      <c r="E33" s="170">
+      <c r="E33" s="169">
         <f t="shared" si="0"/>
         <v>1.172844325707878E-2</v>
       </c>
-      <c r="F33" s="168">
+      <c r="F33" s="167">
         <f t="shared" si="9"/>
         <v>0.6861386894003062</v>
       </c>
-      <c r="G33" s="170">
+      <c r="G33" s="169">
         <v>5.67E-2</v>
       </c>
-      <c r="H33" s="170">
+      <c r="H33" s="169">
         <v>3.44E-2</v>
       </c>
-      <c r="I33" s="170">
+      <c r="I33" s="169">
         <v>2.33888888888889E-2</v>
       </c>
-      <c r="J33" s="170">
+      <c r="J33" s="169">
         <f t="shared" si="1"/>
         <v>6.2292952577886265E-2</v>
       </c>
-      <c r="K33" s="168">
+      <c r="K33" s="167">
         <v>4519180000</v>
       </c>
-      <c r="L33" s="169">
+      <c r="L33" s="168">
         <f t="shared" si="2"/>
         <v>18076720000</v>
       </c>
-      <c r="M33" s="172">
+      <c r="M33" s="171">
         <f t="shared" si="3"/>
         <v>962766071046.56006</v>
       </c>
-      <c r="N33" s="168">
+      <c r="N33" s="167">
         <v>84936</v>
       </c>
-      <c r="O33" s="168">
+      <c r="O33" s="167">
         <v>13529</v>
       </c>
-      <c r="P33" s="168">
+      <c r="P33" s="167">
         <v>9953</v>
       </c>
-      <c r="Q33" s="172">
+      <c r="Q33" s="171">
         <f t="shared" si="4"/>
         <v>108418000000</v>
       </c>
-      <c r="R33" s="168">
+      <c r="R33" s="167">
         <v>866</v>
       </c>
-      <c r="S33" s="173">
+      <c r="S33" s="172">
         <f t="shared" si="5"/>
         <v>3.3518419450644724E-2</v>
       </c>
-      <c r="T33" s="173">
+      <c r="T33" s="172">
         <f t="shared" si="6"/>
         <v>0.89878676977144156</v>
       </c>
-      <c r="U33" s="173">
+      <c r="U33" s="172">
         <f t="shared" si="7"/>
         <v>0.10121323022855844</v>
       </c>
-      <c r="V33" s="173">
+      <c r="V33" s="172">
         <f t="shared" si="8"/>
         <v>5.938058913175949E-2</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="171">
+      <c r="A34" s="170">
         <v>43739</v>
       </c>
-      <c r="B34" s="164">
+      <c r="B34" s="163">
         <v>62.189999</v>
       </c>
-      <c r="C34" s="165">
+      <c r="C34" s="164">
         <v>3037.56</v>
       </c>
-      <c r="D34" s="170">
+      <c r="D34" s="169">
         <f t="shared" si="0"/>
         <v>0.16766806863192141</v>
       </c>
-      <c r="E34" s="170">
+      <c r="E34" s="169">
         <f t="shared" si="0"/>
         <v>1.9185472993376695E-2</v>
       </c>
-      <c r="F34" s="168">
+      <c r="F34" s="167">
         <f t="shared" si="9"/>
         <v>0.75050730932405396</v>
       </c>
-      <c r="G34" s="170">
+      <c r="G34" s="169">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="H34" s="170">
+      <c r="H34" s="169">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="I34" s="170">
+      <c r="I34" s="169">
         <v>1.7979687500000001E-2</v>
       </c>
-      <c r="J34" s="170">
+      <c r="J34" s="169">
         <f t="shared" si="1"/>
         <v>5.9632843167484996E-2</v>
       </c>
-      <c r="K34" s="168">
+      <c r="K34" s="167">
         <v>4443265000</v>
       </c>
-      <c r="L34" s="169">
+      <c r="L34" s="168">
         <f t="shared" si="2"/>
         <v>17773060000</v>
       </c>
-      <c r="M34" s="172">
+      <c r="M34" s="171">
         <f t="shared" si="3"/>
         <v>1105306583626.9399</v>
       </c>
-      <c r="N34" s="168">
+      <c r="N34" s="167">
         <v>91807</v>
       </c>
-      <c r="O34" s="168">
+      <c r="O34" s="167">
         <v>10260</v>
       </c>
-      <c r="P34" s="168">
+      <c r="P34" s="167">
         <v>5980</v>
       </c>
-      <c r="Q34" s="172">
+      <c r="Q34" s="171">
         <f t="shared" si="4"/>
         <v>108047000000</v>
       </c>
-      <c r="R34" s="168">
+      <c r="R34" s="167">
         <v>810</v>
       </c>
-      <c r="S34" s="173">
+      <c r="S34" s="172">
         <f t="shared" si="5"/>
         <v>3.3096707914148475E-2</v>
       </c>
-      <c r="T34" s="173">
+      <c r="T34" s="172">
         <f t="shared" si="6"/>
         <v>0.91095176092279107</v>
       </c>
-      <c r="U34" s="173">
+      <c r="U34" s="172">
         <f t="shared" si="7"/>
         <v>8.9048239077208935E-2</v>
       </c>
-      <c r="V34" s="173">
+      <c r="V34" s="172">
         <f t="shared" si="8"/>
         <v>5.7269847051260737E-2</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="171">
+      <c r="A35" s="170">
         <v>43831</v>
       </c>
-      <c r="B35" s="164">
+      <c r="B35" s="163">
         <v>77.377502000000007</v>
       </c>
-      <c r="C35" s="165">
+      <c r="C35" s="164">
         <v>3225.52</v>
       </c>
-      <c r="D35" s="170">
+      <c r="D35" s="169">
         <f t="shared" si="0"/>
         <v>0.24421134015454804</v>
       </c>
-      <c r="E35" s="170">
+      <c r="E35" s="169">
         <f t="shared" si="0"/>
         <v>6.187861309735454E-2</v>
       </c>
-      <c r="F35" s="168">
+      <c r="F35" s="167">
         <f t="shared" si="9"/>
         <v>0.99445134004580671</v>
       </c>
-      <c r="G35" s="170">
+      <c r="G35" s="169">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H35" s="170">
+      <c r="H35" s="169">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="I35" s="170">
+      <c r="I35" s="169">
         <v>1.7919354838709701E-2</v>
       </c>
-      <c r="J35" s="170">
+      <c r="J35" s="169">
         <f t="shared" si="1"/>
         <v>6.963082452109165E-2</v>
       </c>
-      <c r="K35" s="168">
+      <c r="K35" s="167">
         <v>4375480000</v>
       </c>
-      <c r="L35" s="169">
+      <c r="L35" s="168">
         <f t="shared" si="2"/>
         <v>17501920000</v>
       </c>
-      <c r="M35" s="172">
+      <c r="M35" s="171">
         <f t="shared" si="3"/>
         <v>1354254849803.8401</v>
       </c>
-      <c r="N35" s="168">
+      <c r="N35" s="167">
         <v>93078</v>
       </c>
-      <c r="O35" s="168">
+      <c r="O35" s="167">
         <v>10224</v>
       </c>
-      <c r="P35" s="168">
+      <c r="P35" s="167">
         <v>4990</v>
       </c>
-      <c r="Q35" s="172">
+      <c r="Q35" s="171">
         <f t="shared" si="4"/>
         <v>108292000000</v>
       </c>
-      <c r="R35" s="168">
+      <c r="R35" s="167">
         <v>785</v>
       </c>
-      <c r="S35" s="173">
+      <c r="S35" s="172">
         <f t="shared" si="5"/>
         <v>3.2052229158201898E-2</v>
       </c>
-      <c r="T35" s="173">
+      <c r="T35" s="172">
         <f t="shared" si="6"/>
         <v>0.92595655994573822</v>
       </c>
-      <c r="U35" s="173">
+      <c r="U35" s="172">
         <f t="shared" si="7"/>
         <v>7.4043440054261778E-2</v>
       </c>
-      <c r="V35" s="173">
+      <c r="V35" s="172">
         <f t="shared" si="8"/>
         <v>6.6848376048016162E-2</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="171">
+      <c r="A36" s="170">
         <v>43922</v>
       </c>
-      <c r="B36" s="164">
+      <c r="B36" s="163">
         <v>73.449996999999996</v>
       </c>
-      <c r="C36" s="165">
+      <c r="C36" s="164">
         <v>2912.43</v>
       </c>
-      <c r="D36" s="170">
+      <c r="D36" s="169">
         <f t="shared" si="0"/>
         <v>-5.0757712493742835E-2</v>
       </c>
-      <c r="E36" s="170">
+      <c r="E36" s="169">
         <f t="shared" si="0"/>
         <v>-9.7066519506932236E-2</v>
       </c>
-      <c r="F36" s="168">
+      <c r="F36" s="167">
         <f t="shared" si="9"/>
         <v>0.97882143898777374</v>
       </c>
-      <c r="G36" s="170">
+      <c r="G36" s="169">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="H36" s="170">
+      <c r="H36" s="169">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="I36" s="170">
+      <c r="I36" s="169">
         <v>1.3650000000000001E-2</v>
       </c>
-      <c r="J36" s="170">
+      <c r="J36" s="169">
         <f t="shared" si="1"/>
         <v>7.3945400641646869E-2</v>
       </c>
-      <c r="K36" s="168">
+      <c r="K36" s="167">
         <v>4334335000</v>
       </c>
-      <c r="L36" s="169">
+      <c r="L36" s="168">
         <f t="shared" si="2"/>
         <v>17337340000</v>
       </c>
-      <c r="M36" s="172">
+      <c r="M36" s="171">
         <f t="shared" si="3"/>
         <v>1273427570987.98</v>
       </c>
-      <c r="N36" s="175">
+      <c r="N36" s="174">
         <v>89086</v>
       </c>
-      <c r="O36" s="168">
+      <c r="O36" s="167">
         <v>10392</v>
       </c>
-      <c r="P36" s="168">
+      <c r="P36" s="167">
         <v>10029</v>
       </c>
-      <c r="Q36" s="172">
+      <c r="Q36" s="171">
         <f t="shared" si="4"/>
         <v>109507000000</v>
       </c>
-      <c r="R36" s="168">
+      <c r="R36" s="167">
         <v>757</v>
       </c>
-      <c r="S36" s="173">
+      <c r="S36" s="172">
         <f t="shared" si="5"/>
         <v>2.9386249280867891E-2</v>
       </c>
-      <c r="T36" s="173">
+      <c r="T36" s="172">
         <f t="shared" si="6"/>
         <v>0.92081548737206897</v>
       </c>
-      <c r="U36" s="173">
+      <c r="U36" s="172">
         <f t="shared" si="7"/>
         <v>7.9184512627931025E-2</v>
       </c>
-      <c r="V36" s="173">
+      <c r="V36" s="172">
         <f t="shared" si="8"/>
         <v>7.0417005958029369E-2</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="171">
+      <c r="A37" s="170">
         <v>44013</v>
       </c>
-      <c r="B37" s="164">
+      <c r="B37" s="163">
         <v>106.260002</v>
       </c>
-      <c r="C37" s="165">
+      <c r="C37" s="164">
         <v>3271.12</v>
       </c>
-      <c r="D37" s="170">
+      <c r="D37" s="169">
         <f t="shared" si="0"/>
         <v>0.44669852062757753</v>
       </c>
-      <c r="E37" s="170">
+      <c r="E37" s="169">
         <f t="shared" si="0"/>
         <v>0.123158324835275</v>
       </c>
-      <c r="F37" s="168">
+      <c r="F37" s="167">
         <f t="shared" si="9"/>
         <v>1.5306983567165311</v>
       </c>
-      <c r="G37" s="170">
+      <c r="G37" s="169">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="H37" s="170">
+      <c r="H37" s="169">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="I37" s="170">
+      <c r="I37" s="169">
         <v>6.8761904761904802E-3</v>
       </c>
-      <c r="J37" s="170">
+      <c r="J37" s="169">
         <f t="shared" si="1"/>
         <v>8.9074692231868202E-2</v>
       </c>
-      <c r="K37" s="168">
+      <c r="K37" s="167">
         <v>4275634000</v>
       </c>
-      <c r="L37" s="169">
+      <c r="L37" s="168">
         <f t="shared" si="2"/>
         <v>17102536000</v>
       </c>
-      <c r="M37" s="172">
+      <c r="M37" s="171">
         <f t="shared" si="3"/>
         <v>1817315509565.072</v>
       </c>
-      <c r="N37" s="175">
+      <c r="N37" s="174">
         <v>94048</v>
       </c>
-      <c r="O37" s="175">
+      <c r="O37" s="174">
         <v>7509</v>
       </c>
-      <c r="P37" s="175">
+      <c r="P37" s="174">
         <v>11166</v>
       </c>
-      <c r="Q37" s="172">
+      <c r="Q37" s="171">
         <f t="shared" si="4"/>
         <v>112723000000</v>
       </c>
-      <c r="R37" s="168">
+      <c r="R37" s="167">
         <v>697</v>
       </c>
-      <c r="S37" s="173">
+      <c r="S37" s="172">
         <f t="shared" si="5"/>
         <v>2.7048605874577504E-2</v>
       </c>
-      <c r="T37" s="173">
+      <c r="T37" s="172">
         <f t="shared" si="6"/>
         <v>0.94159546587212828</v>
       </c>
-      <c r="U37" s="173">
+      <c r="U37" s="172">
         <f t="shared" si="7"/>
         <v>5.8404534127871721E-2</v>
       </c>
-      <c r="V37" s="173">
+      <c r="V37" s="172">
         <f t="shared" si="8"/>
         <v>8.5452087554395498E-2</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="171">
+      <c r="A38" s="170">
         <v>44105</v>
       </c>
-      <c r="B38" s="164">
+      <c r="B38" s="163">
         <v>108.860001</v>
       </c>
-      <c r="C38" s="165">
+      <c r="C38" s="164">
         <v>3269.96</v>
       </c>
-      <c r="D38" s="170">
+      <c r="D38" s="169">
         <f t="shared" si="0"/>
         <v>2.4468275466435596E-2</v>
       </c>
-      <c r="E38" s="170">
+      <c r="E38" s="169">
         <f t="shared" si="0"/>
         <v>-3.5461860157981473E-4</v>
       </c>
-      <c r="F38" s="168">
+      <c r="F38" s="167">
         <f t="shared" si="9"/>
         <v>1.5460733405424141</v>
       </c>
-      <c r="G38" s="170">
+      <c r="G38" s="169">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="H38" s="170">
+      <c r="H38" s="169">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="I38" s="170">
+      <c r="I38" s="169">
         <v>6.5062499999999999E-3</v>
       </c>
-      <c r="J38" s="170">
+      <c r="J38" s="169">
         <f t="shared" si="1"/>
         <v>7.9790126341710427E-2</v>
       </c>
-      <c r="K38" s="168">
+      <c r="K38" s="167">
         <v>17001802000</v>
       </c>
-      <c r="L38" s="169">
+      <c r="L38" s="168">
         <f>K38</f>
         <v>17001802000</v>
       </c>
-      <c r="M38" s="172">
+      <c r="M38" s="171">
         <f t="shared" si="3"/>
         <v>1850816182721.802</v>
       </c>
-      <c r="N38" s="168">
+      <c r="N38" s="167">
         <v>98667</v>
       </c>
-      <c r="O38" s="168">
+      <c r="O38" s="167">
         <v>8773</v>
       </c>
-      <c r="P38" s="168">
+      <c r="P38" s="167">
         <v>4996</v>
       </c>
-      <c r="Q38" s="172">
+      <c r="Q38" s="171">
         <f t="shared" si="4"/>
         <v>112436000000</v>
       </c>
-      <c r="R38" s="168">
+      <c r="R38" s="167">
         <v>634</v>
       </c>
-      <c r="S38" s="173">
+      <c r="S38" s="172">
         <f t="shared" si="5"/>
         <v>2.5552314205414636E-2</v>
       </c>
-      <c r="T38" s="173">
+      <c r="T38" s="172">
         <f t="shared" si="6"/>
         <v>0.94272972112827524</v>
       </c>
-      <c r="U38" s="173">
+      <c r="U38" s="172">
         <f t="shared" si="7"/>
         <v>5.7270278871724756E-2</v>
       </c>
-      <c r="V38" s="173">
+      <c r="V38" s="172">
         <f t="shared" si="8"/>
         <v>7.6683911715272543E-2</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="171">
+      <c r="A39" s="170">
         <v>44197</v>
       </c>
-      <c r="B39" s="164">
+      <c r="B39" s="163">
         <v>131.96000699999999</v>
       </c>
-      <c r="C39" s="165">
+      <c r="C39" s="164">
         <v>3714.24</v>
       </c>
-      <c r="D39" s="170">
+      <c r="D39" s="169">
         <f t="shared" si="0"/>
         <v>0.21219920804520287</v>
       </c>
-      <c r="E39" s="170">
+      <c r="E39" s="169">
         <f t="shared" si="0"/>
         <v>0.13586710540801716</v>
       </c>
-      <c r="F39" s="168">
+      <c r="F39" s="167">
         <f t="shared" si="9"/>
         <v>1.7065346606132785</v>
       </c>
-      <c r="G39" s="170">
+      <c r="G39" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H39" s="170">
+      <c r="H39" s="169">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="I39" s="170">
+      <c r="I39" s="169">
         <v>8.6451612903225804E-3</v>
       </c>
-      <c r="J39" s="170">
+      <c r="J39" s="169">
         <f t="shared" si="1"/>
         <v>8.0319617036080287E-2</v>
       </c>
-      <c r="K39" s="168">
+      <c r="K39" s="167">
         <v>16788096000</v>
       </c>
-      <c r="L39" s="169">
+      <c r="L39" s="168">
         <f>K39</f>
         <v>16788096000</v>
       </c>
-      <c r="M39" s="172">
+      <c r="M39" s="171">
         <f t="shared" si="3"/>
         <v>2215357265676.6719</v>
       </c>
-      <c r="N39" s="175">
+      <c r="N39" s="174">
         <v>99281</v>
       </c>
-      <c r="O39" s="175">
+      <c r="O39" s="174">
         <v>7762</v>
       </c>
-      <c r="P39" s="175">
+      <c r="P39" s="174">
         <v>5000</v>
       </c>
-      <c r="Q39" s="172">
+      <c r="Q39" s="171">
         <f t="shared" si="4"/>
         <v>112043000000</v>
       </c>
-      <c r="R39" s="168">
+      <c r="R39" s="167">
         <v>638</v>
       </c>
-      <c r="S39" s="173">
+      <c r="S39" s="172">
         <f t="shared" si="5"/>
         <v>2.4329944753353622E-2</v>
       </c>
-      <c r="T39" s="173">
+      <c r="T39" s="172">
         <f t="shared" si="6"/>
         <v>0.9518591616352573</v>
       </c>
-      <c r="U39" s="173">
+      <c r="U39" s="172">
         <f t="shared" si="7"/>
         <v>4.81408383647427E-2</v>
       </c>
-      <c r="V39" s="173">
+      <c r="V39" s="172">
         <f t="shared" si="8"/>
         <v>7.7624227272622637E-2</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="176">
+      <c r="A40" s="175">
         <v>44287</v>
       </c>
-      <c r="B40" s="177">
+      <c r="B40" s="176">
         <v>131.46000699999999</v>
       </c>
-      <c r="C40" s="178">
+      <c r="C40" s="177">
         <v>4181.17</v>
       </c>
-      <c r="D40" s="179">
+      <c r="D40" s="178">
         <f t="shared" si="0"/>
         <v>-3.7890267768779795E-3</v>
       </c>
-      <c r="E40" s="179">
+      <c r="E40" s="178">
         <f t="shared" si="0"/>
         <v>0.12571347031963476</v>
       </c>
-      <c r="F40" s="168">
+      <c r="F40" s="167">
         <f t="shared" si="9"/>
         <v>1.3160844710449926</v>
       </c>
-      <c r="G40" s="179">
+      <c r="G40" s="178">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="H40" s="179">
+      <c r="H40" s="178">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="I40" s="179">
+      <c r="I40" s="178">
         <v>1.3359016393442599E-2</v>
       </c>
-      <c r="J40" s="179">
+      <c r="J40" s="178">
         <f t="shared" si="1"/>
         <v>6.7844913494705283E-2</v>
       </c>
-      <c r="K40" s="180">
+      <c r="K40" s="179">
         <v>16687631000</v>
       </c>
-      <c r="L40" s="181">
+      <c r="L40" s="180">
         <f>K40</f>
         <v>16687631000</v>
       </c>
-      <c r="M40" s="182">
+      <c r="M40" s="181">
         <f t="shared" si="3"/>
         <v>2193756088073.4167</v>
       </c>
-      <c r="N40" s="180">
+      <c r="N40" s="179">
         <v>108642</v>
       </c>
-      <c r="O40" s="180">
+      <c r="O40" s="179">
         <v>8003</v>
       </c>
-      <c r="P40" s="180">
+      <c r="P40" s="179">
         <v>5000</v>
       </c>
-      <c r="Q40" s="182">
+      <c r="Q40" s="181">
         <f t="shared" si="4"/>
         <v>121645000000</v>
       </c>
-      <c r="R40" s="180">
+      <c r="R40" s="179">
         <v>670</v>
       </c>
-      <c r="S40" s="183">
+      <c r="S40" s="182">
         <f t="shared" si="5"/>
         <v>2.1694274322824614E-2</v>
       </c>
-      <c r="T40" s="183">
+      <c r="T40" s="182">
         <f t="shared" si="6"/>
         <v>0.9474626661330553</v>
       </c>
-      <c r="U40" s="183">
+      <c r="U40" s="182">
         <f t="shared" si="7"/>
         <v>5.2537333866944702E-2</v>
       </c>
-      <c r="V40" s="183">
+      <c r="V40" s="182">
         <f t="shared" si="8"/>
         <v>6.542028195635928E-2</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="191" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B41" s="192"/>
       <c r="C41" s="192"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="184"/>
-      <c r="L41" s="184"/>
-      <c r="M41" s="184"/>
-      <c r="N41" s="184"/>
-      <c r="O41" s="184"/>
-      <c r="P41" s="184"/>
-      <c r="Q41" s="184"/>
-      <c r="R41" s="184"/>
-      <c r="S41" s="184"/>
-      <c r="T41" s="184"/>
-      <c r="U41" s="184"/>
-      <c r="V41" s="185">
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="183"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="183"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="184">
         <f>AVERAGE(V3:V40)</f>
         <v>6.7380327129735726E-2</v>
       </c>
@@ -10070,4 +9274,103 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF89F64-D811-B94E-94E9-D7DE0ECDCD2F}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1">
+        <v>366849.96213199501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2">
+        <v>213320.95322589701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>153529.008906098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="185">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>110526.008906098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7">
+        <v>15760.7214249757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>94765.287481122301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9">
+        <v>16734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>5.6217958419507799</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>